--- a/right_knee_Data.xlsx
+++ b/right_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>417.8333740234375</v>
+        <v>318.2956237792969</v>
       </c>
       <c r="C2" t="n">
-        <v>414.2261352539062</v>
+        <v>314.7120971679688</v>
       </c>
       <c r="D2" t="n">
-        <v>413.4721069335938</v>
+        <v>310.9631652832031</v>
       </c>
       <c r="E2" t="n">
-        <v>412.4598999023438</v>
+        <v>309.6856994628906</v>
       </c>
       <c r="F2" t="n">
-        <v>411.5904541015625</v>
+        <v>309.2885437011719</v>
       </c>
       <c r="G2" t="n">
-        <v>410.7545166015625</v>
+        <v>309.3256225585938</v>
       </c>
       <c r="H2" t="n">
-        <v>410.135009765625</v>
+        <v>309.7662353515625</v>
       </c>
       <c r="I2" t="n">
-        <v>409.1829833984375</v>
+        <v>310.1208190917969</v>
       </c>
       <c r="J2" t="n">
-        <v>407.2534790039062</v>
+        <v>310.3461303710938</v>
       </c>
       <c r="K2" t="n">
-        <v>404.8722839355469</v>
+        <v>311.2722473144531</v>
       </c>
       <c r="L2" t="n">
-        <v>403.2191162109375</v>
+        <v>312.1087036132812</v>
       </c>
       <c r="M2" t="n">
-        <v>400.8077697753906</v>
+        <v>312.8806457519531</v>
       </c>
       <c r="N2" t="n">
-        <v>398.5106811523438</v>
+        <v>313.4609069824219</v>
       </c>
       <c r="O2" t="n">
-        <v>396.5946960449219</v>
+        <v>313.8418273925781</v>
       </c>
       <c r="P2" t="n">
-        <v>395.6181030273438</v>
+        <v>314.2340698242188</v>
       </c>
       <c r="Q2" t="n">
-        <v>395.3359985351562</v>
+        <v>314.5717163085938</v>
       </c>
       <c r="R2" t="n">
-        <v>394.0920715332031</v>
+        <v>314.9267883300781</v>
       </c>
       <c r="S2" t="n">
-        <v>392.6806640625</v>
+        <v>315.245849609375</v>
       </c>
       <c r="T2" t="n">
-        <v>391.3180236816406</v>
+        <v>315.5145568847656</v>
       </c>
       <c r="U2" t="n">
-        <v>389.0169067382812</v>
+        <v>315.6436767578125</v>
       </c>
       <c r="V2" t="n">
-        <v>386.6595764160156</v>
+        <v>315.8979797363281</v>
       </c>
       <c r="W2" t="n">
-        <v>385.0131530761719</v>
+        <v>316.091064453125</v>
       </c>
       <c r="X2" t="n">
-        <v>383.1758422851562</v>
+        <v>316.2160339355469</v>
       </c>
       <c r="Y2" t="n">
-        <v>381.3180847167969</v>
+        <v>316.3802490234375</v>
       </c>
       <c r="Z2" t="n">
-        <v>380.3677978515625</v>
+        <v>316.4967041015625</v>
       </c>
       <c r="AA2" t="n">
-        <v>379.8120422363281</v>
+        <v>316.6373291015625</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.527099609375</v>
+        <v>316.8598327636719</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.1927185058594</v>
+        <v>316.9424438476562</v>
       </c>
       <c r="AD2" t="n">
-        <v>376.6815795898438</v>
+        <v>317.0526733398438</v>
       </c>
       <c r="AE2" t="n">
-        <v>373.6594848632812</v>
+        <v>317.2618408203125</v>
       </c>
       <c r="AF2" t="n">
-        <v>371.2637939453125</v>
+        <v>317.4257202148438</v>
       </c>
       <c r="AG2" t="n">
-        <v>370.7763977050781</v>
+        <v>317.564697265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>371.3677673339844</v>
+        <v>317.6920471191406</v>
       </c>
       <c r="AI2" t="n">
-        <v>372.0816650390625</v>
+        <v>317.8053283691406</v>
       </c>
       <c r="AJ2" t="n">
-        <v>371.9608154296875</v>
+        <v>317.9071960449219</v>
       </c>
       <c r="AK2" t="n">
-        <v>371.048828125</v>
+        <v>318.0108337402344</v>
       </c>
       <c r="AL2" t="n">
-        <v>370.958251953125</v>
+        <v>318.2331848144531</v>
       </c>
       <c r="AM2" t="n">
-        <v>371.6587524414062</v>
+        <v>318.4626159667969</v>
       </c>
       <c r="AN2" t="n">
-        <v>370.9400634765625</v>
+        <v>318.5639038085938</v>
       </c>
       <c r="AO2" t="n">
-        <v>370.215576171875</v>
+        <v>318.5889892578125</v>
       </c>
       <c r="AP2" t="n">
-        <v>369.5345764160156</v>
+        <v>318.7103881835938</v>
       </c>
       <c r="AQ2" t="n">
-        <v>369.2555541992188</v>
+        <v>319.8657531738281</v>
       </c>
       <c r="AR2" t="n">
-        <v>368.9078369140625</v>
+        <v>326.3714599609375</v>
       </c>
       <c r="AS2" t="n">
-        <v>367.75927734375</v>
+        <v>331.0724487304688</v>
       </c>
       <c r="AT2" t="n">
-        <v>366.4995727539062</v>
+        <v>340.6766052246094</v>
       </c>
       <c r="AU2" t="n">
-        <v>365.3558654785156</v>
+        <v>344.8748168945312</v>
       </c>
       <c r="AV2" t="n">
-        <v>364.635009765625</v>
+        <v>348.4122924804688</v>
       </c>
       <c r="AW2" t="n">
-        <v>363.8695068359375</v>
+        <v>352.3301696777344</v>
       </c>
       <c r="AX2" t="n">
-        <v>363.1486206054688</v>
+        <v>356.4754028320312</v>
       </c>
       <c r="AY2" t="n">
-        <v>362.5401611328125</v>
+        <v>362.408203125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>362.0187072753906</v>
+        <v>370.6793212890625</v>
       </c>
       <c r="BA2" t="n">
-        <v>361.1500549316406</v>
+        <v>377.31787109375</v>
       </c>
       <c r="BB2" t="n">
-        <v>359.924072265625</v>
+        <v>382.3649597167969</v>
       </c>
       <c r="BC2" t="n">
-        <v>358.6563110351562</v>
+        <v>385.9882202148438</v>
       </c>
       <c r="BD2" t="n">
-        <v>357.426513671875</v>
+        <v>389.8659057617188</v>
       </c>
       <c r="BE2" t="n">
-        <v>356.6038208007812</v>
+        <v>394.6336059570312</v>
       </c>
       <c r="BF2" t="n">
-        <v>355.8044738769531</v>
+        <v>396.751708984375</v>
       </c>
       <c r="BG2" t="n">
-        <v>354.9426574707031</v>
+        <v>396.7981262207031</v>
       </c>
       <c r="BH2" t="n">
-        <v>353.9632873535156</v>
+        <v>395.2763366699219</v>
       </c>
       <c r="BI2" t="n">
-        <v>352.9869995117188</v>
+        <v>393.2039794921875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>351.88134765625</v>
+        <v>379.7276306152344</v>
       </c>
       <c r="BK2" t="n">
-        <v>349.9873046875</v>
+        <v>368.1435546875</v>
       </c>
       <c r="BL2" t="n">
-        <v>347.7156982421875</v>
+        <v>360.3073120117188</v>
       </c>
       <c r="BM2" t="n">
-        <v>344.9120483398438</v>
+        <v>346.2337646484375</v>
       </c>
       <c r="BN2" t="n">
-        <v>341.4889526367188</v>
+        <v>340.1640625</v>
       </c>
       <c r="BO2" t="n">
-        <v>338.8128051757812</v>
+        <v>333.9874267578125</v>
       </c>
       <c r="BP2" t="n">
-        <v>335.8480224609375</v>
+        <v>326.8146362304688</v>
       </c>
       <c r="BQ2" t="n">
-        <v>334.391845703125</v>
+        <v>319.933837890625</v>
       </c>
       <c r="BR2" t="n">
-        <v>334.0046691894531</v>
+        <v>313.1555480957031</v>
       </c>
       <c r="BS2" t="n">
-        <v>332.7005615234375</v>
+        <v>306.0206604003906</v>
       </c>
       <c r="BT2" t="n">
-        <v>329.1498413085938</v>
+        <v>298.1781311035156</v>
       </c>
       <c r="BU2" t="n">
-        <v>325.218994140625</v>
+        <v>290.8759460449219</v>
       </c>
       <c r="BV2" t="n">
-        <v>320.955078125</v>
+        <v>283.7155151367188</v>
       </c>
       <c r="BW2" t="n">
-        <v>317.3246765136719</v>
+        <v>278.0809020996094</v>
       </c>
       <c r="BX2" t="n">
-        <v>314.0859985351562</v>
+        <v>272.2297668457031</v>
       </c>
       <c r="BY2" t="n">
-        <v>308.8214111328125</v>
+        <v>268.423583984375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>301.5210266113281</v>
+        <v>264.5137634277344</v>
       </c>
       <c r="CA2" t="n">
-        <v>290.2820739746094</v>
+        <v>260.0104675292969</v>
       </c>
       <c r="CB2" t="n">
-        <v>281.7571105957031</v>
+        <v>254.9001770019531</v>
       </c>
       <c r="CC2" t="n">
-        <v>277.3460998535156</v>
+        <v>250.0319213867188</v>
       </c>
       <c r="CD2" t="n">
-        <v>272.933837890625</v>
+        <v>245.8272705078125</v>
       </c>
       <c r="CE2" t="n">
-        <v>267.8944091796875</v>
+        <v>242.0755157470703</v>
       </c>
       <c r="CF2" t="n">
-        <v>259.2316284179688</v>
+        <v>239.1006164550781</v>
       </c>
       <c r="CG2" t="n">
-        <v>256.2925720214844</v>
+        <v>236.1501159667969</v>
       </c>
       <c r="CH2" t="n">
-        <v>254.167236328125</v>
+        <v>234.1937103271484</v>
       </c>
       <c r="CI2" t="n">
-        <v>252.1393737792969</v>
+        <v>233.2542419433594</v>
       </c>
       <c r="CJ2" t="n">
-        <v>249.986083984375</v>
+        <v>233.3056640625</v>
       </c>
       <c r="CK2" t="n">
-        <v>248.0533599853516</v>
+        <v>234.2533874511719</v>
       </c>
       <c r="CL2" t="n">
-        <v>247.1387939453125</v>
+        <v>237.0567016601562</v>
       </c>
       <c r="CM2" t="n">
-        <v>247.3103637695312</v>
+        <v>241.4308929443359</v>
       </c>
       <c r="CN2" t="n">
-        <v>247.3337097167969</v>
+        <v>247.2772827148438</v>
       </c>
       <c r="CO2" t="n">
-        <v>247.4491577148438</v>
+        <v>253.2967224121094</v>
       </c>
       <c r="CP2" t="n">
-        <v>247.4465179443359</v>
+        <v>259.6285400390625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>247.3760833740234</v>
+        <v>266.0997619628906</v>
       </c>
       <c r="CR2" t="n">
-        <v>247.3653411865234</v>
+        <v>277.7788391113281</v>
       </c>
       <c r="CS2" t="n">
-        <v>247.2838134765625</v>
+        <v>281.9830627441406</v>
       </c>
       <c r="CT2" t="n">
-        <v>245.5416564941406</v>
+        <v>287.0584716796875</v>
       </c>
       <c r="CU2" t="n">
-        <v>243.6737365722656</v>
+        <v>294.7801208496094</v>
       </c>
       <c r="CV2" t="n">
-        <v>241.7585906982422</v>
+        <v>304.4652709960938</v>
       </c>
       <c r="CW2" t="n">
-        <v>239.0910034179688</v>
+        <v>312.0108642578125</v>
       </c>
       <c r="CX2" t="n">
-        <v>238.3667144775391</v>
+        <v>317.0218505859375</v>
       </c>
       <c r="CY2" t="n">
-        <v>237.4411163330078</v>
+        <v>321.460693359375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>237.1014099121094</v>
+        <v>325.0557250976562</v>
       </c>
       <c r="DA2" t="n">
-        <v>236.8272399902344</v>
+        <v>330.2163391113281</v>
       </c>
       <c r="DB2" t="n">
-        <v>236.690185546875</v>
+        <v>341.8209228515625</v>
       </c>
       <c r="DC2" t="n">
-        <v>240.3213195800781</v>
+        <v>347.29345703125</v>
       </c>
       <c r="DD2" t="n">
-        <v>242.8798217773438</v>
+        <v>351.8864440917969</v>
       </c>
       <c r="DE2" t="n">
-        <v>245.1688842773438</v>
+        <v>355.4301452636719</v>
       </c>
       <c r="DF2" t="n">
-        <v>246.2125854492188</v>
+        <v>359.2365112304688</v>
       </c>
       <c r="DG2" t="n">
-        <v>245.5779113769531</v>
+        <v>362.7068481445312</v>
       </c>
       <c r="DH2" t="n">
-        <v>245.3573303222656</v>
+        <v>365.2787780761719</v>
       </c>
       <c r="DI2" t="n">
-        <v>245.3462066650391</v>
+        <v>365.6190490722656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>245.0794830322266</v>
+        <v>365.8612060546875</v>
       </c>
       <c r="DK2" t="n">
-        <v>244.8798828125</v>
+        <v>366.3014221191406</v>
       </c>
       <c r="DL2" t="n">
-        <v>244.8053741455078</v>
+        <v>366.9482727050781</v>
       </c>
       <c r="DM2" t="n">
-        <v>244.8890075683594</v>
+        <v>365.9071350097656</v>
       </c>
       <c r="DN2" t="n">
-        <v>247.1502685546875</v>
+        <v>362.9472045898438</v>
       </c>
       <c r="DO2" t="n">
-        <v>249.2756500244141</v>
+        <v>357.6035766601562</v>
       </c>
       <c r="DP2" t="n">
-        <v>251.7013244628906</v>
+        <v>354.0067749023438</v>
       </c>
       <c r="DQ2" t="n">
-        <v>253.7371520996094</v>
+        <v>349.0203247070312</v>
       </c>
       <c r="DR2" t="n">
-        <v>253.627685546875</v>
+        <v>345.7039184570312</v>
       </c>
       <c r="DS2" t="n">
-        <v>253.3312072753906</v>
+        <v>343.9818725585938</v>
       </c>
       <c r="DT2" t="n">
-        <v>251.6196899414062</v>
+        <v>340.7705688476562</v>
       </c>
       <c r="DU2" t="n">
-        <v>249.5006713867188</v>
+        <v>338.6724853515625</v>
       </c>
       <c r="DV2" t="n">
-        <v>243.5689392089844</v>
+        <v>335.3040771484375</v>
       </c>
       <c r="DW2" t="n">
-        <v>242.0331115722656</v>
+        <v>330.7103271484375</v>
       </c>
       <c r="DX2" t="n">
-        <v>241.1656494140625</v>
+        <v>328.9251098632812</v>
       </c>
       <c r="DY2" t="n">
-        <v>242.2729797363281</v>
+        <v>328.3834228515625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>242.8201141357422</v>
+        <v>327.4422607421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>242.3333587646484</v>
+        <v>324.4273071289062</v>
       </c>
       <c r="EB2" t="n">
-        <v>242.5043640136719</v>
+        <v>322.34130859375</v>
       </c>
       <c r="EC2" t="n">
-        <v>243.9328308105469</v>
+        <v>322.056640625</v>
       </c>
       <c r="ED2" t="n">
-        <v>244.5832824707031</v>
+        <v>318.0301208496094</v>
       </c>
       <c r="EE2" t="n">
-        <v>245.1020202636719</v>
+        <v>316.4417724609375</v>
       </c>
       <c r="EF2" t="n">
-        <v>246.0027770996094</v>
+        <v>316.0423583984375</v>
       </c>
       <c r="EG2" t="n">
-        <v>246.7264709472656</v>
+        <v>318.6517639160156</v>
       </c>
       <c r="EH2" t="n">
-        <v>247.4750061035156</v>
+        <v>326.0708312988281</v>
       </c>
       <c r="EI2" t="n">
-        <v>247.847412109375</v>
+        <v>327.2769165039062</v>
       </c>
       <c r="EJ2" t="n">
-        <v>248.1488647460938</v>
+        <v>327.2830505371094</v>
       </c>
       <c r="EK2" t="n">
-        <v>247.9069213867188</v>
+        <v>328.6405029296875</v>
       </c>
       <c r="EL2" t="n">
-        <v>247.2420043945312</v>
+        <v>330.7858276367188</v>
       </c>
       <c r="EM2" t="n">
-        <v>244.4521179199219</v>
+        <v>338.4297485351562</v>
       </c>
       <c r="EN2" t="n">
-        <v>242.616455078125</v>
+        <v>340.7684936523438</v>
       </c>
       <c r="EO2" t="n">
-        <v>242.6965942382812</v>
+        <v>343.60107421875</v>
       </c>
       <c r="EP2" t="n">
-        <v>241.2037963867188</v>
+        <v>345.5079956054688</v>
       </c>
       <c r="EQ2" t="n">
-        <v>239.5252380371094</v>
+        <v>349.1674194335938</v>
       </c>
       <c r="ER2" t="n">
-        <v>238.8043518066406</v>
+        <v>349.5509033203125</v>
       </c>
       <c r="ES2" t="n">
-        <v>237.6442108154297</v>
+        <v>349.504638671875</v>
       </c>
       <c r="ET2" t="n">
-        <v>237.2901153564453</v>
+        <v>342.529541015625</v>
       </c>
       <c r="EU2" t="n">
-        <v>237.4204406738281</v>
+        <v>335.9544067382812</v>
       </c>
       <c r="EV2" t="n">
-        <v>238.3960876464844</v>
+        <v>329.5058898925781</v>
       </c>
       <c r="EW2" t="n">
-        <v>239.0446319580078</v>
+        <v>322.9795837402344</v>
       </c>
       <c r="EX2" t="n">
-        <v>239.5013122558594</v>
+        <v>321.4818725585938</v>
       </c>
       <c r="EY2" t="n">
-        <v>239.3949279785156</v>
+        <v>318.7229919433594</v>
       </c>
       <c r="EZ2" t="n">
-        <v>238.9080505371094</v>
+        <v>314.9415588378906</v>
       </c>
       <c r="FA2" t="n">
-        <v>238.7918701171875</v>
+        <v>301.6016845703125</v>
       </c>
       <c r="FB2" t="n">
-        <v>238.8750305175781</v>
+        <v>295.0112915039062</v>
       </c>
       <c r="FC2" t="n">
-        <v>239.4143524169922</v>
+        <v>283.840576171875</v>
       </c>
       <c r="FD2" t="n">
-        <v>239.9146728515625</v>
+        <v>281.7951354980469</v>
       </c>
       <c r="FE2" t="n">
-        <v>240.7682952880859</v>
+        <v>279.9486083984375</v>
       </c>
       <c r="FF2" t="n">
-        <v>241.3147888183594</v>
+        <v>280.1014709472656</v>
       </c>
       <c r="FG2" t="n">
-        <v>241.6016845703125</v>
+        <v>278.2034912109375</v>
       </c>
       <c r="FH2" t="n">
-        <v>241.5649108886719</v>
+        <v>270.9680786132812</v>
       </c>
       <c r="FI2" t="n">
-        <v>240.7303466796875</v>
+        <v>269.4823608398438</v>
       </c>
       <c r="FJ2" t="n">
-        <v>240.5487365722656</v>
+        <v>273.9435424804688</v>
       </c>
       <c r="FK2" t="n">
-        <v>240.5592498779297</v>
+        <v>281.3585510253906</v>
       </c>
       <c r="FL2" t="n">
-        <v>240.2850036621094</v>
+        <v>283.9647216796875</v>
       </c>
       <c r="FM2" t="n">
-        <v>239.8898162841797</v>
+        <v>290.740234375</v>
       </c>
       <c r="FN2" t="n">
-        <v>237.9086151123047</v>
+        <v>299.3133239746094</v>
       </c>
       <c r="FO2" t="n">
-        <v>238.1217346191406</v>
+        <v>301.6331176757812</v>
       </c>
       <c r="FP2" t="n">
-        <v>239.5896606445312</v>
+        <v>304.7489318847656</v>
       </c>
       <c r="FQ2" t="n">
-        <v>243.2164001464844</v>
+        <v>315.2079467773438</v>
       </c>
       <c r="FR2" t="n">
-        <v>244.5490875244141</v>
+        <v>320.167236328125</v>
       </c>
       <c r="FS2" t="n">
-        <v>248.7543334960938</v>
+        <v>332.6401062011719</v>
       </c>
       <c r="FT2" t="n">
-        <v>259.1405334472656</v>
+        <v>334.3167724609375</v>
       </c>
       <c r="FU2" t="n">
-        <v>263.4881286621094</v>
+        <v>335.1078796386719</v>
       </c>
       <c r="FV2" t="n">
-        <v>275.0875244140625</v>
+        <v>333.286376953125</v>
       </c>
       <c r="FW2" t="n">
-        <v>285.5317687988281</v>
+        <v>325.5733642578125</v>
       </c>
       <c r="FX2" t="n">
-        <v>290.4736938476562</v>
+        <v>323.1163330078125</v>
       </c>
       <c r="FY2" t="n">
-        <v>293.3334350585938</v>
+        <v>345.4922180175781</v>
       </c>
       <c r="FZ2" t="n">
-        <v>295.7626342773438</v>
+        <v>350.7435607910156</v>
       </c>
       <c r="GA2" t="n">
-        <v>296.1000671386719</v>
+        <v>369.990478515625</v>
       </c>
       <c r="GB2" t="n">
-        <v>296.3381652832031</v>
+        <v>399.1604309082031</v>
       </c>
       <c r="GC2" t="n">
-        <v>296.5342407226562</v>
+        <v>371.6522521972656</v>
       </c>
       <c r="GD2" t="n">
-        <v>298.5690002441406</v>
+        <v>343.5346069335938</v>
       </c>
       <c r="GE2" t="n">
-        <v>298.7535400390625</v>
+        <v>328.6571960449219</v>
       </c>
       <c r="GF2" t="n">
-        <v>289.10205078125</v>
+        <v>300.425537109375</v>
       </c>
       <c r="GG2" t="n">
-        <v>274.8204345703125</v>
+        <v>284.4236145019531</v>
       </c>
       <c r="GH2" t="n">
-        <v>261.3020324707031</v>
+        <v>283.6394653320312</v>
       </c>
       <c r="GI2" t="n">
-        <v>252.0564117431641</v>
+        <v>273.7604370117188</v>
       </c>
       <c r="GJ2" t="n">
-        <v>237.7885284423828</v>
+        <v>273.115966796875</v>
       </c>
       <c r="GK2" t="n">
-        <v>231.9013977050781</v>
+        <v>263.7254028320312</v>
       </c>
       <c r="GL2" t="n">
-        <v>223.0063171386719</v>
+        <v>260.7037658691406</v>
       </c>
       <c r="GM2" t="n">
-        <v>207.2693481445312</v>
+        <v>253.5659637451172</v>
       </c>
       <c r="GN2" t="n">
-        <v>196.8063659667969</v>
+        <v>244.9905700683594</v>
       </c>
       <c r="GO2" t="n">
-        <v>194.3063659667969</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>193.4337158203125</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>192.3980865478516</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>191.9675903320312</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>191.2969665527344</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>216.8775787353516</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>242.9206085205078</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>267.3560180664062</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>286.4992980957031</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>296.62451171875</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>337.3594665527344</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>357.185791015625</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>379.2422485351562</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>383.6611328125</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>446.2035827636719</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>444.743896484375</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>459.2506713867188</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>459.0070190429688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>457.7994079589844</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>456.64794921875</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>455.8222045898438</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>417.4019775390625</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>403.3450927734375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>431.5399475097656</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>433.7851257324219</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>435.1445922851562</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>435.158935546875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>433.9447631835938</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>433.311767578125</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>431.1167602539062</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>436.7036437988281</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>435.9244384765625</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>435.7796630859375</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>435.6871948242188</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>357.0218505859375</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>354.7501220703125</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>358.8351745605469</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>360.0938720703125</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>360.3142700195312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>359.2406921386719</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>357.619873046875</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>356.5374755859375</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>355.11328125</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>355.56005859375</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>355.7420654296875</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>355.563232421875</v>
-      </c>
-      <c r="II2" t="n">
-        <v>354.06396484375</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>353.3234252929688</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>352.7887268066406</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>352.65966796875</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>352.5180053710938</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>352.28125</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>352.8199462890625</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>353.2344970703125</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>353.68408203125</v>
+        <v>255.2626190185547</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>560.250732421875</v>
+        <v>643.9013671875</v>
       </c>
       <c r="C3" t="n">
-        <v>547.7775268554688</v>
+        <v>623.1339111328125</v>
       </c>
       <c r="D3" t="n">
-        <v>545.1862182617188</v>
+        <v>605.8818359375</v>
       </c>
       <c r="E3" t="n">
-        <v>540.34521484375</v>
+        <v>606.5309448242188</v>
       </c>
       <c r="F3" t="n">
-        <v>537.2587280273438</v>
+        <v>604.1703491210938</v>
       </c>
       <c r="G3" t="n">
-        <v>535.8418579101562</v>
+        <v>611.7670288085938</v>
       </c>
       <c r="H3" t="n">
-        <v>537.646484375</v>
+        <v>618.0502319335938</v>
       </c>
       <c r="I3" t="n">
-        <v>538.5834350585938</v>
+        <v>621.415771484375</v>
       </c>
       <c r="J3" t="n">
-        <v>540.0287475585938</v>
+        <v>621.7860107421875</v>
       </c>
       <c r="K3" t="n">
-        <v>540.86181640625</v>
+        <v>621.8456420898438</v>
       </c>
       <c r="L3" t="n">
-        <v>540.0537719726562</v>
+        <v>621.584716796875</v>
       </c>
       <c r="M3" t="n">
-        <v>537.77685546875</v>
+        <v>621.5047607421875</v>
       </c>
       <c r="N3" t="n">
-        <v>535.3033447265625</v>
+        <v>621.434814453125</v>
       </c>
       <c r="O3" t="n">
-        <v>533.958251953125</v>
+        <v>620.9541015625</v>
       </c>
       <c r="P3" t="n">
-        <v>531.9366455078125</v>
+        <v>620.8770141601562</v>
       </c>
       <c r="Q3" t="n">
-        <v>531.7177124023438</v>
+        <v>620.8304443359375</v>
       </c>
       <c r="R3" t="n">
-        <v>531.3710327148438</v>
+        <v>621.0209350585938</v>
       </c>
       <c r="S3" t="n">
-        <v>531.8670043945312</v>
+        <v>621.1663818359375</v>
       </c>
       <c r="T3" t="n">
-        <v>532.6162109375</v>
+        <v>621.112060546875</v>
       </c>
       <c r="U3" t="n">
-        <v>534.0603637695312</v>
+        <v>620.4252319335938</v>
       </c>
       <c r="V3" t="n">
-        <v>534.5127563476562</v>
+        <v>620.5394897460938</v>
       </c>
       <c r="W3" t="n">
-        <v>534.6513061523438</v>
+        <v>620.3634643554688</v>
       </c>
       <c r="X3" t="n">
-        <v>533.3969116210938</v>
+        <v>619.8842163085938</v>
       </c>
       <c r="Y3" t="n">
-        <v>532.0877685546875</v>
+        <v>619.3770751953125</v>
       </c>
       <c r="Z3" t="n">
-        <v>532.9046630859375</v>
+        <v>618.23779296875</v>
       </c>
       <c r="AA3" t="n">
-        <v>536.75341796875</v>
+        <v>616.4544677734375</v>
       </c>
       <c r="AB3" t="n">
-        <v>539.98291015625</v>
+        <v>614.240966796875</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.7235107421875</v>
+        <v>611.0692138671875</v>
       </c>
       <c r="AD3" t="n">
-        <v>543.1673583984375</v>
+        <v>608.74560546875</v>
       </c>
       <c r="AE3" t="n">
-        <v>543.3271484375</v>
+        <v>608.54931640625</v>
       </c>
       <c r="AF3" t="n">
-        <v>544.0415649414062</v>
+        <v>608.4696655273438</v>
       </c>
       <c r="AG3" t="n">
-        <v>544.9393920898438</v>
+        <v>608.4984741210938</v>
       </c>
       <c r="AH3" t="n">
-        <v>546.5808715820312</v>
+        <v>608.4566650390625</v>
       </c>
       <c r="AI3" t="n">
-        <v>549.0379028320312</v>
+        <v>608.3973388671875</v>
       </c>
       <c r="AJ3" t="n">
-        <v>549.6152954101562</v>
+        <v>608.3062133789062</v>
       </c>
       <c r="AK3" t="n">
-        <v>547.2109985351562</v>
+        <v>608.2325439453125</v>
       </c>
       <c r="AL3" t="n">
-        <v>546.9224243164062</v>
+        <v>608.3216552734375</v>
       </c>
       <c r="AM3" t="n">
-        <v>550.7884521484375</v>
+        <v>608.7911376953125</v>
       </c>
       <c r="AN3" t="n">
-        <v>549.8363647460938</v>
+        <v>608.9698486328125</v>
       </c>
       <c r="AO3" t="n">
-        <v>548.781982421875</v>
+        <v>608.6103515625</v>
       </c>
       <c r="AP3" t="n">
-        <v>549.3358154296875</v>
+        <v>608.4998168945312</v>
       </c>
       <c r="AQ3" t="n">
-        <v>549.6670532226562</v>
+        <v>608.161376953125</v>
       </c>
       <c r="AR3" t="n">
-        <v>550.0426025390625</v>
+        <v>605.8789672851562</v>
       </c>
       <c r="AS3" t="n">
-        <v>550.7482299804688</v>
+        <v>604.7068481445312</v>
       </c>
       <c r="AT3" t="n">
-        <v>551.2689819335938</v>
+        <v>601.1544189453125</v>
       </c>
       <c r="AU3" t="n">
-        <v>551.2205810546875</v>
+        <v>596.7086791992188</v>
       </c>
       <c r="AV3" t="n">
-        <v>551.5999755859375</v>
+        <v>593.0199584960938</v>
       </c>
       <c r="AW3" t="n">
-        <v>551.5592651367188</v>
+        <v>591.96630859375</v>
       </c>
       <c r="AX3" t="n">
-        <v>551.548583984375</v>
+        <v>592.6934814453125</v>
       </c>
       <c r="AY3" t="n">
-        <v>551.4559326171875</v>
+        <v>593.7738037109375</v>
       </c>
       <c r="AZ3" t="n">
-        <v>551.5653076171875</v>
+        <v>594.1920166015625</v>
       </c>
       <c r="BA3" t="n">
-        <v>551.5853271484375</v>
+        <v>590.5609741210938</v>
       </c>
       <c r="BB3" t="n">
-        <v>551.6195068359375</v>
+        <v>587.2192993164062</v>
       </c>
       <c r="BC3" t="n">
-        <v>551.4856567382812</v>
+        <v>583.0902099609375</v>
       </c>
       <c r="BD3" t="n">
-        <v>551.5048828125</v>
+        <v>580.1714477539062</v>
       </c>
       <c r="BE3" t="n">
-        <v>551.3942260742188</v>
+        <v>578.4694213867188</v>
       </c>
       <c r="BF3" t="n">
-        <v>551.2642822265625</v>
+        <v>577.228759765625</v>
       </c>
       <c r="BG3" t="n">
-        <v>551.0679931640625</v>
+        <v>576.217041015625</v>
       </c>
       <c r="BH3" t="n">
-        <v>551.0113525390625</v>
+        <v>572.8657836914062</v>
       </c>
       <c r="BI3" t="n">
-        <v>551.4215698242188</v>
+        <v>571.2413940429688</v>
       </c>
       <c r="BJ3" t="n">
-        <v>551.8350219726562</v>
+        <v>570.7484741210938</v>
       </c>
       <c r="BK3" t="n">
-        <v>552.6822509765625</v>
+        <v>573.5441284179688</v>
       </c>
       <c r="BL3" t="n">
-        <v>553.3726196289062</v>
+        <v>571.7980346679688</v>
       </c>
       <c r="BM3" t="n">
-        <v>553.952880859375</v>
+        <v>573.0555419921875</v>
       </c>
       <c r="BN3" t="n">
-        <v>555.0742797851562</v>
+        <v>572.364990234375</v>
       </c>
       <c r="BO3" t="n">
-        <v>555.6937255859375</v>
+        <v>571.0493774414062</v>
       </c>
       <c r="BP3" t="n">
-        <v>555.9295654296875</v>
+        <v>569.9513549804688</v>
       </c>
       <c r="BQ3" t="n">
-        <v>555.308349609375</v>
+        <v>570.9215087890625</v>
       </c>
       <c r="BR3" t="n">
-        <v>555.3609008789062</v>
+        <v>572.25341796875</v>
       </c>
       <c r="BS3" t="n">
-        <v>555.5263061523438</v>
+        <v>571.9210815429688</v>
       </c>
       <c r="BT3" t="n">
-        <v>555.1766967773438</v>
+        <v>571.895751953125</v>
       </c>
       <c r="BU3" t="n">
-        <v>555.0269165039062</v>
+        <v>572.0841674804688</v>
       </c>
       <c r="BV3" t="n">
-        <v>555.08203125</v>
+        <v>572.0369873046875</v>
       </c>
       <c r="BW3" t="n">
-        <v>555.2695922851562</v>
+        <v>572.8543701171875</v>
       </c>
       <c r="BX3" t="n">
-        <v>554.9332885742188</v>
+        <v>574.2000732421875</v>
       </c>
       <c r="BY3" t="n">
-        <v>555.71533203125</v>
+        <v>574.5491943359375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>561.1436157226562</v>
+        <v>573.9730834960938</v>
       </c>
       <c r="CA3" t="n">
-        <v>557.9323120117188</v>
+        <v>573.8145141601562</v>
       </c>
       <c r="CB3" t="n">
-        <v>557.5626220703125</v>
+        <v>573.4883422851562</v>
       </c>
       <c r="CC3" t="n">
-        <v>559.3168334960938</v>
+        <v>573.6945190429688</v>
       </c>
       <c r="CD3" t="n">
-        <v>563.13134765625</v>
+        <v>573.6062622070312</v>
       </c>
       <c r="CE3" t="n">
-        <v>567.8316650390625</v>
+        <v>572.5682983398438</v>
       </c>
       <c r="CF3" t="n">
-        <v>572.6857299804688</v>
+        <v>571.0543212890625</v>
       </c>
       <c r="CG3" t="n">
-        <v>571.116455078125</v>
+        <v>566.2916870117188</v>
       </c>
       <c r="CH3" t="n">
-        <v>569.7669067382812</v>
+        <v>560.9227905273438</v>
       </c>
       <c r="CI3" t="n">
-        <v>568.6838989257812</v>
+        <v>554.3399047851562</v>
       </c>
       <c r="CJ3" t="n">
-        <v>565.701416015625</v>
+        <v>551.3513793945312</v>
       </c>
       <c r="CK3" t="n">
-        <v>562.337158203125</v>
+        <v>548.66455078125</v>
       </c>
       <c r="CL3" t="n">
-        <v>558.6136474609375</v>
+        <v>546.8147583007812</v>
       </c>
       <c r="CM3" t="n">
-        <v>558.5183715820312</v>
+        <v>546.11181640625</v>
       </c>
       <c r="CN3" t="n">
-        <v>557.9588012695312</v>
+        <v>546.6290283203125</v>
       </c>
       <c r="CO3" t="n">
-        <v>557.6638793945312</v>
+        <v>551.8504028320312</v>
       </c>
       <c r="CP3" t="n">
-        <v>557.2894287109375</v>
+        <v>556.4326782226562</v>
       </c>
       <c r="CQ3" t="n">
-        <v>556.7581787109375</v>
+        <v>557.9863891601562</v>
       </c>
       <c r="CR3" t="n">
-        <v>556.60107421875</v>
+        <v>556.2463989257812</v>
       </c>
       <c r="CS3" t="n">
-        <v>556.3860473632812</v>
+        <v>556.1605224609375</v>
       </c>
       <c r="CT3" t="n">
-        <v>556.1355590820312</v>
+        <v>556.7732543945312</v>
       </c>
       <c r="CU3" t="n">
-        <v>555.7203979492188</v>
+        <v>556.788330078125</v>
       </c>
       <c r="CV3" t="n">
-        <v>554.210693359375</v>
+        <v>556.8340454101562</v>
       </c>
       <c r="CW3" t="n">
-        <v>549.7017211914062</v>
+        <v>556.4319458007812</v>
       </c>
       <c r="CX3" t="n">
-        <v>549.480712890625</v>
+        <v>556.527099609375</v>
       </c>
       <c r="CY3" t="n">
-        <v>550.0808715820312</v>
+        <v>556.99658203125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>550.6832885742188</v>
+        <v>556.7794799804688</v>
       </c>
       <c r="DA3" t="n">
-        <v>551.3304443359375</v>
+        <v>556.6917724609375</v>
       </c>
       <c r="DB3" t="n">
-        <v>551.9843139648438</v>
+        <v>556.7053833007812</v>
       </c>
       <c r="DC3" t="n">
-        <v>551.6943359375</v>
+        <v>556.3780517578125</v>
       </c>
       <c r="DD3" t="n">
-        <v>551.1952514648438</v>
+        <v>556.7894897460938</v>
       </c>
       <c r="DE3" t="n">
-        <v>550.744873046875</v>
+        <v>556.670654296875</v>
       </c>
       <c r="DF3" t="n">
-        <v>550.3342895507812</v>
+        <v>556.7404174804688</v>
       </c>
       <c r="DG3" t="n">
-        <v>552.1887817382812</v>
+        <v>556.4342041015625</v>
       </c>
       <c r="DH3" t="n">
-        <v>553.328369140625</v>
+        <v>556.0511474609375</v>
       </c>
       <c r="DI3" t="n">
-        <v>556.05712890625</v>
+        <v>556.1595458984375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>555.9068603515625</v>
+        <v>556.6336669921875</v>
       </c>
       <c r="DK3" t="n">
-        <v>555.6129760742188</v>
+        <v>557.85009765625</v>
       </c>
       <c r="DL3" t="n">
-        <v>555.4189453125</v>
+        <v>560.5382080078125</v>
       </c>
       <c r="DM3" t="n">
-        <v>555.4711303710938</v>
+        <v>564.050537109375</v>
       </c>
       <c r="DN3" t="n">
-        <v>555.6254272460938</v>
+        <v>564.9136352539062</v>
       </c>
       <c r="DO3" t="n">
-        <v>554.1517333984375</v>
+        <v>569.9738159179688</v>
       </c>
       <c r="DP3" t="n">
-        <v>552.1597900390625</v>
+        <v>572.1055908203125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>552.00341796875</v>
+        <v>567.0679321289062</v>
       </c>
       <c r="DR3" t="n">
-        <v>551.8604125976562</v>
+        <v>557.5745239257812</v>
       </c>
       <c r="DS3" t="n">
-        <v>551.7557983398438</v>
+        <v>549.5411987304688</v>
       </c>
       <c r="DT3" t="n">
-        <v>551.255859375</v>
+        <v>529.8140869140625</v>
       </c>
       <c r="DU3" t="n">
-        <v>550.6168823242188</v>
+        <v>522.8652954101562</v>
       </c>
       <c r="DV3" t="n">
-        <v>550.0308837890625</v>
+        <v>514.99072265625</v>
       </c>
       <c r="DW3" t="n">
-        <v>549.6459350585938</v>
+        <v>501.9213256835938</v>
       </c>
       <c r="DX3" t="n">
-        <v>549.5222778320312</v>
+        <v>494.8223266601562</v>
       </c>
       <c r="DY3" t="n">
-        <v>549.2551879882812</v>
+        <v>489.8500366210938</v>
       </c>
       <c r="DZ3" t="n">
-        <v>549.316162109375</v>
+        <v>488.2488403320312</v>
       </c>
       <c r="EA3" t="n">
-        <v>549.861572265625</v>
+        <v>487.3290405273438</v>
       </c>
       <c r="EB3" t="n">
-        <v>550.7343139648438</v>
+        <v>498.5081176757812</v>
       </c>
       <c r="EC3" t="n">
-        <v>551.4689331054688</v>
+        <v>507.031005859375</v>
       </c>
       <c r="ED3" t="n">
-        <v>551.63427734375</v>
+        <v>518.83203125</v>
       </c>
       <c r="EE3" t="n">
-        <v>551.388427734375</v>
+        <v>532.4605102539062</v>
       </c>
       <c r="EF3" t="n">
-        <v>551.058349609375</v>
+        <v>536.7313842773438</v>
       </c>
       <c r="EG3" t="n">
-        <v>551.6099243164062</v>
+        <v>549.830078125</v>
       </c>
       <c r="EH3" t="n">
-        <v>553.7413330078125</v>
+        <v>559.245361328125</v>
       </c>
       <c r="EI3" t="n">
-        <v>555.8599243164062</v>
+        <v>557.7679443359375</v>
       </c>
       <c r="EJ3" t="n">
-        <v>559.6385498046875</v>
+        <v>557.7947387695312</v>
       </c>
       <c r="EK3" t="n">
-        <v>561.4732666015625</v>
+        <v>559.0005493164062</v>
       </c>
       <c r="EL3" t="n">
-        <v>565.5635986328125</v>
+        <v>561.2483520507812</v>
       </c>
       <c r="EM3" t="n">
-        <v>564.6945190429688</v>
+        <v>557.2486572265625</v>
       </c>
       <c r="EN3" t="n">
-        <v>567.311279296875</v>
+        <v>554.8154907226562</v>
       </c>
       <c r="EO3" t="n">
-        <v>570.6832885742188</v>
+        <v>552.0189819335938</v>
       </c>
       <c r="EP3" t="n">
-        <v>568.5452880859375</v>
+        <v>550.8948974609375</v>
       </c>
       <c r="EQ3" t="n">
-        <v>567.1516723632812</v>
+        <v>550.676513671875</v>
       </c>
       <c r="ER3" t="n">
-        <v>567.7807006835938</v>
+        <v>550.6532592773438</v>
       </c>
       <c r="ES3" t="n">
-        <v>568.9724731445312</v>
+        <v>551.4381713867188</v>
       </c>
       <c r="ET3" t="n">
-        <v>569.55712890625</v>
+        <v>567.0718994140625</v>
       </c>
       <c r="EU3" t="n">
-        <v>569.373779296875</v>
+        <v>581.5964965820312</v>
       </c>
       <c r="EV3" t="n">
-        <v>569.1432495117188</v>
+        <v>588.9932250976562</v>
       </c>
       <c r="EW3" t="n">
-        <v>569.13623046875</v>
+        <v>604.534912109375</v>
       </c>
       <c r="EX3" t="n">
-        <v>569.6258544921875</v>
+        <v>612.526123046875</v>
       </c>
       <c r="EY3" t="n">
-        <v>570.0535278320312</v>
+        <v>615.32958984375</v>
       </c>
       <c r="EZ3" t="n">
-        <v>571.4420166015625</v>
+        <v>619.0716552734375</v>
       </c>
       <c r="FA3" t="n">
-        <v>572.6177368164062</v>
+        <v>615.8775024414062</v>
       </c>
       <c r="FB3" t="n">
-        <v>574.2108764648438</v>
+        <v>616.2765502929688</v>
       </c>
       <c r="FC3" t="n">
-        <v>576.1937255859375</v>
+        <v>607.5414428710938</v>
       </c>
       <c r="FD3" t="n">
-        <v>575.9412231445312</v>
+        <v>605.7012329101562</v>
       </c>
       <c r="FE3" t="n">
-        <v>575.4594116210938</v>
+        <v>591.8087768554688</v>
       </c>
       <c r="FF3" t="n">
-        <v>575.0098876953125</v>
+        <v>586.3812255859375</v>
       </c>
       <c r="FG3" t="n">
-        <v>574.6024169921875</v>
+        <v>589.3428344726562</v>
       </c>
       <c r="FH3" t="n">
-        <v>574.0093994140625</v>
+        <v>593.1929321289062</v>
       </c>
       <c r="FI3" t="n">
-        <v>571.33642578125</v>
+        <v>596.6328125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>571.0655517578125</v>
+        <v>593.3770751953125</v>
       </c>
       <c r="FK3" t="n">
-        <v>572.543212890625</v>
+        <v>598.1664428710938</v>
       </c>
       <c r="FL3" t="n">
-        <v>574.3804931640625</v>
+        <v>604.44921875</v>
       </c>
       <c r="FM3" t="n">
-        <v>573.9247436523438</v>
+        <v>611.7053833007812</v>
       </c>
       <c r="FN3" t="n">
-        <v>569.1102905273438</v>
+        <v>618.0785522460938</v>
       </c>
       <c r="FO3" t="n">
-        <v>570.9219360351562</v>
+        <v>627.9791870117188</v>
       </c>
       <c r="FP3" t="n">
-        <v>575.7176513671875</v>
+        <v>646.2105102539062</v>
       </c>
       <c r="FQ3" t="n">
-        <v>582.931884765625</v>
+        <v>660.7814331054688</v>
       </c>
       <c r="FR3" t="n">
-        <v>585.2650756835938</v>
+        <v>668.0773315429688</v>
       </c>
       <c r="FS3" t="n">
-        <v>593.1768188476562</v>
+        <v>682.7081909179688</v>
       </c>
       <c r="FT3" t="n">
-        <v>615.159912109375</v>
+        <v>679.134033203125</v>
       </c>
       <c r="FU3" t="n">
-        <v>621.7283935546875</v>
+        <v>680.28515625</v>
       </c>
       <c r="FV3" t="n">
-        <v>635.1185302734375</v>
+        <v>679.394287109375</v>
       </c>
       <c r="FW3" t="n">
-        <v>641.8336791992188</v>
+        <v>681.0786743164062</v>
       </c>
       <c r="FX3" t="n">
-        <v>629.83740234375</v>
+        <v>673.0485229492188</v>
       </c>
       <c r="FY3" t="n">
-        <v>624.003662109375</v>
+        <v>715.5695190429688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>623.4613037109375</v>
+        <v>707.66650390625</v>
       </c>
       <c r="GA3" t="n">
-        <v>623.108154296875</v>
+        <v>707.2192993164062</v>
       </c>
       <c r="GB3" t="n">
-        <v>620.0807495117188</v>
+        <v>789.3782958984375</v>
       </c>
       <c r="GC3" t="n">
-        <v>616.2127685546875</v>
+        <v>813.0947875976562</v>
       </c>
       <c r="GD3" t="n">
-        <v>615.5248413085938</v>
+        <v>811.3956909179688</v>
       </c>
       <c r="GE3" t="n">
-        <v>618.6268920898438</v>
+        <v>821.5101318359375</v>
       </c>
       <c r="GF3" t="n">
-        <v>634.844970703125</v>
+        <v>742.5260009765625</v>
       </c>
       <c r="GG3" t="n">
-        <v>640.637939453125</v>
+        <v>730.2708129882812</v>
       </c>
       <c r="GH3" t="n">
-        <v>655.9812622070312</v>
+        <v>737.2791137695312</v>
       </c>
       <c r="GI3" t="n">
-        <v>669.6434936523438</v>
+        <v>741.6854858398438</v>
       </c>
       <c r="GJ3" t="n">
-        <v>684.4078979492188</v>
+        <v>734.1563110351562</v>
       </c>
       <c r="GK3" t="n">
-        <v>705.54345703125</v>
+        <v>728.7039794921875</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.7154541015625</v>
+        <v>736.3632202148438</v>
       </c>
       <c r="GM3" t="n">
-        <v>716.7267456054688</v>
+        <v>753.0161743164062</v>
       </c>
       <c r="GN3" t="n">
-        <v>718.43408203125</v>
+        <v>797.042236328125</v>
       </c>
       <c r="GO3" t="n">
-        <v>719.7719116210938</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>720.7568359375</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>720.436767578125</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>719.7335205078125</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>724.6597290039062</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>758.8721923828125</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>758.8334350585938</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>756.2133178710938</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>772.4292602539062</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>787.7667846679688</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>858.234619140625</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>886.4605712890625</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>1052.954956054688</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>943.9244995117188</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>958.3546142578125</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>921.2149047851562</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>883.7478637695312</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>884.8338623046875</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>886.6300659179688</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>887.4010620117188</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>887.7714233398438</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>806.784912109375</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>794.798583984375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>957.595703125</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>980.4699096679688</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>978.5548706054688</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>979.361572265625</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>977.4534912109375</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>976.6782836914062</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>974.4806518554688</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>946.6007690429688</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>946.5884399414062</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>946.5850219726562</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>946.5640869140625</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>922.4215087890625</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>920.1397094726562</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>931.5245971679688</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>933.7262573242188</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>933.8250732421875</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>933.3126831054688</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>932.9061279296875</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>932.8104858398438</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>932.8851928710938</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>932.7626342773438</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>932.6797485351562</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>932.66943359375</v>
-      </c>
-      <c r="II3" t="n">
-        <v>932.8983154296875</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>932.973388671875</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>932.9896850585938</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>932.966796875</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>932.9212646484375</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>932.8946533203125</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>932.8201293945312</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>932.7694702148438</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>932.7158813476562</v>
+        <v>829.1480102539062</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1340.576293945312</v>
+        <v>1023.832275390625</v>
       </c>
       <c r="C4" t="n">
-        <v>1338.5224609375</v>
+        <v>1041.595947265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1336.0234375</v>
+        <v>1044.570068359375</v>
       </c>
       <c r="E4" t="n">
-        <v>1331.851806640625</v>
+        <v>1046.512329101562</v>
       </c>
       <c r="F4" t="n">
-        <v>1329.065063476562</v>
+        <v>1051.342651367188</v>
       </c>
       <c r="G4" t="n">
-        <v>1327.632202148438</v>
+        <v>1049.892822265625</v>
       </c>
       <c r="H4" t="n">
-        <v>1323.419555664062</v>
+        <v>1049.391235351562</v>
       </c>
       <c r="I4" t="n">
-        <v>1318.26318359375</v>
+        <v>1048.409790039062</v>
       </c>
       <c r="J4" t="n">
-        <v>1308.718383789062</v>
+        <v>1048.948364257812</v>
       </c>
       <c r="K4" t="n">
-        <v>1302.633666992188</v>
+        <v>1048.49853515625</v>
       </c>
       <c r="L4" t="n">
-        <v>1298.086547851562</v>
+        <v>1048.289794921875</v>
       </c>
       <c r="M4" t="n">
-        <v>1290.856567382812</v>
+        <v>1048.074584960938</v>
       </c>
       <c r="N4" t="n">
-        <v>1282.006103515625</v>
+        <v>1047.860229492188</v>
       </c>
       <c r="O4" t="n">
-        <v>1275.160522460938</v>
+        <v>1047.698608398438</v>
       </c>
       <c r="P4" t="n">
-        <v>1274.504760742188</v>
+        <v>1047.486694335938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1273.892578125</v>
+        <v>1047.286254882812</v>
       </c>
       <c r="R4" t="n">
-        <v>1273.071899414062</v>
+        <v>1047.130737304688</v>
       </c>
       <c r="S4" t="n">
-        <v>1270.593627929688</v>
+        <v>1047.031494140625</v>
       </c>
       <c r="T4" t="n">
-        <v>1266.477294921875</v>
+        <v>1047.050537109375</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.937744140625</v>
+        <v>1047.127197265625</v>
       </c>
       <c r="V4" t="n">
-        <v>1256.31494140625</v>
+        <v>1047.006713867188</v>
       </c>
       <c r="W4" t="n">
-        <v>1251.864624023438</v>
+        <v>1046.89453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1246.613403320312</v>
+        <v>1046.8408203125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1242.531982421875</v>
+        <v>1046.8466796875</v>
       </c>
       <c r="Z4" t="n">
-        <v>1230.871459960938</v>
+        <v>1046.896606445312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1219.083374023438</v>
+        <v>1046.976928710938</v>
       </c>
       <c r="AB4" t="n">
-        <v>1207.424560546875</v>
+        <v>1047.236206054688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1203.217163085938</v>
+        <v>1047.205810546875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1196.493286132812</v>
+        <v>1047.22314453125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1194.93310546875</v>
+        <v>1047.209716796875</v>
       </c>
       <c r="AF4" t="n">
-        <v>1191.851684570312</v>
+        <v>1047.201416015625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1187.544555664062</v>
+        <v>1047.067993164062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177.902587890625</v>
+        <v>1047.004150390625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1164.584106445312</v>
+        <v>1046.939819335938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1155.764526367188</v>
+        <v>1046.889404296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1149.625122070312</v>
+        <v>1046.866088867188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1137.919799804688</v>
+        <v>1046.826904296875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1127.810180664062</v>
+        <v>1046.74365234375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1124.701416015625</v>
+        <v>1046.7099609375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1121.44189453125</v>
+        <v>1046.69921875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1117.330078125</v>
+        <v>1046.657348632812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1113.658325195312</v>
+        <v>1046.271606445312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1112.928833007812</v>
+        <v>1046.310913085938</v>
       </c>
       <c r="AS4" t="n">
-        <v>1111.401245117188</v>
+        <v>1046.789428710938</v>
       </c>
       <c r="AT4" t="n">
-        <v>1110.552856445312</v>
+        <v>1050.34326171875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1109.957763671875</v>
+        <v>1055.361206054688</v>
       </c>
       <c r="AV4" t="n">
-        <v>1108.560180664062</v>
+        <v>1062.821899414062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1108.390014648438</v>
+        <v>1065.462768554688</v>
       </c>
       <c r="AX4" t="n">
-        <v>1108.210815429688</v>
+        <v>1065.164916992188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1108.1962890625</v>
+        <v>1065.20947265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1107.92431640625</v>
+        <v>1064.863525390625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1107.781127929688</v>
+        <v>1065.51708984375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1107.642700195312</v>
+        <v>1065.267211914062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1107.66796875</v>
+        <v>1066.321899414062</v>
       </c>
       <c r="BD4" t="n">
-        <v>1107.51513671875</v>
+        <v>1067.581665039062</v>
       </c>
       <c r="BE4" t="n">
-        <v>1107.49169921875</v>
+        <v>1068.334106445312</v>
       </c>
       <c r="BF4" t="n">
-        <v>1107.46923828125</v>
+        <v>1071.448852539062</v>
       </c>
       <c r="BG4" t="n">
-        <v>1107.470825195312</v>
+        <v>1074.343627929688</v>
       </c>
       <c r="BH4" t="n">
-        <v>1107.279052734375</v>
+        <v>1086.005249023438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1106.596435546875</v>
+        <v>1091.185668945312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1105.484741210938</v>
+        <v>1095.849731445312</v>
       </c>
       <c r="BK4" t="n">
-        <v>1102.994873046875</v>
+        <v>1099.311889648438</v>
       </c>
       <c r="BL4" t="n">
-        <v>1099.19287109375</v>
+        <v>1101.557250976562</v>
       </c>
       <c r="BM4" t="n">
-        <v>1095.15869140625</v>
+        <v>1110.564697265625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1089.582275390625</v>
+        <v>1110.5068359375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1084.82470703125</v>
+        <v>1110.65478515625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1080.964721679688</v>
+        <v>1112.69873046875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1077.631958007812</v>
+        <v>1115.46826171875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1073.641357421875</v>
+        <v>1119.092529296875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1072.2880859375</v>
+        <v>1118.805541992188</v>
       </c>
       <c r="BT4" t="n">
-        <v>1072.377319335938</v>
+        <v>1117.366943359375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1072.164916992188</v>
+        <v>1115.296020507812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1071.54541015625</v>
+        <v>1112.749755859375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1070.289916992188</v>
+        <v>1109.9560546875</v>
       </c>
       <c r="BX4" t="n">
-        <v>1068.448486328125</v>
+        <v>1107.358764648438</v>
       </c>
       <c r="BY4" t="n">
-        <v>1065.352294921875</v>
+        <v>1107.96142578125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1042.326049804688</v>
+        <v>1109.153442382812</v>
       </c>
       <c r="CA4" t="n">
-        <v>1040.670166015625</v>
+        <v>1110.171264648438</v>
       </c>
       <c r="CB4" t="n">
-        <v>1033.618286132812</v>
+        <v>1111.336791992188</v>
       </c>
       <c r="CC4" t="n">
-        <v>1023.064086914062</v>
+        <v>1111.89697265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1011.445556640625</v>
+        <v>1111.590942382812</v>
       </c>
       <c r="CE4" t="n">
-        <v>998.349365234375</v>
+        <v>1111.943969726562</v>
       </c>
       <c r="CF4" t="n">
-        <v>987.1154174804688</v>
+        <v>1111.98388671875</v>
       </c>
       <c r="CG4" t="n">
-        <v>991.7866821289062</v>
+        <v>1112.448120117188</v>
       </c>
       <c r="CH4" t="n">
-        <v>995.9948120117188</v>
+        <v>1112.717529296875</v>
       </c>
       <c r="CI4" t="n">
-        <v>995.1522827148438</v>
+        <v>1113.364990234375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>993.7586669921875</v>
+        <v>1114.572509765625</v>
       </c>
       <c r="CK4" t="n">
-        <v>992.8037109375</v>
+        <v>1117.493408203125</v>
       </c>
       <c r="CL4" t="n">
-        <v>994.6610107421875</v>
+        <v>1121.728271484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>995.4048461914062</v>
+        <v>1128.392333984375</v>
       </c>
       <c r="CN4" t="n">
-        <v>996.1807861328125</v>
+        <v>1133.623413085938</v>
       </c>
       <c r="CO4" t="n">
-        <v>996.7225952148438</v>
+        <v>1131.8798828125</v>
       </c>
       <c r="CP4" t="n">
-        <v>996.852294921875</v>
+        <v>1130.06201171875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>997.1981811523438</v>
+        <v>1130.069946289062</v>
       </c>
       <c r="CR4" t="n">
-        <v>997.568603515625</v>
+        <v>1131.08544921875</v>
       </c>
       <c r="CS4" t="n">
-        <v>998.1498413085938</v>
+        <v>1131.579711914062</v>
       </c>
       <c r="CT4" t="n">
-        <v>999.6038818359375</v>
+        <v>1129.464233398438</v>
       </c>
       <c r="CU4" t="n">
-        <v>1001.664794921875</v>
+        <v>1129.192993164062</v>
       </c>
       <c r="CV4" t="n">
-        <v>1007.378662109375</v>
+        <v>1128.96435546875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1023.8671875</v>
+        <v>1130.027709960938</v>
       </c>
       <c r="CX4" t="n">
-        <v>1024.908081054688</v>
+        <v>1129.709838867188</v>
       </c>
       <c r="CY4" t="n">
-        <v>1023.705810546875</v>
+        <v>1128.277709960938</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1022.0341796875</v>
+        <v>1128.836181640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1020.158386230469</v>
+        <v>1129.066528320312</v>
       </c>
       <c r="DB4" t="n">
-        <v>1018.078308105469</v>
+        <v>1129.025024414062</v>
       </c>
       <c r="DC4" t="n">
-        <v>1016.06689453125</v>
+        <v>1129.969360351562</v>
       </c>
       <c r="DD4" t="n">
-        <v>1015.8720703125</v>
+        <v>1128.740478515625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1016.153747558594</v>
+        <v>1129.046875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1018.966491699219</v>
+        <v>1128.7353515625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1021.190307617188</v>
+        <v>1129.513061523438</v>
       </c>
       <c r="DH4" t="n">
-        <v>1024.187377929688</v>
+        <v>1129.82958984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1029.332763671875</v>
+        <v>1128.720458984375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1029.023559570312</v>
+        <v>1126.06884765625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1029.158081054688</v>
+        <v>1121.025024414062</v>
       </c>
       <c r="DL4" t="n">
-        <v>1028.145141601562</v>
+        <v>1110.813110351562</v>
       </c>
       <c r="DM4" t="n">
-        <v>1026.52099609375</v>
+        <v>1098.927001953125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1019.159606933594</v>
+        <v>1096.315795898438</v>
       </c>
       <c r="DO4" t="n">
-        <v>1014.789672851562</v>
+        <v>1081.43994140625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1013.414611816406</v>
+        <v>1074.76123046875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1012.227416992188</v>
+        <v>1074.496215820312</v>
       </c>
       <c r="DR4" t="n">
-        <v>1013.059814453125</v>
+        <v>1075.757690429688</v>
       </c>
       <c r="DS4" t="n">
-        <v>1014.771850585938</v>
+        <v>1077.797729492188</v>
       </c>
       <c r="DT4" t="n">
-        <v>1019.059753417969</v>
+        <v>1087.973999023438</v>
       </c>
       <c r="DU4" t="n">
-        <v>1022.886291503906</v>
+        <v>1099.856323242188</v>
       </c>
       <c r="DV4" t="n">
-        <v>1028.876586914062</v>
+        <v>1111.4501953125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1030.278442382812</v>
+        <v>1129.671264648438</v>
       </c>
       <c r="DX4" t="n">
-        <v>1029.810180664062</v>
+        <v>1136.318359375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1029.0390625</v>
+        <v>1152.183227539062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1028.503173828125</v>
+        <v>1159.601684570312</v>
       </c>
       <c r="EA4" t="n">
-        <v>1027.22802734375</v>
+        <v>1170.672729492188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1024.154541015625</v>
+        <v>1181.517944335938</v>
       </c>
       <c r="EC4" t="n">
-        <v>1020.301208496094</v>
+        <v>1188.022583007812</v>
       </c>
       <c r="ED4" t="n">
-        <v>1019.101745605469</v>
+        <v>1198.212890625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1019.516235351562</v>
+        <v>1219.34765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1020.061218261719</v>
+        <v>1220.7451171875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1020.632995605469</v>
+        <v>1232.842651367188</v>
       </c>
       <c r="EH4" t="n">
-        <v>1021.150756835938</v>
+        <v>1265.388305664062</v>
       </c>
       <c r="EI4" t="n">
-        <v>1021.393005371094</v>
+        <v>1283.628784179688</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1021.560119628906</v>
+        <v>1296.4189453125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1021.411743164062</v>
+        <v>1314.06689453125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1021.044494628906</v>
+        <v>1315.404663085938</v>
       </c>
       <c r="EM4" t="n">
-        <v>1020.095336914062</v>
+        <v>1316.22412109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1020.391418457031</v>
+        <v>1316.730712890625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1020.767517089844</v>
+        <v>1318.462646484375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1020.635864257812</v>
+        <v>1320.25341796875</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1020.154907226562</v>
+        <v>1327.003051757812</v>
       </c>
       <c r="ER4" t="n">
-        <v>1019.815063476562</v>
+        <v>1329.0263671875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1019.644958496094</v>
+        <v>1330.823974609375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1019.804748535156</v>
+        <v>1329.191162109375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1019.398071289062</v>
+        <v>1320.2734375</v>
       </c>
       <c r="EV4" t="n">
-        <v>1019.017639160156</v>
+        <v>1312.795654296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1018.341003417969</v>
+        <v>1286.690063476562</v>
       </c>
       <c r="EX4" t="n">
-        <v>1017.276733398438</v>
+        <v>1270.494262695312</v>
       </c>
       <c r="EY4" t="n">
-        <v>1016.726989746094</v>
+        <v>1258.062866210938</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1015.368957519531</v>
+        <v>1251.150024414062</v>
       </c>
       <c r="FA4" t="n">
-        <v>1015.967956542969</v>
+        <v>1253.550659179688</v>
       </c>
       <c r="FB4" t="n">
-        <v>1015.889465332031</v>
+        <v>1249.241821289062</v>
       </c>
       <c r="FC4" t="n">
-        <v>1015.815124511719</v>
+        <v>1242.71337890625</v>
       </c>
       <c r="FD4" t="n">
-        <v>1016.319396972656</v>
+        <v>1239.541259765625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1017.017395019531</v>
+        <v>1235.85986328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1017.370666503906</v>
+        <v>1230.28857421875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1017.157409667969</v>
+        <v>1201.365112304688</v>
       </c>
       <c r="FH4" t="n">
-        <v>1016.753540039062</v>
+        <v>1164.852172851562</v>
       </c>
       <c r="FI4" t="n">
-        <v>1015.4755859375</v>
+        <v>1154.715209960938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1014.121276855469</v>
+        <v>1157.184936523438</v>
       </c>
       <c r="FK4" t="n">
-        <v>1009.643005371094</v>
+        <v>1129.175903320312</v>
       </c>
       <c r="FL4" t="n">
-        <v>1000.529968261719</v>
+        <v>1112.559448242188</v>
       </c>
       <c r="FM4" t="n">
-        <v>997.1732788085938</v>
+        <v>1081.41455078125</v>
       </c>
       <c r="FN4" t="n">
-        <v>973.3538818359375</v>
+        <v>1054.09814453125</v>
       </c>
       <c r="FO4" t="n">
-        <v>964.6945190429688</v>
+        <v>1025.036865234375</v>
       </c>
       <c r="FP4" t="n">
-        <v>949.4640502929688</v>
+        <v>993.591796875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>929.0938110351562</v>
+        <v>976.2861328125</v>
       </c>
       <c r="FR4" t="n">
-        <v>922.74462890625</v>
+        <v>958.1756591796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>902.2593383789062</v>
+        <v>929.6990966796875</v>
       </c>
       <c r="FT4" t="n">
-        <v>858.2947387695312</v>
+        <v>920.1168212890625</v>
       </c>
       <c r="FU4" t="n">
-        <v>848.7421875</v>
+        <v>901.09423828125</v>
       </c>
       <c r="FV4" t="n">
-        <v>829.4969482421875</v>
+        <v>892.8178100585938</v>
       </c>
       <c r="FW4" t="n">
-        <v>826.3236083984375</v>
+        <v>861.3438110351562</v>
       </c>
       <c r="FX4" t="n">
-        <v>825.7706909179688</v>
+        <v>863.9671020507812</v>
       </c>
       <c r="FY4" t="n">
-        <v>824.845703125</v>
+        <v>819.9566040039062</v>
       </c>
       <c r="FZ4" t="n">
-        <v>820.953125</v>
+        <v>812.8408813476562</v>
       </c>
       <c r="GA4" t="n">
-        <v>816.1318359375</v>
+        <v>774.051025390625</v>
       </c>
       <c r="GB4" t="n">
-        <v>811.761474609375</v>
+        <v>662.1259765625</v>
       </c>
       <c r="GC4" t="n">
-        <v>810.07275390625</v>
+        <v>663.3267211914062</v>
       </c>
       <c r="GD4" t="n">
-        <v>799.8697509765625</v>
+        <v>684.3049926757812</v>
       </c>
       <c r="GE4" t="n">
-        <v>793.15869140625</v>
+        <v>680.3878173828125</v>
       </c>
       <c r="GF4" t="n">
-        <v>758.0579833984375</v>
+        <v>775.8128662109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>741.9321899414062</v>
+        <v>770.7910766601562</v>
       </c>
       <c r="GH4" t="n">
-        <v>710.1903686523438</v>
+        <v>759.8543090820312</v>
       </c>
       <c r="GI4" t="n">
-        <v>691.930908203125</v>
+        <v>749.0179443359375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>669.79345703125</v>
+        <v>755.6292724609375</v>
       </c>
       <c r="GK4" t="n">
-        <v>639.385986328125</v>
+        <v>747.4549560546875</v>
       </c>
       <c r="GL4" t="n">
-        <v>622.0218505859375</v>
+        <v>736.277587890625</v>
       </c>
       <c r="GM4" t="n">
-        <v>625.0576171875</v>
+        <v>709.7222900390625</v>
       </c>
       <c r="GN4" t="n">
-        <v>625.6883544921875</v>
+        <v>658.1006469726562</v>
       </c>
       <c r="GO4" t="n">
-        <v>621.9386596679688</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>620.1033325195312</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>620.7145385742188</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>622.1240234375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>615.8623657226562</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>596.5462036132812</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>606.52587890625</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>617.98828125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>618.6122436523438</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>617.7686767578125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>596.891845703125</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>580.003662109375</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>486.1871337890625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>569.1187133789062</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>603.4288330078125</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>633.3450927734375</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>665.1390380859375</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>666.9908447265625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>670.5084838867188</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>672.6195678710938</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>674.009521484375</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>710.0938720703125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>720.9490966796875</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>614.901611328125</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>591.6172485351562</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>591.6431274414062</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>591.8790283203125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>591.2822875976562</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>590.6030883789062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>586.775146484375</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>588.4722290039062</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>586.8576049804688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>586.5337524414062</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>586.3199462890625</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>599.429443359375</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>603.5768432617188</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>600.4794921875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>599.521728515625</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>599.15380859375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>600.8101806640625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>603.0424194335938</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>604.3737182617188</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>605.908203125</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>605.5420532226562</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>605.4024047851562</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>605.5384521484375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>606.7874755859375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>607.492919921875</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>608.0357055664062</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>608.1705932617188</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>608.3216552734375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>608.5744018554688</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>608.0189819335938</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>607.6087036132812</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>607.1790771484375</v>
+        <v>635.9301147460938</v>
       </c>
     </row>
   </sheetData>

--- a/right_knee_Data.xlsx
+++ b/right_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>161.3495635986328</v>
       </c>
       <c r="B2" t="n">
-        <v>318.2956237792969</v>
+        <v>161.6215209960938</v>
       </c>
       <c r="C2" t="n">
-        <v>314.7120971679688</v>
+        <v>161.6303100585938</v>
       </c>
       <c r="D2" t="n">
-        <v>310.9631652832031</v>
+        <v>161.6546630859375</v>
       </c>
       <c r="E2" t="n">
-        <v>309.6856994628906</v>
+        <v>161.6773681640625</v>
       </c>
       <c r="F2" t="n">
-        <v>309.2885437011719</v>
+        <v>161.671142578125</v>
       </c>
       <c r="G2" t="n">
-        <v>309.3256225585938</v>
+        <v>161.6661224365234</v>
       </c>
       <c r="H2" t="n">
-        <v>309.7662353515625</v>
+        <v>161.6852722167969</v>
       </c>
       <c r="I2" t="n">
-        <v>310.1208190917969</v>
+        <v>161.7301177978516</v>
       </c>
       <c r="J2" t="n">
-        <v>310.3461303710938</v>
+        <v>161.7665710449219</v>
       </c>
       <c r="K2" t="n">
-        <v>311.2722473144531</v>
+        <v>161.7931365966797</v>
       </c>
       <c r="L2" t="n">
-        <v>312.1087036132812</v>
+        <v>161.8647613525391</v>
       </c>
       <c r="M2" t="n">
-        <v>312.8806457519531</v>
+        <v>161.9561767578125</v>
       </c>
       <c r="N2" t="n">
-        <v>313.4609069824219</v>
+        <v>162.0392456054688</v>
       </c>
       <c r="O2" t="n">
-        <v>313.8418273925781</v>
+        <v>162.0687713623047</v>
       </c>
       <c r="P2" t="n">
-        <v>314.2340698242188</v>
+        <v>162.0044708251953</v>
       </c>
       <c r="Q2" t="n">
-        <v>314.5717163085938</v>
+        <v>161.7895812988281</v>
       </c>
       <c r="R2" t="n">
-        <v>314.9267883300781</v>
+        <v>160.6919097900391</v>
       </c>
       <c r="S2" t="n">
-        <v>315.245849609375</v>
+        <v>159.2850952148438</v>
       </c>
       <c r="T2" t="n">
-        <v>315.5145568847656</v>
+        <v>160.0207366943359</v>
       </c>
       <c r="U2" t="n">
-        <v>315.6436767578125</v>
+        <v>160.6338653564453</v>
       </c>
       <c r="V2" t="n">
-        <v>315.8979797363281</v>
+        <v>160.6963806152344</v>
       </c>
       <c r="W2" t="n">
-        <v>316.091064453125</v>
+        <v>162.5937194824219</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2160339355469</v>
+        <v>163.3037567138672</v>
       </c>
       <c r="Y2" t="n">
-        <v>316.3802490234375</v>
+        <v>164.2163696289062</v>
       </c>
       <c r="Z2" t="n">
-        <v>316.4967041015625</v>
+        <v>164.9013977050781</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.6373291015625</v>
+        <v>167.9378509521484</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.8598327636719</v>
+        <v>171.7958831787109</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.9424438476562</v>
+        <v>176.0960540771484</v>
       </c>
       <c r="AD2" t="n">
-        <v>317.0526733398438</v>
+        <v>115.0800170898438</v>
       </c>
       <c r="AE2" t="n">
-        <v>317.2618408203125</v>
+        <v>119.7036666870117</v>
       </c>
       <c r="AF2" t="n">
-        <v>317.4257202148438</v>
+        <v>118.3164901733398</v>
       </c>
       <c r="AG2" t="n">
-        <v>317.564697265625</v>
+        <v>120.6548004150391</v>
       </c>
       <c r="AH2" t="n">
-        <v>317.6920471191406</v>
+        <v>124.0287628173828</v>
       </c>
       <c r="AI2" t="n">
-        <v>317.8053283691406</v>
+        <v>135.1442260742188</v>
       </c>
       <c r="AJ2" t="n">
-        <v>317.9071960449219</v>
+        <v>135.5283355712891</v>
       </c>
       <c r="AK2" t="n">
-        <v>318.0108337402344</v>
+        <v>136.8285980224609</v>
       </c>
       <c r="AL2" t="n">
-        <v>318.2331848144531</v>
+        <v>139.1410675048828</v>
       </c>
       <c r="AM2" t="n">
-        <v>318.4626159667969</v>
+        <v>141.2674102783203</v>
       </c>
       <c r="AN2" t="n">
-        <v>318.5639038085938</v>
+        <v>141.0721740722656</v>
       </c>
       <c r="AO2" t="n">
-        <v>318.5889892578125</v>
+        <v>144.1591949462891</v>
       </c>
       <c r="AP2" t="n">
-        <v>318.7103881835938</v>
+        <v>156.5953826904297</v>
       </c>
       <c r="AQ2" t="n">
-        <v>319.8657531738281</v>
+        <v>185.466064453125</v>
       </c>
       <c r="AR2" t="n">
-        <v>326.3714599609375</v>
+        <v>227.3420104980469</v>
       </c>
       <c r="AS2" t="n">
-        <v>331.0724487304688</v>
+        <v>231.4188842773438</v>
       </c>
       <c r="AT2" t="n">
-        <v>340.6766052246094</v>
+        <v>233.1183624267578</v>
       </c>
       <c r="AU2" t="n">
-        <v>344.8748168945312</v>
+        <v>234.1072692871094</v>
       </c>
       <c r="AV2" t="n">
-        <v>348.4122924804688</v>
+        <v>236.6026306152344</v>
       </c>
       <c r="AW2" t="n">
-        <v>352.3301696777344</v>
+        <v>241.0646820068359</v>
       </c>
       <c r="AX2" t="n">
-        <v>356.4754028320312</v>
+        <v>248.1720581054688</v>
       </c>
       <c r="AY2" t="n">
-        <v>362.408203125</v>
+        <v>254.1970977783203</v>
       </c>
       <c r="AZ2" t="n">
-        <v>370.6793212890625</v>
+        <v>258.0844421386719</v>
       </c>
       <c r="BA2" t="n">
-        <v>377.31787109375</v>
+        <v>259.5010986328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>382.3649597167969</v>
+        <v>260.9970397949219</v>
       </c>
       <c r="BC2" t="n">
-        <v>385.9882202148438</v>
+        <v>263.7188720703125</v>
       </c>
       <c r="BD2" t="n">
-        <v>389.8659057617188</v>
+        <v>265.6237487792969</v>
       </c>
       <c r="BE2" t="n">
-        <v>394.6336059570312</v>
+        <v>268.1910400390625</v>
       </c>
       <c r="BF2" t="n">
-        <v>396.751708984375</v>
+        <v>271.2568664550781</v>
       </c>
       <c r="BG2" t="n">
-        <v>396.7981262207031</v>
+        <v>275.0361633300781</v>
       </c>
       <c r="BH2" t="n">
-        <v>395.2763366699219</v>
+        <v>279.4405212402344</v>
       </c>
       <c r="BI2" t="n">
-        <v>393.2039794921875</v>
+        <v>288.0990905761719</v>
       </c>
       <c r="BJ2" t="n">
-        <v>379.7276306152344</v>
+        <v>292.4411926269531</v>
       </c>
       <c r="BK2" t="n">
-        <v>368.1435546875</v>
+        <v>295.8296508789062</v>
       </c>
       <c r="BL2" t="n">
-        <v>360.3073120117188</v>
+        <v>297.767822265625</v>
       </c>
       <c r="BM2" t="n">
-        <v>346.2337646484375</v>
+        <v>299.3179626464844</v>
       </c>
       <c r="BN2" t="n">
-        <v>340.1640625</v>
+        <v>300.9923400878906</v>
       </c>
       <c r="BO2" t="n">
-        <v>333.9874267578125</v>
+        <v>302.8967590332031</v>
       </c>
       <c r="BP2" t="n">
-        <v>326.8146362304688</v>
+        <v>304.6771240234375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>319.933837890625</v>
+        <v>305.3464965820312</v>
       </c>
       <c r="BR2" t="n">
-        <v>313.1555480957031</v>
+        <v>307.406494140625</v>
       </c>
       <c r="BS2" t="n">
-        <v>306.0206604003906</v>
+        <v>311.8800048828125</v>
       </c>
       <c r="BT2" t="n">
-        <v>298.1781311035156</v>
+        <v>317.2027893066406</v>
       </c>
       <c r="BU2" t="n">
-        <v>290.8759460449219</v>
+        <v>321.7565307617188</v>
       </c>
       <c r="BV2" t="n">
-        <v>283.7155151367188</v>
+        <v>325.2376708984375</v>
       </c>
       <c r="BW2" t="n">
-        <v>278.0809020996094</v>
+        <v>329.4894409179688</v>
       </c>
       <c r="BX2" t="n">
-        <v>272.2297668457031</v>
+        <v>332.8815307617188</v>
       </c>
       <c r="BY2" t="n">
-        <v>268.423583984375</v>
+        <v>343.0935363769531</v>
       </c>
       <c r="BZ2" t="n">
-        <v>264.5137634277344</v>
+        <v>344.1411743164062</v>
       </c>
       <c r="CA2" t="n">
-        <v>260.0104675292969</v>
+        <v>343.3316040039062</v>
       </c>
       <c r="CB2" t="n">
-        <v>254.9001770019531</v>
+        <v>343.2766723632812</v>
       </c>
       <c r="CC2" t="n">
-        <v>250.0319213867188</v>
+        <v>343.1370239257812</v>
       </c>
       <c r="CD2" t="n">
-        <v>245.8272705078125</v>
+        <v>343.0468139648438</v>
       </c>
       <c r="CE2" t="n">
-        <v>242.0755157470703</v>
+        <v>343.0299072265625</v>
       </c>
       <c r="CF2" t="n">
-        <v>239.1006164550781</v>
+        <v>342.9761962890625</v>
       </c>
       <c r="CG2" t="n">
-        <v>236.1501159667969</v>
+        <v>343.0357666015625</v>
       </c>
       <c r="CH2" t="n">
-        <v>234.1937103271484</v>
+        <v>344.0034484863281</v>
       </c>
       <c r="CI2" t="n">
-        <v>233.2542419433594</v>
+        <v>345.9006958007812</v>
       </c>
       <c r="CJ2" t="n">
-        <v>233.3056640625</v>
+        <v>346.8941955566406</v>
       </c>
       <c r="CK2" t="n">
-        <v>234.2533874511719</v>
+        <v>347.3218994140625</v>
       </c>
       <c r="CL2" t="n">
-        <v>237.0567016601562</v>
+        <v>347.7626342773438</v>
       </c>
       <c r="CM2" t="n">
-        <v>241.4308929443359</v>
+        <v>347.6066284179688</v>
       </c>
       <c r="CN2" t="n">
-        <v>247.2772827148438</v>
+        <v>347.5780944824219</v>
       </c>
       <c r="CO2" t="n">
-        <v>253.2967224121094</v>
+        <v>347.8357543945312</v>
       </c>
       <c r="CP2" t="n">
-        <v>259.6285400390625</v>
+        <v>347.255615234375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>266.0997619628906</v>
+        <v>345.3882446289062</v>
       </c>
       <c r="CR2" t="n">
-        <v>277.7788391113281</v>
+        <v>341.7899780273438</v>
       </c>
       <c r="CS2" t="n">
-        <v>281.9830627441406</v>
+        <v>342.6408081054688</v>
       </c>
       <c r="CT2" t="n">
-        <v>287.0584716796875</v>
+        <v>342.3671875</v>
       </c>
       <c r="CU2" t="n">
-        <v>294.7801208496094</v>
+        <v>341.9993591308594</v>
       </c>
       <c r="CV2" t="n">
-        <v>304.4652709960938</v>
+        <v>340.4959106445312</v>
       </c>
       <c r="CW2" t="n">
-        <v>312.0108642578125</v>
+        <v>338.1644897460938</v>
       </c>
       <c r="CX2" t="n">
-        <v>317.0218505859375</v>
+        <v>339.0044860839844</v>
       </c>
       <c r="CY2" t="n">
-        <v>321.460693359375</v>
+        <v>336.8868408203125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>325.0557250976562</v>
+        <v>337.0178833007812</v>
       </c>
       <c r="DA2" t="n">
-        <v>330.2163391113281</v>
+        <v>336.9378051757812</v>
       </c>
       <c r="DB2" t="n">
-        <v>341.8209228515625</v>
+        <v>335.9057006835938</v>
       </c>
       <c r="DC2" t="n">
-        <v>347.29345703125</v>
+        <v>335.3113403320312</v>
       </c>
       <c r="DD2" t="n">
-        <v>351.8864440917969</v>
+        <v>333.8924560546875</v>
       </c>
       <c r="DE2" t="n">
-        <v>355.4301452636719</v>
+        <v>331.48095703125</v>
       </c>
       <c r="DF2" t="n">
-        <v>359.2365112304688</v>
+        <v>333.2056274414062</v>
       </c>
       <c r="DG2" t="n">
-        <v>362.7068481445312</v>
+        <v>332.7672729492188</v>
       </c>
       <c r="DH2" t="n">
-        <v>365.2787780761719</v>
+        <v>331.4091186523438</v>
       </c>
       <c r="DI2" t="n">
-        <v>365.6190490722656</v>
+        <v>331.4748840332031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>365.8612060546875</v>
+        <v>331.5439147949219</v>
       </c>
       <c r="DK2" t="n">
-        <v>366.3014221191406</v>
+        <v>331.3867492675781</v>
       </c>
       <c r="DL2" t="n">
-        <v>366.9482727050781</v>
+        <v>331.1251220703125</v>
       </c>
       <c r="DM2" t="n">
-        <v>365.9071350097656</v>
+        <v>330.8749389648438</v>
       </c>
       <c r="DN2" t="n">
-        <v>362.9472045898438</v>
+        <v>330.87890625</v>
       </c>
       <c r="DO2" t="n">
-        <v>357.6035766601562</v>
+        <v>330.8084106445312</v>
       </c>
       <c r="DP2" t="n">
-        <v>354.0067749023438</v>
+        <v>330.7037963867188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>349.0203247070312</v>
+        <v>330.705810546875</v>
       </c>
       <c r="DR2" t="n">
-        <v>345.7039184570312</v>
+        <v>330.76513671875</v>
       </c>
       <c r="DS2" t="n">
-        <v>343.9818725585938</v>
+        <v>330.8806762695312</v>
       </c>
       <c r="DT2" t="n">
-        <v>340.7705688476562</v>
+        <v>330.8834228515625</v>
       </c>
       <c r="DU2" t="n">
-        <v>338.6724853515625</v>
+        <v>330.8944091796875</v>
       </c>
       <c r="DV2" t="n">
-        <v>335.3040771484375</v>
+        <v>330.9598388671875</v>
       </c>
       <c r="DW2" t="n">
-        <v>330.7103271484375</v>
+        <v>331.443115234375</v>
       </c>
       <c r="DX2" t="n">
-        <v>328.9251098632812</v>
+        <v>332.3390502929688</v>
       </c>
       <c r="DY2" t="n">
-        <v>328.3834228515625</v>
+        <v>332.5211181640625</v>
       </c>
       <c r="DZ2" t="n">
-        <v>327.4422607421875</v>
+        <v>332.840087890625</v>
       </c>
       <c r="EA2" t="n">
-        <v>324.4273071289062</v>
+        <v>332.8937072753906</v>
       </c>
       <c r="EB2" t="n">
-        <v>322.34130859375</v>
+        <v>332.9601745605469</v>
       </c>
       <c r="EC2" t="n">
-        <v>322.056640625</v>
+        <v>333.5200500488281</v>
       </c>
       <c r="ED2" t="n">
-        <v>318.0301208496094</v>
+        <v>334.4067077636719</v>
       </c>
       <c r="EE2" t="n">
-        <v>316.4417724609375</v>
+        <v>336.7473754882812</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.0423583984375</v>
+        <v>336.123779296875</v>
       </c>
       <c r="EG2" t="n">
-        <v>318.6517639160156</v>
+        <v>336.1731567382812</v>
       </c>
       <c r="EH2" t="n">
-        <v>326.0708312988281</v>
+        <v>336.1384887695312</v>
       </c>
       <c r="EI2" t="n">
-        <v>327.2769165039062</v>
+        <v>336.1988830566406</v>
       </c>
       <c r="EJ2" t="n">
-        <v>327.2830505371094</v>
+        <v>336.3244018554688</v>
       </c>
       <c r="EK2" t="n">
-        <v>328.6405029296875</v>
+        <v>336.4109497070312</v>
       </c>
       <c r="EL2" t="n">
-        <v>330.7858276367188</v>
+        <v>336.4395141601562</v>
       </c>
       <c r="EM2" t="n">
-        <v>338.4297485351562</v>
+        <v>336.163818359375</v>
       </c>
       <c r="EN2" t="n">
-        <v>340.7684936523438</v>
+        <v>335.5032958984375</v>
       </c>
       <c r="EO2" t="n">
-        <v>343.60107421875</v>
+        <v>335.3167114257812</v>
       </c>
       <c r="EP2" t="n">
-        <v>345.5079956054688</v>
+        <v>334.520263671875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>349.1674194335938</v>
+        <v>334.2861328125</v>
       </c>
       <c r="ER2" t="n">
-        <v>349.5509033203125</v>
+        <v>333.9202575683594</v>
       </c>
       <c r="ES2" t="n">
-        <v>349.504638671875</v>
+        <v>333.9238891601562</v>
       </c>
       <c r="ET2" t="n">
-        <v>342.529541015625</v>
+        <v>334.134765625</v>
       </c>
       <c r="EU2" t="n">
-        <v>335.9544067382812</v>
+        <v>334.2467651367188</v>
       </c>
       <c r="EV2" t="n">
-        <v>329.5058898925781</v>
+        <v>334.2284545898438</v>
       </c>
       <c r="EW2" t="n">
-        <v>322.9795837402344</v>
+        <v>334.361328125</v>
       </c>
       <c r="EX2" t="n">
-        <v>321.4818725585938</v>
+        <v>334.5427856445312</v>
       </c>
       <c r="EY2" t="n">
-        <v>318.7229919433594</v>
+        <v>334.9384765625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>314.9415588378906</v>
+        <v>336.0615234375</v>
       </c>
       <c r="FA2" t="n">
-        <v>301.6016845703125</v>
+        <v>336.00537109375</v>
       </c>
       <c r="FB2" t="n">
-        <v>295.0112915039062</v>
+        <v>335.7666625976562</v>
       </c>
       <c r="FC2" t="n">
-        <v>283.840576171875</v>
+        <v>335.8042907714844</v>
       </c>
       <c r="FD2" t="n">
-        <v>281.7951354980469</v>
+        <v>335.6737976074219</v>
       </c>
       <c r="FE2" t="n">
-        <v>279.9486083984375</v>
+        <v>335.6816101074219</v>
       </c>
       <c r="FF2" t="n">
-        <v>280.1014709472656</v>
+        <v>335.3754272460938</v>
       </c>
       <c r="FG2" t="n">
-        <v>278.2034912109375</v>
+        <v>335.2879028320312</v>
       </c>
       <c r="FH2" t="n">
-        <v>270.9680786132812</v>
+        <v>335.2303466796875</v>
       </c>
       <c r="FI2" t="n">
-        <v>269.4823608398438</v>
+        <v>335.89599609375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>273.9435424804688</v>
+        <v>335.8898315429688</v>
       </c>
       <c r="FK2" t="n">
-        <v>281.3585510253906</v>
+        <v>335.9399719238281</v>
       </c>
       <c r="FL2" t="n">
-        <v>283.9647216796875</v>
+        <v>335.9397888183594</v>
       </c>
       <c r="FM2" t="n">
-        <v>290.740234375</v>
+        <v>336.0975341796875</v>
       </c>
       <c r="FN2" t="n">
-        <v>299.3133239746094</v>
+        <v>336.2743835449219</v>
       </c>
       <c r="FO2" t="n">
-        <v>301.6331176757812</v>
+        <v>336.4598999023438</v>
       </c>
       <c r="FP2" t="n">
-        <v>304.7489318847656</v>
+        <v>336.2177124023438</v>
       </c>
       <c r="FQ2" t="n">
-        <v>315.2079467773438</v>
+        <v>336.0130004882812</v>
       </c>
       <c r="FR2" t="n">
-        <v>320.167236328125</v>
+        <v>336.144775390625</v>
       </c>
       <c r="FS2" t="n">
-        <v>332.6401062011719</v>
+        <v>336.1789245605469</v>
       </c>
       <c r="FT2" t="n">
-        <v>334.3167724609375</v>
+        <v>336.2080383300781</v>
       </c>
       <c r="FU2" t="n">
-        <v>335.1078796386719</v>
+        <v>335.2445983886719</v>
       </c>
       <c r="FV2" t="n">
-        <v>333.286376953125</v>
+        <v>335.2846984863281</v>
       </c>
       <c r="FW2" t="n">
-        <v>325.5733642578125</v>
+        <v>335.217529296875</v>
       </c>
       <c r="FX2" t="n">
-        <v>323.1163330078125</v>
+        <v>335.5378723144531</v>
       </c>
       <c r="FY2" t="n">
-        <v>345.4922180175781</v>
+        <v>335.865966796875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>350.7435607910156</v>
+        <v>335.7386474609375</v>
       </c>
       <c r="GA2" t="n">
-        <v>369.990478515625</v>
+        <v>335.8657531738281</v>
       </c>
       <c r="GB2" t="n">
-        <v>399.1604309082031</v>
+        <v>336.0452880859375</v>
       </c>
       <c r="GC2" t="n">
-        <v>371.6522521972656</v>
+        <v>336.5368347167969</v>
       </c>
       <c r="GD2" t="n">
-        <v>343.5346069335938</v>
+        <v>337.0221557617188</v>
       </c>
       <c r="GE2" t="n">
-        <v>328.6571960449219</v>
+        <v>337.5574951171875</v>
       </c>
       <c r="GF2" t="n">
-        <v>300.425537109375</v>
+        <v>339.86962890625</v>
       </c>
       <c r="GG2" t="n">
-        <v>284.4236145019531</v>
+        <v>338.8486328125</v>
       </c>
       <c r="GH2" t="n">
-        <v>283.6394653320312</v>
+        <v>339.204345703125</v>
       </c>
       <c r="GI2" t="n">
-        <v>273.7604370117188</v>
+        <v>339.2890014648438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>273.115966796875</v>
+        <v>339.0805358886719</v>
       </c>
       <c r="GK2" t="n">
-        <v>263.7254028320312</v>
+        <v>338.3223876953125</v>
       </c>
       <c r="GL2" t="n">
-        <v>260.7037658691406</v>
+        <v>337.7142639160156</v>
       </c>
       <c r="GM2" t="n">
-        <v>253.5659637451172</v>
+        <v>337.942138671875</v>
       </c>
       <c r="GN2" t="n">
-        <v>244.9905700683594</v>
+        <v>337.8424682617188</v>
       </c>
       <c r="GO2" t="n">
-        <v>255.2626190185547</v>
+        <v>337.900146484375</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>337.9259643554688</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>337.9551696777344</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>337.971435546875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>337.9948120117188</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>337.9468078613281</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>336.0533142089844</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>328.56201171875</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>328.5082397460938</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>328.8003234863281</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>328.7279663085938</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>328.9093627929688</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>328.5834350585938</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>328.4273071289062</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>325.2953491210938</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>320.0949096679688</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>322.1734313964844</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>319.1469116210938</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>313.2396850585938</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>314.4971618652344</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>319.0307312011719</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>314.7120666503906</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>302.827880859375</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>295.6176452636719</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>292.0007934570312</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>291.7560729980469</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>289.6230773925781</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>285.5969848632812</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>282.6209411621094</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>281.4182739257812</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>279.4054260253906</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>271.6617126464844</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>261.6543579101562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>258.9428100585938</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>256.8036193847656</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>257.3017272949219</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>253.0216369628906</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>233.8893890380859</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>231.1502685546875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>228.28076171875</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>228.1341400146484</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>227.3887329101562</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>242.7976684570312</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>261.0743408203125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>233.7048034667969</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>237.4889526367188</v>
+      </c>
+      <c r="II2" t="n">
+        <v>235.6151123046875</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>228.7535400390625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>231.0664520263672</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>217.2464599609375</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>227.8876342773438</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>257.7684326171875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>239.6607360839844</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>212.8090209960938</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>187.53369140625</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>200.0272216796875</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>182.732421875</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>135.6365203857422</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>110.5942230224609</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>121.9113616943359</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>99.71086120605469</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>85.74001312255859</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>94.74345397949219</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>132.6155700683594</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>145.2100067138672</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>183.5854187011719</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>165.1992492675781</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>205.3426818847656</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>229.7915802001953</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>228.9914245605469</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>244.9381713867188</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>248.0627593994141</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>230.2381591796875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>227.6608428955078</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>205.0775451660156</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>192.5207672119141</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>191.3050537109375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>591.3181762695312</v>
       </c>
       <c r="B3" t="n">
-        <v>643.9013671875</v>
+        <v>591.5573120117188</v>
       </c>
       <c r="C3" t="n">
-        <v>623.1339111328125</v>
+        <v>591.5651245117188</v>
       </c>
       <c r="D3" t="n">
-        <v>605.8818359375</v>
+        <v>591.5746459960938</v>
       </c>
       <c r="E3" t="n">
-        <v>606.5309448242188</v>
+        <v>591.57080078125</v>
       </c>
       <c r="F3" t="n">
-        <v>604.1703491210938</v>
+        <v>591.5797119140625</v>
       </c>
       <c r="G3" t="n">
-        <v>611.7670288085938</v>
+        <v>591.586669921875</v>
       </c>
       <c r="H3" t="n">
-        <v>618.0502319335938</v>
+        <v>591.5925903320312</v>
       </c>
       <c r="I3" t="n">
-        <v>621.415771484375</v>
+        <v>591.5987548828125</v>
       </c>
       <c r="J3" t="n">
-        <v>621.7860107421875</v>
+        <v>591.6142578125</v>
       </c>
       <c r="K3" t="n">
-        <v>621.8456420898438</v>
+        <v>591.6572265625</v>
       </c>
       <c r="L3" t="n">
-        <v>621.584716796875</v>
+        <v>591.7069091796875</v>
       </c>
       <c r="M3" t="n">
-        <v>621.5047607421875</v>
+        <v>591.7533569335938</v>
       </c>
       <c r="N3" t="n">
-        <v>621.434814453125</v>
+        <v>591.8204345703125</v>
       </c>
       <c r="O3" t="n">
-        <v>620.9541015625</v>
+        <v>591.8876342773438</v>
       </c>
       <c r="P3" t="n">
-        <v>620.8770141601562</v>
+        <v>591.63427734375</v>
       </c>
       <c r="Q3" t="n">
-        <v>620.8304443359375</v>
+        <v>591.0731811523438</v>
       </c>
       <c r="R3" t="n">
-        <v>621.0209350585938</v>
+        <v>587.7256469726562</v>
       </c>
       <c r="S3" t="n">
-        <v>621.1663818359375</v>
+        <v>581.2431640625</v>
       </c>
       <c r="T3" t="n">
-        <v>621.112060546875</v>
+        <v>589.8204956054688</v>
       </c>
       <c r="U3" t="n">
-        <v>620.4252319335938</v>
+        <v>602.7023315429688</v>
       </c>
       <c r="V3" t="n">
-        <v>620.5394897460938</v>
+        <v>608.8312377929688</v>
       </c>
       <c r="W3" t="n">
-        <v>620.3634643554688</v>
+        <v>619.0748901367188</v>
       </c>
       <c r="X3" t="n">
-        <v>619.8842163085938</v>
+        <v>625.84521484375</v>
       </c>
       <c r="Y3" t="n">
-        <v>619.3770751953125</v>
+        <v>630.2003173828125</v>
       </c>
       <c r="Z3" t="n">
-        <v>618.23779296875</v>
+        <v>628.1796875</v>
       </c>
       <c r="AA3" t="n">
-        <v>616.4544677734375</v>
+        <v>628.0208129882812</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.240966796875</v>
+        <v>627.6947021484375</v>
       </c>
       <c r="AC3" t="n">
-        <v>611.0692138671875</v>
+        <v>624.1116333007812</v>
       </c>
       <c r="AD3" t="n">
-        <v>608.74560546875</v>
+        <v>396.8634948730469</v>
       </c>
       <c r="AE3" t="n">
-        <v>608.54931640625</v>
+        <v>392.2589111328125</v>
       </c>
       <c r="AF3" t="n">
-        <v>608.4696655273438</v>
+        <v>390.6983947753906</v>
       </c>
       <c r="AG3" t="n">
-        <v>608.4984741210938</v>
+        <v>389.0263977050781</v>
       </c>
       <c r="AH3" t="n">
-        <v>608.4566650390625</v>
+        <v>386.9738159179688</v>
       </c>
       <c r="AI3" t="n">
-        <v>608.3973388671875</v>
+        <v>383.7884216308594</v>
       </c>
       <c r="AJ3" t="n">
-        <v>608.3062133789062</v>
+        <v>383.3786315917969</v>
       </c>
       <c r="AK3" t="n">
-        <v>608.2325439453125</v>
+        <v>383.6424560546875</v>
       </c>
       <c r="AL3" t="n">
-        <v>608.3216552734375</v>
+        <v>385.7737121582031</v>
       </c>
       <c r="AM3" t="n">
-        <v>608.7911376953125</v>
+        <v>389.6541748046875</v>
       </c>
       <c r="AN3" t="n">
-        <v>608.9698486328125</v>
+        <v>403.8681030273438</v>
       </c>
       <c r="AO3" t="n">
-        <v>608.6103515625</v>
+        <v>414.8680725097656</v>
       </c>
       <c r="AP3" t="n">
-        <v>608.4998168945312</v>
+        <v>414.0055236816406</v>
       </c>
       <c r="AQ3" t="n">
-        <v>608.161376953125</v>
+        <v>403.0086975097656</v>
       </c>
       <c r="AR3" t="n">
-        <v>605.8789672851562</v>
+        <v>509.017822265625</v>
       </c>
       <c r="AS3" t="n">
-        <v>604.7068481445312</v>
+        <v>513.9439697265625</v>
       </c>
       <c r="AT3" t="n">
-        <v>601.1544189453125</v>
+        <v>527.000244140625</v>
       </c>
       <c r="AU3" t="n">
-        <v>596.7086791992188</v>
+        <v>538.6423950195312</v>
       </c>
       <c r="AV3" t="n">
-        <v>593.0199584960938</v>
+        <v>544.4212646484375</v>
       </c>
       <c r="AW3" t="n">
-        <v>591.96630859375</v>
+        <v>542.0657958984375</v>
       </c>
       <c r="AX3" t="n">
-        <v>592.6934814453125</v>
+        <v>540.77001953125</v>
       </c>
       <c r="AY3" t="n">
-        <v>593.7738037109375</v>
+        <v>536.712890625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>594.1920166015625</v>
+        <v>531.385009765625</v>
       </c>
       <c r="BA3" t="n">
-        <v>590.5609741210938</v>
+        <v>522.0684204101562</v>
       </c>
       <c r="BB3" t="n">
-        <v>587.2192993164062</v>
+        <v>513.2466430664062</v>
       </c>
       <c r="BC3" t="n">
-        <v>583.0902099609375</v>
+        <v>510.9076843261719</v>
       </c>
       <c r="BD3" t="n">
-        <v>580.1714477539062</v>
+        <v>504.7960205078125</v>
       </c>
       <c r="BE3" t="n">
-        <v>578.4694213867188</v>
+        <v>499.0825805664062</v>
       </c>
       <c r="BF3" t="n">
-        <v>577.228759765625</v>
+        <v>492.0797424316406</v>
       </c>
       <c r="BG3" t="n">
-        <v>576.217041015625</v>
+        <v>491.470703125</v>
       </c>
       <c r="BH3" t="n">
-        <v>572.8657836914062</v>
+        <v>491.2574462890625</v>
       </c>
       <c r="BI3" t="n">
-        <v>571.2413940429688</v>
+        <v>489.8898010253906</v>
       </c>
       <c r="BJ3" t="n">
-        <v>570.7484741210938</v>
+        <v>486.5285034179688</v>
       </c>
       <c r="BK3" t="n">
-        <v>573.5441284179688</v>
+        <v>483.1419067382812</v>
       </c>
       <c r="BL3" t="n">
-        <v>571.7980346679688</v>
+        <v>480.9071655273438</v>
       </c>
       <c r="BM3" t="n">
-        <v>573.0555419921875</v>
+        <v>480.7233276367188</v>
       </c>
       <c r="BN3" t="n">
-        <v>572.364990234375</v>
+        <v>480.1585693359375</v>
       </c>
       <c r="BO3" t="n">
-        <v>571.0493774414062</v>
+        <v>482.2012634277344</v>
       </c>
       <c r="BP3" t="n">
-        <v>569.9513549804688</v>
+        <v>481.2856750488281</v>
       </c>
       <c r="BQ3" t="n">
-        <v>570.9215087890625</v>
+        <v>476.9572448730469</v>
       </c>
       <c r="BR3" t="n">
-        <v>572.25341796875</v>
+        <v>473.8074645996094</v>
       </c>
       <c r="BS3" t="n">
-        <v>571.9210815429688</v>
+        <v>473.2836303710938</v>
       </c>
       <c r="BT3" t="n">
-        <v>571.895751953125</v>
+        <v>475.4501953125</v>
       </c>
       <c r="BU3" t="n">
-        <v>572.0841674804688</v>
+        <v>473.5620422363281</v>
       </c>
       <c r="BV3" t="n">
-        <v>572.0369873046875</v>
+        <v>469.2611694335938</v>
       </c>
       <c r="BW3" t="n">
-        <v>572.8543701171875</v>
+        <v>465.3598327636719</v>
       </c>
       <c r="BX3" t="n">
-        <v>574.2000732421875</v>
+        <v>463.7416381835938</v>
       </c>
       <c r="BY3" t="n">
-        <v>574.5491943359375</v>
+        <v>473.9771118164062</v>
       </c>
       <c r="BZ3" t="n">
-        <v>573.9730834960938</v>
+        <v>469.3243103027344</v>
       </c>
       <c r="CA3" t="n">
-        <v>573.8145141601562</v>
+        <v>462.7813720703125</v>
       </c>
       <c r="CB3" t="n">
-        <v>573.4883422851562</v>
+        <v>460.7806701660156</v>
       </c>
       <c r="CC3" t="n">
-        <v>573.6945190429688</v>
+        <v>456.1773071289062</v>
       </c>
       <c r="CD3" t="n">
-        <v>573.6062622070312</v>
+        <v>452.0221862792969</v>
       </c>
       <c r="CE3" t="n">
-        <v>572.5682983398438</v>
+        <v>448.7947387695312</v>
       </c>
       <c r="CF3" t="n">
-        <v>571.0543212890625</v>
+        <v>447.0968322753906</v>
       </c>
       <c r="CG3" t="n">
-        <v>566.2916870117188</v>
+        <v>446.9685668945312</v>
       </c>
       <c r="CH3" t="n">
-        <v>560.9227905273438</v>
+        <v>446.517333984375</v>
       </c>
       <c r="CI3" t="n">
-        <v>554.3399047851562</v>
+        <v>446.9905395507812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>551.3513793945312</v>
+        <v>446.6955261230469</v>
       </c>
       <c r="CK3" t="n">
-        <v>548.66455078125</v>
+        <v>446.7852172851562</v>
       </c>
       <c r="CL3" t="n">
-        <v>546.8147583007812</v>
+        <v>449.7281799316406</v>
       </c>
       <c r="CM3" t="n">
-        <v>546.11181640625</v>
+        <v>451.24951171875</v>
       </c>
       <c r="CN3" t="n">
-        <v>546.6290283203125</v>
+        <v>453.3879699707031</v>
       </c>
       <c r="CO3" t="n">
-        <v>551.8504028320312</v>
+        <v>455.3241882324219</v>
       </c>
       <c r="CP3" t="n">
-        <v>556.4326782226562</v>
+        <v>456.1716918945312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>557.9863891601562</v>
+        <v>455.6598205566406</v>
       </c>
       <c r="CR3" t="n">
-        <v>556.2463989257812</v>
+        <v>455.0774841308594</v>
       </c>
       <c r="CS3" t="n">
-        <v>556.1605224609375</v>
+        <v>455.376220703125</v>
       </c>
       <c r="CT3" t="n">
-        <v>556.7732543945312</v>
+        <v>455.4187316894531</v>
       </c>
       <c r="CU3" t="n">
-        <v>556.788330078125</v>
+        <v>455.0138244628906</v>
       </c>
       <c r="CV3" t="n">
-        <v>556.8340454101562</v>
+        <v>452.3297119140625</v>
       </c>
       <c r="CW3" t="n">
-        <v>556.4319458007812</v>
+        <v>449.7216491699219</v>
       </c>
       <c r="CX3" t="n">
-        <v>556.527099609375</v>
+        <v>449.5664672851562</v>
       </c>
       <c r="CY3" t="n">
-        <v>556.99658203125</v>
+        <v>447.6463623046875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>556.7794799804688</v>
+        <v>446.995361328125</v>
       </c>
       <c r="DA3" t="n">
-        <v>556.6917724609375</v>
+        <v>446.8153381347656</v>
       </c>
       <c r="DB3" t="n">
-        <v>556.7053833007812</v>
+        <v>446.147216796875</v>
       </c>
       <c r="DC3" t="n">
-        <v>556.3780517578125</v>
+        <v>446.7815246582031</v>
       </c>
       <c r="DD3" t="n">
-        <v>556.7894897460938</v>
+        <v>445.6826171875</v>
       </c>
       <c r="DE3" t="n">
-        <v>556.670654296875</v>
+        <v>444.8089599609375</v>
       </c>
       <c r="DF3" t="n">
-        <v>556.7404174804688</v>
+        <v>443.6550598144531</v>
       </c>
       <c r="DG3" t="n">
-        <v>556.4342041015625</v>
+        <v>442.8955078125</v>
       </c>
       <c r="DH3" t="n">
-        <v>556.0511474609375</v>
+        <v>441.7860412597656</v>
       </c>
       <c r="DI3" t="n">
-        <v>556.1595458984375</v>
+        <v>441.1861267089844</v>
       </c>
       <c r="DJ3" t="n">
-        <v>556.6336669921875</v>
+        <v>441.0721740722656</v>
       </c>
       <c r="DK3" t="n">
-        <v>557.85009765625</v>
+        <v>440.9979248046875</v>
       </c>
       <c r="DL3" t="n">
-        <v>560.5382080078125</v>
+        <v>440.9341735839844</v>
       </c>
       <c r="DM3" t="n">
-        <v>564.050537109375</v>
+        <v>440.9028625488281</v>
       </c>
       <c r="DN3" t="n">
-        <v>564.9136352539062</v>
+        <v>440.5192565917969</v>
       </c>
       <c r="DO3" t="n">
-        <v>569.9738159179688</v>
+        <v>439.9723815917969</v>
       </c>
       <c r="DP3" t="n">
-        <v>572.1055908203125</v>
+        <v>439.6851501464844</v>
       </c>
       <c r="DQ3" t="n">
-        <v>567.0679321289062</v>
+        <v>439.4779357910156</v>
       </c>
       <c r="DR3" t="n">
-        <v>557.5745239257812</v>
+        <v>439.4449768066406</v>
       </c>
       <c r="DS3" t="n">
-        <v>549.5411987304688</v>
+        <v>439.542724609375</v>
       </c>
       <c r="DT3" t="n">
-        <v>529.8140869140625</v>
+        <v>439.8338928222656</v>
       </c>
       <c r="DU3" t="n">
-        <v>522.8652954101562</v>
+        <v>440.1670837402344</v>
       </c>
       <c r="DV3" t="n">
-        <v>514.99072265625</v>
+        <v>440.4439392089844</v>
       </c>
       <c r="DW3" t="n">
-        <v>501.9213256835938</v>
+        <v>441.8731994628906</v>
       </c>
       <c r="DX3" t="n">
-        <v>494.8223266601562</v>
+        <v>443.978759765625</v>
       </c>
       <c r="DY3" t="n">
-        <v>489.8500366210938</v>
+        <v>444.827392578125</v>
       </c>
       <c r="DZ3" t="n">
-        <v>488.2488403320312</v>
+        <v>445.0888061523438</v>
       </c>
       <c r="EA3" t="n">
-        <v>487.3290405273438</v>
+        <v>446.1491088867188</v>
       </c>
       <c r="EB3" t="n">
-        <v>498.5081176757812</v>
+        <v>446.8083801269531</v>
       </c>
       <c r="EC3" t="n">
-        <v>507.031005859375</v>
+        <v>447.5992126464844</v>
       </c>
       <c r="ED3" t="n">
-        <v>518.83203125</v>
+        <v>447.8062438964844</v>
       </c>
       <c r="EE3" t="n">
-        <v>532.4605102539062</v>
+        <v>448.5670776367188</v>
       </c>
       <c r="EF3" t="n">
-        <v>536.7313842773438</v>
+        <v>449.6312866210938</v>
       </c>
       <c r="EG3" t="n">
-        <v>549.830078125</v>
+        <v>450.2687072753906</v>
       </c>
       <c r="EH3" t="n">
-        <v>559.245361328125</v>
+        <v>450.399169921875</v>
       </c>
       <c r="EI3" t="n">
-        <v>557.7679443359375</v>
+        <v>450.6108093261719</v>
       </c>
       <c r="EJ3" t="n">
-        <v>557.7947387695312</v>
+        <v>450.7277526855469</v>
       </c>
       <c r="EK3" t="n">
-        <v>559.0005493164062</v>
+        <v>451.0553588867188</v>
       </c>
       <c r="EL3" t="n">
-        <v>561.2483520507812</v>
+        <v>451.1884765625</v>
       </c>
       <c r="EM3" t="n">
-        <v>557.2486572265625</v>
+        <v>451.328857421875</v>
       </c>
       <c r="EN3" t="n">
-        <v>554.8154907226562</v>
+        <v>451.5938415527344</v>
       </c>
       <c r="EO3" t="n">
-        <v>552.0189819335938</v>
+        <v>451.6595153808594</v>
       </c>
       <c r="EP3" t="n">
-        <v>550.8948974609375</v>
+        <v>451.2663269042969</v>
       </c>
       <c r="EQ3" t="n">
-        <v>550.676513671875</v>
+        <v>450.7485961914062</v>
       </c>
       <c r="ER3" t="n">
-        <v>550.6532592773438</v>
+        <v>449.8696899414062</v>
       </c>
       <c r="ES3" t="n">
-        <v>551.4381713867188</v>
+        <v>450.14990234375</v>
       </c>
       <c r="ET3" t="n">
-        <v>567.0718994140625</v>
+        <v>450.4907531738281</v>
       </c>
       <c r="EU3" t="n">
-        <v>581.5964965820312</v>
+        <v>450.7826843261719</v>
       </c>
       <c r="EV3" t="n">
-        <v>588.9932250976562</v>
+        <v>450.788330078125</v>
       </c>
       <c r="EW3" t="n">
-        <v>604.534912109375</v>
+        <v>450.82421875</v>
       </c>
       <c r="EX3" t="n">
-        <v>612.526123046875</v>
+        <v>450.673095703125</v>
       </c>
       <c r="EY3" t="n">
-        <v>615.32958984375</v>
+        <v>450.6210327148438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>619.0716552734375</v>
+        <v>450.5212707519531</v>
       </c>
       <c r="FA3" t="n">
-        <v>615.8775024414062</v>
+        <v>450.5740966796875</v>
       </c>
       <c r="FB3" t="n">
-        <v>616.2765502929688</v>
+        <v>450.5716247558594</v>
       </c>
       <c r="FC3" t="n">
-        <v>607.5414428710938</v>
+        <v>450.5357971191406</v>
       </c>
       <c r="FD3" t="n">
-        <v>605.7012329101562</v>
+        <v>450.4944763183594</v>
       </c>
       <c r="FE3" t="n">
-        <v>591.8087768554688</v>
+        <v>450.5708618164062</v>
       </c>
       <c r="FF3" t="n">
-        <v>586.3812255859375</v>
+        <v>450.6571960449219</v>
       </c>
       <c r="FG3" t="n">
-        <v>589.3428344726562</v>
+        <v>450.6651916503906</v>
       </c>
       <c r="FH3" t="n">
-        <v>593.1929321289062</v>
+        <v>450.6088562011719</v>
       </c>
       <c r="FI3" t="n">
-        <v>596.6328125</v>
+        <v>450.3951721191406</v>
       </c>
       <c r="FJ3" t="n">
-        <v>593.3770751953125</v>
+        <v>450.5177001953125</v>
       </c>
       <c r="FK3" t="n">
-        <v>598.1664428710938</v>
+        <v>450.70947265625</v>
       </c>
       <c r="FL3" t="n">
-        <v>604.44921875</v>
+        <v>450.606201171875</v>
       </c>
       <c r="FM3" t="n">
-        <v>611.7053833007812</v>
+        <v>450.6514587402344</v>
       </c>
       <c r="FN3" t="n">
-        <v>618.0785522460938</v>
+        <v>450.7052307128906</v>
       </c>
       <c r="FO3" t="n">
-        <v>627.9791870117188</v>
+        <v>450.7521057128906</v>
       </c>
       <c r="FP3" t="n">
-        <v>646.2105102539062</v>
+        <v>450.7768249511719</v>
       </c>
       <c r="FQ3" t="n">
-        <v>660.7814331054688</v>
+        <v>450.9443664550781</v>
       </c>
       <c r="FR3" t="n">
-        <v>668.0773315429688</v>
+        <v>451.1777954101562</v>
       </c>
       <c r="FS3" t="n">
-        <v>682.7081909179688</v>
+        <v>452.4793395996094</v>
       </c>
       <c r="FT3" t="n">
-        <v>679.134033203125</v>
+        <v>452.9775085449219</v>
       </c>
       <c r="FU3" t="n">
-        <v>680.28515625</v>
+        <v>453.7111511230469</v>
       </c>
       <c r="FV3" t="n">
-        <v>679.394287109375</v>
+        <v>453.6680297851562</v>
       </c>
       <c r="FW3" t="n">
-        <v>681.0786743164062</v>
+        <v>453.5534057617188</v>
       </c>
       <c r="FX3" t="n">
-        <v>673.0485229492188</v>
+        <v>453.5125732421875</v>
       </c>
       <c r="FY3" t="n">
-        <v>715.5695190429688</v>
+        <v>453.4850769042969</v>
       </c>
       <c r="FZ3" t="n">
-        <v>707.66650390625</v>
+        <v>453.4734191894531</v>
       </c>
       <c r="GA3" t="n">
-        <v>707.2192993164062</v>
+        <v>453.8446960449219</v>
       </c>
       <c r="GB3" t="n">
-        <v>789.3782958984375</v>
+        <v>454.1878051757812</v>
       </c>
       <c r="GC3" t="n">
-        <v>813.0947875976562</v>
+        <v>454.19482421875</v>
       </c>
       <c r="GD3" t="n">
-        <v>811.3956909179688</v>
+        <v>455.2796936035156</v>
       </c>
       <c r="GE3" t="n">
-        <v>821.5101318359375</v>
+        <v>455.359619140625</v>
       </c>
       <c r="GF3" t="n">
-        <v>742.5260009765625</v>
+        <v>454.463134765625</v>
       </c>
       <c r="GG3" t="n">
-        <v>730.2708129882812</v>
+        <v>453.7447509765625</v>
       </c>
       <c r="GH3" t="n">
-        <v>737.2791137695312</v>
+        <v>453.6645812988281</v>
       </c>
       <c r="GI3" t="n">
-        <v>741.6854858398438</v>
+        <v>453.2656860351562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>734.1563110351562</v>
+        <v>453.1426391601562</v>
       </c>
       <c r="GK3" t="n">
-        <v>728.7039794921875</v>
+        <v>452.1298522949219</v>
       </c>
       <c r="GL3" t="n">
-        <v>736.3632202148438</v>
+        <v>451.7326965332031</v>
       </c>
       <c r="GM3" t="n">
-        <v>753.0161743164062</v>
+        <v>452.0294799804688</v>
       </c>
       <c r="GN3" t="n">
-        <v>797.042236328125</v>
+        <v>452.3263549804688</v>
       </c>
       <c r="GO3" t="n">
-        <v>829.1480102539062</v>
+        <v>452.5774230957031</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>452.3989562988281</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>452.381103515625</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>452.3021240234375</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>452.3475036621094</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>452.6817321777344</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>453.6718139648438</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>451.8220825195312</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>451.3882446289062</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>452.0549621582031</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>452.2929077148438</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>450.4872131347656</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>448.0570983886719</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>443.6448974609375</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>448.5640563964844</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>447.3116149902344</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>448.6891784667969</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>452.0193786621094</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>459.0744323730469</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>466.3034362792969</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>467.0217895507812</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>465.4222106933594</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>465.76171875</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>470.1202697753906</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>478.2922973632812</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>481.9497985839844</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>487.8958435058594</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>490.4742126464844</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>495.0936584472656</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>499.64013671875</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>506.8499450683594</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>514.718017578125</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>524.9480590820312</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>531.11474609375</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>539.411376953125</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>539.12548828125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>541.1663208007812</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>547.8219604492188</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>558.9671630859375</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>565.283935546875</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>561.5230712890625</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>568.2518310546875</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>584.6854858398438</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>595.2890014648438</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>574.1306762695312</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>593.083251953125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>598.8138427734375</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>630.7796630859375</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>754.1995849609375</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>809.3570556640625</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>871.0614013671875</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>1099.705444335938</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1049.975708007812</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1034.759155273438</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>1043.026489257812</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>997.0728149414062</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>1054.367553710938</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>931.7001953125</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>863.5089111328125</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>783.6677856445312</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>805.2116088867188</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>713.401123046875</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>686.5507202148438</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>784.7129516601562</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>855.27978515625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>834.9197998046875</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>806.44482421875</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>787.8921508789062</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>754.8917236328125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>760.7870483398438</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>757.796142578125</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>766.2171630859375</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>739.4219360351562</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>773.522705078125</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>795.4317016601562</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>812.1640625</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>811.6093139648438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>854.8055419921875</v>
       </c>
       <c r="B4" t="n">
-        <v>1023.832275390625</v>
+        <v>854.2422485351562</v>
       </c>
       <c r="C4" t="n">
-        <v>1041.595947265625</v>
+        <v>854.158447265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1044.570068359375</v>
+        <v>854.1737060546875</v>
       </c>
       <c r="E4" t="n">
-        <v>1046.512329101562</v>
+        <v>854.1723022460938</v>
       </c>
       <c r="F4" t="n">
-        <v>1051.342651367188</v>
+        <v>854.1680297851562</v>
       </c>
       <c r="G4" t="n">
-        <v>1049.892822265625</v>
+        <v>854.1641845703125</v>
       </c>
       <c r="H4" t="n">
-        <v>1049.391235351562</v>
+        <v>854.14990234375</v>
       </c>
       <c r="I4" t="n">
-        <v>1048.409790039062</v>
+        <v>854.1000366210938</v>
       </c>
       <c r="J4" t="n">
-        <v>1048.948364257812</v>
+        <v>854.0321044921875</v>
       </c>
       <c r="K4" t="n">
-        <v>1048.49853515625</v>
+        <v>853.899169921875</v>
       </c>
       <c r="L4" t="n">
-        <v>1048.289794921875</v>
+        <v>853.7228393554688</v>
       </c>
       <c r="M4" t="n">
-        <v>1048.074584960938</v>
+        <v>853.5350341796875</v>
       </c>
       <c r="N4" t="n">
-        <v>1047.860229492188</v>
+        <v>853.3018188476562</v>
       </c>
       <c r="O4" t="n">
-        <v>1047.698608398438</v>
+        <v>852.97802734375</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.486694335938</v>
+        <v>852.7084350585938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.286254882812</v>
+        <v>852.2870483398438</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.130737304688</v>
+        <v>851.6790771484375</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.031494140625</v>
+        <v>850.692138671875</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.050537109375</v>
+        <v>846.050537109375</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.127197265625</v>
+        <v>833.31689453125</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.006713867188</v>
+        <v>829.7238159179688</v>
       </c>
       <c r="W4" t="n">
-        <v>1046.89453125</v>
+        <v>829.3683471679688</v>
       </c>
       <c r="X4" t="n">
-        <v>1046.8408203125</v>
+        <v>828.6441650390625</v>
       </c>
       <c r="Y4" t="n">
-        <v>1046.8466796875</v>
+        <v>828.4370727539062</v>
       </c>
       <c r="Z4" t="n">
-        <v>1046.896606445312</v>
+        <v>828.2603149414062</v>
       </c>
       <c r="AA4" t="n">
-        <v>1046.976928710938</v>
+        <v>828.4827880859375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1047.236206054688</v>
+        <v>831.2947998046875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1047.205810546875</v>
+        <v>842.3536987304688</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047.22314453125</v>
+        <v>473.6216125488281</v>
       </c>
       <c r="AE4" t="n">
-        <v>1047.209716796875</v>
+        <v>484.6275024414062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1047.201416015625</v>
+        <v>481.6233520507812</v>
       </c>
       <c r="AG4" t="n">
-        <v>1047.067993164062</v>
+        <v>490.2528991699219</v>
       </c>
       <c r="AH4" t="n">
-        <v>1047.004150390625</v>
+        <v>500.5049133300781</v>
       </c>
       <c r="AI4" t="n">
-        <v>1046.939819335938</v>
+        <v>530.8417358398438</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1046.889404296875</v>
+        <v>529.8993530273438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1046.866088867188</v>
+        <v>531.8814697265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1046.826904296875</v>
+        <v>536.1151123046875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1046.74365234375</v>
+        <v>539.4359741210938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1046.7099609375</v>
+        <v>533.382568359375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1046.69921875</v>
+        <v>527.1552124023438</v>
       </c>
       <c r="AP4" t="n">
-        <v>1046.657348632812</v>
+        <v>522.309326171875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1046.271606445312</v>
+        <v>569.5556640625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1046.310913085938</v>
+        <v>1031.905639648438</v>
       </c>
       <c r="AS4" t="n">
-        <v>1046.789428710938</v>
+        <v>1057.197509765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1050.34326171875</v>
+        <v>1073.431884765625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1055.361206054688</v>
+        <v>1087.518676757812</v>
       </c>
       <c r="AV4" t="n">
-        <v>1062.821899414062</v>
+        <v>1107.964477539062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1065.462768554688</v>
+        <v>1128.136352539062</v>
       </c>
       <c r="AX4" t="n">
-        <v>1065.164916992188</v>
+        <v>1147.105712890625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1065.20947265625</v>
+        <v>1175.668701171875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1064.863525390625</v>
+        <v>1204.733276367188</v>
       </c>
       <c r="BA4" t="n">
-        <v>1065.51708984375</v>
+        <v>1232.597534179688</v>
       </c>
       <c r="BB4" t="n">
-        <v>1065.267211914062</v>
+        <v>1258.81201171875</v>
       </c>
       <c r="BC4" t="n">
-        <v>1066.321899414062</v>
+        <v>1279.133544921875</v>
       </c>
       <c r="BD4" t="n">
-        <v>1067.581665039062</v>
+        <v>1299.72119140625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1068.334106445312</v>
+        <v>1321.4609375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1071.448852539062</v>
+        <v>1349.533813476562</v>
       </c>
       <c r="BG4" t="n">
-        <v>1074.343627929688</v>
+        <v>1366.025756835938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1086.005249023438</v>
+        <v>1382.8603515625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1091.185668945312</v>
+        <v>1421.9013671875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1095.849731445312</v>
+        <v>1443.212158203125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1099.311889648438</v>
+        <v>1464.813232421875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1101.557250976562</v>
+        <v>1481.364624023438</v>
       </c>
       <c r="BM4" t="n">
-        <v>1110.564697265625</v>
+        <v>1491.385131835938</v>
       </c>
       <c r="BN4" t="n">
-        <v>1110.5068359375</v>
+        <v>1510.35546875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1110.65478515625</v>
+        <v>1523.191284179688</v>
       </c>
       <c r="BP4" t="n">
-        <v>1112.69873046875</v>
+        <v>1545.060546875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1115.46826171875</v>
+        <v>1565.704956054688</v>
       </c>
       <c r="BR4" t="n">
-        <v>1119.092529296875</v>
+        <v>1582.250366210938</v>
       </c>
       <c r="BS4" t="n">
-        <v>1118.805541992188</v>
+        <v>1600.648681640625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1117.366943359375</v>
+        <v>1620.396240234375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1115.296020507812</v>
+        <v>1635.64794921875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1112.749755859375</v>
+        <v>1658.06298828125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1109.9560546875</v>
+        <v>1669.771850585938</v>
       </c>
       <c r="BX4" t="n">
-        <v>1107.358764648438</v>
+        <v>1691.54052734375</v>
       </c>
       <c r="BY4" t="n">
-        <v>1107.96142578125</v>
+        <v>1460.291015625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1109.153442382812</v>
+        <v>1471.513305664062</v>
       </c>
       <c r="CA4" t="n">
-        <v>1110.171264648438</v>
+        <v>1498.941162109375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1111.336791992188</v>
+        <v>1515.911743164062</v>
       </c>
       <c r="CC4" t="n">
-        <v>1111.89697265625</v>
+        <v>1533.296020507812</v>
       </c>
       <c r="CD4" t="n">
-        <v>1111.590942382812</v>
+        <v>1548.406372070312</v>
       </c>
       <c r="CE4" t="n">
-        <v>1111.943969726562</v>
+        <v>1567.828857421875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1111.98388671875</v>
+        <v>1592.8115234375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1112.448120117188</v>
+        <v>1630.698486328125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1112.717529296875</v>
+        <v>1661.998168945312</v>
       </c>
       <c r="CI4" t="n">
-        <v>1113.364990234375</v>
+        <v>1677.097534179688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1114.572509765625</v>
+        <v>1690.387451171875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1117.493408203125</v>
+        <v>1710.30712890625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1121.728271484375</v>
+        <v>1738.524536132812</v>
       </c>
       <c r="CM4" t="n">
-        <v>1128.392333984375</v>
+        <v>1770.709838867188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1133.623413085938</v>
+        <v>1787.768310546875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1131.8798828125</v>
+        <v>1806.026977539062</v>
       </c>
       <c r="CP4" t="n">
-        <v>1130.06201171875</v>
+        <v>1833.304077148438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1130.069946289062</v>
+        <v>1863.538330078125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1131.08544921875</v>
+        <v>1876.318481445312</v>
       </c>
       <c r="CS4" t="n">
-        <v>1131.579711914062</v>
+        <v>1878.24169921875</v>
       </c>
       <c r="CT4" t="n">
-        <v>1129.464233398438</v>
+        <v>1883.935546875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1129.192993164062</v>
+        <v>1893.69091796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1128.96435546875</v>
+        <v>1915.001342773438</v>
       </c>
       <c r="CW4" t="n">
-        <v>1130.027709960938</v>
+        <v>1926.842163085938</v>
       </c>
       <c r="CX4" t="n">
-        <v>1129.709838867188</v>
+        <v>1921.70166015625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1128.277709960938</v>
+        <v>1934.17919921875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1128.836181640625</v>
+        <v>1934.222900390625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1129.066528320312</v>
+        <v>1934.862060546875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1129.025024414062</v>
+        <v>1939.6103515625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1129.969360351562</v>
+        <v>1940.684448242188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1128.740478515625</v>
+        <v>1943.919067382812</v>
       </c>
       <c r="DE4" t="n">
-        <v>1129.046875</v>
+        <v>1946.830444335938</v>
       </c>
       <c r="DF4" t="n">
-        <v>1128.7353515625</v>
+        <v>1946.44189453125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1129.513061523438</v>
+        <v>1947.750610351562</v>
       </c>
       <c r="DH4" t="n">
-        <v>1129.82958984375</v>
+        <v>1949.560302734375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1128.720458984375</v>
+        <v>1949.87353515625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1126.06884765625</v>
+        <v>1949.522583007812</v>
       </c>
       <c r="DK4" t="n">
-        <v>1121.025024414062</v>
+        <v>1950.352783203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1110.813110351562</v>
+        <v>1950.365234375</v>
       </c>
       <c r="DM4" t="n">
-        <v>1098.927001953125</v>
+        <v>1950.218994140625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1096.315795898438</v>
+        <v>1950.721313476562</v>
       </c>
       <c r="DO4" t="n">
-        <v>1081.43994140625</v>
+        <v>1951.313110351562</v>
       </c>
       <c r="DP4" t="n">
-        <v>1074.76123046875</v>
+        <v>1951.733276367188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1074.496215820312</v>
+        <v>1951.595092773438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1075.757690429688</v>
+        <v>1951.233032226562</v>
       </c>
       <c r="DS4" t="n">
-        <v>1077.797729492188</v>
+        <v>1950.575317382812</v>
       </c>
       <c r="DT4" t="n">
-        <v>1087.973999023438</v>
+        <v>1949.03173828125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1099.856323242188</v>
+        <v>1947.741821289062</v>
       </c>
       <c r="DV4" t="n">
-        <v>1111.4501953125</v>
+        <v>1945.46875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1129.671264648438</v>
+        <v>1936.077514648438</v>
       </c>
       <c r="DX4" t="n">
-        <v>1136.318359375</v>
+        <v>1925.307373046875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1152.183227539062</v>
+        <v>1921.624755859375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1159.601684570312</v>
+        <v>1913.740234375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1170.672729492188</v>
+        <v>1913.699462890625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1181.517944335938</v>
+        <v>1914.38720703125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1188.022583007812</v>
+        <v>1918.603637695312</v>
       </c>
       <c r="ED4" t="n">
-        <v>1198.212890625</v>
+        <v>1915.852661132812</v>
       </c>
       <c r="EE4" t="n">
-        <v>1219.34765625</v>
+        <v>1914.998901367188</v>
       </c>
       <c r="EF4" t="n">
-        <v>1220.7451171875</v>
+        <v>1914.822631835938</v>
       </c>
       <c r="EG4" t="n">
-        <v>1232.842651367188</v>
+        <v>1914.675415039062</v>
       </c>
       <c r="EH4" t="n">
-        <v>1265.388305664062</v>
+        <v>1914.703857421875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1283.628784179688</v>
+        <v>1914.789306640625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1296.4189453125</v>
+        <v>1913.994384765625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1314.06689453125</v>
+        <v>1913.853515625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1315.404663085938</v>
+        <v>1913.552368164062</v>
       </c>
       <c r="EM4" t="n">
-        <v>1316.22412109375</v>
+        <v>1916.194458007812</v>
       </c>
       <c r="EN4" t="n">
-        <v>1316.730712890625</v>
+        <v>1921.590942382812</v>
       </c>
       <c r="EO4" t="n">
-        <v>1318.462646484375</v>
+        <v>1922.1376953125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1320.25341796875</v>
+        <v>1923.552001953125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1327.003051757812</v>
+        <v>1923.612670898438</v>
       </c>
       <c r="ER4" t="n">
-        <v>1329.0263671875</v>
+        <v>1922.7958984375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1330.823974609375</v>
+        <v>1921.200927734375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1329.191162109375</v>
+        <v>1916.21435546875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1320.2734375</v>
+        <v>1913.55419921875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1312.795654296875</v>
+        <v>1910.9150390625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1286.690063476562</v>
+        <v>1905.154296875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1270.494262695312</v>
+        <v>1905.407958984375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1258.062866210938</v>
+        <v>1904.430908203125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1251.150024414062</v>
+        <v>1903.701049804688</v>
       </c>
       <c r="FA4" t="n">
-        <v>1253.550659179688</v>
+        <v>1901.915405273438</v>
       </c>
       <c r="FB4" t="n">
-        <v>1249.241821289062</v>
+        <v>1902.153930664062</v>
       </c>
       <c r="FC4" t="n">
-        <v>1242.71337890625</v>
+        <v>1902.408081054688</v>
       </c>
       <c r="FD4" t="n">
-        <v>1239.541259765625</v>
+        <v>1905.243896484375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1235.85986328125</v>
+        <v>1905.317138671875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1230.28857421875</v>
+        <v>1905.390258789062</v>
       </c>
       <c r="FG4" t="n">
-        <v>1201.365112304688</v>
+        <v>1905.759887695312</v>
       </c>
       <c r="FH4" t="n">
-        <v>1164.852172851562</v>
+        <v>1906.318237304688</v>
       </c>
       <c r="FI4" t="n">
-        <v>1154.715209960938</v>
+        <v>1906.010498046875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1157.184936523438</v>
+        <v>1905.669555664062</v>
       </c>
       <c r="FK4" t="n">
-        <v>1129.175903320312</v>
+        <v>1904.953125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1112.559448242188</v>
+        <v>1905.05712890625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1081.41455078125</v>
+        <v>1903.318115234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1054.09814453125</v>
+        <v>1901.358154296875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1025.036865234375</v>
+        <v>1899.255126953125</v>
       </c>
       <c r="FP4" t="n">
-        <v>993.591796875</v>
+        <v>1901.464111328125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>976.2861328125</v>
+        <v>1903.635375976562</v>
       </c>
       <c r="FR4" t="n">
-        <v>958.1756591796875</v>
+        <v>1902.169677734375</v>
       </c>
       <c r="FS4" t="n">
-        <v>929.6990966796875</v>
+        <v>1900.786376953125</v>
       </c>
       <c r="FT4" t="n">
-        <v>920.1168212890625</v>
+        <v>1900.34716796875</v>
       </c>
       <c r="FU4" t="n">
-        <v>901.09423828125</v>
+        <v>1900.1455078125</v>
       </c>
       <c r="FV4" t="n">
-        <v>892.8178100585938</v>
+        <v>1900.828002929688</v>
       </c>
       <c r="FW4" t="n">
-        <v>861.3438110351562</v>
+        <v>1902.408935546875</v>
       </c>
       <c r="FX4" t="n">
-        <v>863.9671020507812</v>
+        <v>1902.063842773438</v>
       </c>
       <c r="FY4" t="n">
-        <v>819.9566040039062</v>
+        <v>1902.02197265625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>812.8408813476562</v>
+        <v>1903.317138671875</v>
       </c>
       <c r="GA4" t="n">
-        <v>774.051025390625</v>
+        <v>1903.529663085938</v>
       </c>
       <c r="GB4" t="n">
-        <v>662.1259765625</v>
+        <v>1902.649536132812</v>
       </c>
       <c r="GC4" t="n">
-        <v>663.3267211914062</v>
+        <v>1902.3779296875</v>
       </c>
       <c r="GD4" t="n">
-        <v>684.3049926757812</v>
+        <v>1900.927490234375</v>
       </c>
       <c r="GE4" t="n">
-        <v>680.3878173828125</v>
+        <v>1900.667724609375</v>
       </c>
       <c r="GF4" t="n">
-        <v>775.8128662109375</v>
+        <v>1901.727172851562</v>
       </c>
       <c r="GG4" t="n">
-        <v>770.7910766601562</v>
+        <v>1902.866455078125</v>
       </c>
       <c r="GH4" t="n">
-        <v>759.8543090820312</v>
+        <v>1903.271484375</v>
       </c>
       <c r="GI4" t="n">
-        <v>749.0179443359375</v>
+        <v>1903.099365234375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>755.6292724609375</v>
+        <v>1902.8359375</v>
       </c>
       <c r="GK4" t="n">
-        <v>747.4549560546875</v>
+        <v>1904.229614257812</v>
       </c>
       <c r="GL4" t="n">
-        <v>736.277587890625</v>
+        <v>1904.73388671875</v>
       </c>
       <c r="GM4" t="n">
-        <v>709.7222900390625</v>
+        <v>1904.313354492188</v>
       </c>
       <c r="GN4" t="n">
-        <v>658.1006469726562</v>
+        <v>1903.917114257812</v>
       </c>
       <c r="GO4" t="n">
-        <v>635.9301147460938</v>
+        <v>1903.380981445312</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1903.13427734375</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1902.224487304688</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1901.2265625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1901.2412109375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1901.6123046875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1904.27294921875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1930.354858398438</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1954.204223632812</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1949.06201171875</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1952.602172851562</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1946.82080078125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1945.584716796875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1919.251220703125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1861.703002929688</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1883.585815429688</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1728.764892578125</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1726.8251953125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1749.635498046875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1684.503540039062</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1612.89208984375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1631.223388671875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1584.8427734375</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1524.39404296875</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1430.225341796875</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1400.157104492188</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1332.918334960938</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1281.8310546875</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1236.39306640625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1205.61474609375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1178.291748046875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1144.278564453125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1166.571533203125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1151.35595703125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1085.838012695312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1051.278564453125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1066.187622070312</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1047.873046875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1006.885681152344</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>959.0308227539062</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>953.184814453125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>923.4108276367188</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>869.965576171875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>839.4769287109375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>937.6162719726562</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>882.644287109375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>833.959228515625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>769.7086791992188</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>597.893798828125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>520.7352905273438</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>565.1251831054688</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>486.41455078125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>502.0058898925781</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>501.4640808105469</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>491.5459594726562</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>519.9317626953125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>456.1888732910156</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>461.3390502929688</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>530.8687133789062</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>634.6582641601562</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>605.511474609375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>698.5472412109375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>757.0565185546875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>716.0637817382812</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>673.1995849609375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>719.3346557617188</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>765.0374755859375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>776.066650390625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>831.2508544921875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>834.1659545898438</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>869.4838256835938</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>856.4119873046875</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>896.5618286132812</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>830.4537963867188</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>784.90478515625</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>742.695556640625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>771.5106811523438</v>
       </c>
     </row>
   </sheetData>

--- a/right_knee_Data.xlsx
+++ b/right_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>161.3495635986328</v>
+        <v>378.8675231933594</v>
       </c>
       <c r="B2" t="n">
-        <v>161.6215209960938</v>
+        <v>381.5474853515625</v>
       </c>
       <c r="C2" t="n">
-        <v>161.6303100585938</v>
+        <v>382.8384399414062</v>
       </c>
       <c r="D2" t="n">
-        <v>161.6546630859375</v>
+        <v>384.0971374511719</v>
       </c>
       <c r="E2" t="n">
-        <v>161.6773681640625</v>
+        <v>385.0166320800781</v>
       </c>
       <c r="F2" t="n">
-        <v>161.671142578125</v>
+        <v>385.9952392578125</v>
       </c>
       <c r="G2" t="n">
-        <v>161.6661224365234</v>
+        <v>387.4478759765625</v>
       </c>
       <c r="H2" t="n">
-        <v>161.6852722167969</v>
+        <v>388.7813110351562</v>
       </c>
       <c r="I2" t="n">
-        <v>161.7301177978516</v>
+        <v>389.6377868652344</v>
       </c>
       <c r="J2" t="n">
-        <v>161.7665710449219</v>
+        <v>390.31494140625</v>
       </c>
       <c r="K2" t="n">
-        <v>161.7931365966797</v>
+        <v>390.3227233886719</v>
       </c>
       <c r="L2" t="n">
-        <v>161.8647613525391</v>
+        <v>389.73828125</v>
       </c>
       <c r="M2" t="n">
-        <v>161.9561767578125</v>
+        <v>385.1681213378906</v>
       </c>
       <c r="N2" t="n">
-        <v>162.0392456054688</v>
+        <v>376.7803955078125</v>
       </c>
       <c r="O2" t="n">
-        <v>162.0687713623047</v>
+        <v>369.8812866210938</v>
       </c>
       <c r="P2" t="n">
-        <v>162.0044708251953</v>
+        <v>367.4986572265625</v>
       </c>
       <c r="Q2" t="n">
-        <v>161.7895812988281</v>
+        <v>366.7404479980469</v>
       </c>
       <c r="R2" t="n">
-        <v>160.6919097900391</v>
+        <v>364.7130737304688</v>
       </c>
       <c r="S2" t="n">
-        <v>159.2850952148438</v>
+        <v>362.8386840820312</v>
       </c>
       <c r="T2" t="n">
-        <v>160.0207366943359</v>
+        <v>362.0198364257812</v>
       </c>
       <c r="U2" t="n">
-        <v>160.6338653564453</v>
+        <v>360.576416015625</v>
       </c>
       <c r="V2" t="n">
-        <v>160.6963806152344</v>
+        <v>357.8338623046875</v>
       </c>
       <c r="W2" t="n">
-        <v>162.5937194824219</v>
+        <v>355.1725769042969</v>
       </c>
       <c r="X2" t="n">
-        <v>163.3037567138672</v>
+        <v>352.2048645019531</v>
       </c>
       <c r="Y2" t="n">
-        <v>164.2163696289062</v>
+        <v>349.7473449707031</v>
       </c>
       <c r="Z2" t="n">
-        <v>164.9013977050781</v>
+        <v>347.801025390625</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.9378509521484</v>
+        <v>345.2578430175781</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.7958831787109</v>
+        <v>343.7918090820312</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.0960540771484</v>
+        <v>345.124755859375</v>
       </c>
       <c r="AD2" t="n">
-        <v>115.0800170898438</v>
+        <v>345.5377807617188</v>
       </c>
       <c r="AE2" t="n">
-        <v>119.7036666870117</v>
+        <v>345.2203979492188</v>
       </c>
       <c r="AF2" t="n">
-        <v>118.3164901733398</v>
+        <v>344.6199035644531</v>
       </c>
       <c r="AG2" t="n">
-        <v>120.6548004150391</v>
+        <v>343.9102783203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>124.0287628173828</v>
+        <v>342.8762512207031</v>
       </c>
       <c r="AI2" t="n">
-        <v>135.1442260742188</v>
+        <v>342.5528564453125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>135.5283355712891</v>
+        <v>342.7664794921875</v>
       </c>
       <c r="AK2" t="n">
-        <v>136.8285980224609</v>
+        <v>342.4075317382812</v>
       </c>
       <c r="AL2" t="n">
-        <v>139.1410675048828</v>
+        <v>341.0667724609375</v>
       </c>
       <c r="AM2" t="n">
-        <v>141.2674102783203</v>
+        <v>339.4506225585938</v>
       </c>
       <c r="AN2" t="n">
-        <v>141.0721740722656</v>
+        <v>337.3616027832031</v>
       </c>
       <c r="AO2" t="n">
-        <v>144.1591949462891</v>
+        <v>335.1617126464844</v>
       </c>
       <c r="AP2" t="n">
-        <v>156.5953826904297</v>
+        <v>333.0664367675781</v>
       </c>
       <c r="AQ2" t="n">
-        <v>185.466064453125</v>
+        <v>332.2544555664062</v>
       </c>
       <c r="AR2" t="n">
-        <v>227.3420104980469</v>
+        <v>331.4803466796875</v>
       </c>
       <c r="AS2" t="n">
-        <v>231.4188842773438</v>
+        <v>330.5188598632812</v>
       </c>
       <c r="AT2" t="n">
-        <v>233.1183624267578</v>
+        <v>329.3388061523438</v>
       </c>
       <c r="AU2" t="n">
-        <v>234.1072692871094</v>
+        <v>324.4175415039062</v>
       </c>
       <c r="AV2" t="n">
-        <v>236.6026306152344</v>
+        <v>316.2744140625</v>
       </c>
       <c r="AW2" t="n">
-        <v>241.0646820068359</v>
+        <v>309.9025268554688</v>
       </c>
       <c r="AX2" t="n">
-        <v>248.1720581054688</v>
+        <v>304.5796203613281</v>
       </c>
       <c r="AY2" t="n">
-        <v>254.1970977783203</v>
+        <v>300.2720947265625</v>
       </c>
       <c r="AZ2" t="n">
-        <v>258.0844421386719</v>
+        <v>293.1831970214844</v>
       </c>
       <c r="BA2" t="n">
-        <v>259.5010986328125</v>
+        <v>285.4062805175781</v>
       </c>
       <c r="BB2" t="n">
-        <v>260.9970397949219</v>
+        <v>276.1669006347656</v>
       </c>
       <c r="BC2" t="n">
-        <v>263.7188720703125</v>
+        <v>267.3543395996094</v>
       </c>
       <c r="BD2" t="n">
-        <v>265.6237487792969</v>
+        <v>260.9283447265625</v>
       </c>
       <c r="BE2" t="n">
-        <v>268.1910400390625</v>
+        <v>254.9216613769531</v>
       </c>
       <c r="BF2" t="n">
-        <v>271.2568664550781</v>
+        <v>248.8700103759766</v>
       </c>
       <c r="BG2" t="n">
-        <v>275.0361633300781</v>
+        <v>244.5874633789062</v>
       </c>
       <c r="BH2" t="n">
-        <v>279.4405212402344</v>
+        <v>240.7324066162109</v>
       </c>
       <c r="BI2" t="n">
-        <v>288.0990905761719</v>
+        <v>237.2759704589844</v>
       </c>
       <c r="BJ2" t="n">
-        <v>292.4411926269531</v>
+        <v>235.1024475097656</v>
       </c>
       <c r="BK2" t="n">
-        <v>295.8296508789062</v>
+        <v>233.7511901855469</v>
       </c>
       <c r="BL2" t="n">
-        <v>297.767822265625</v>
+        <v>232.2728729248047</v>
       </c>
       <c r="BM2" t="n">
-        <v>299.3179626464844</v>
+        <v>229.3779144287109</v>
       </c>
       <c r="BN2" t="n">
-        <v>300.9923400878906</v>
+        <v>224.6777648925781</v>
       </c>
       <c r="BO2" t="n">
-        <v>302.8967590332031</v>
+        <v>218.7346496582031</v>
       </c>
       <c r="BP2" t="n">
-        <v>304.6771240234375</v>
+        <v>215.4552001953125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>305.3464965820312</v>
+        <v>213.2396087646484</v>
       </c>
       <c r="BR2" t="n">
-        <v>307.406494140625</v>
+        <v>210.8038635253906</v>
       </c>
       <c r="BS2" t="n">
-        <v>311.8800048828125</v>
+        <v>208.6524810791016</v>
       </c>
       <c r="BT2" t="n">
-        <v>317.2027893066406</v>
+        <v>206.4927368164062</v>
       </c>
       <c r="BU2" t="n">
-        <v>321.7565307617188</v>
+        <v>204.8894958496094</v>
       </c>
       <c r="BV2" t="n">
-        <v>325.2376708984375</v>
+        <v>204.1382446289062</v>
       </c>
       <c r="BW2" t="n">
-        <v>329.4894409179688</v>
+        <v>203.6869659423828</v>
       </c>
       <c r="BX2" t="n">
-        <v>332.8815307617188</v>
+        <v>203.4126129150391</v>
       </c>
       <c r="BY2" t="n">
-        <v>343.0935363769531</v>
+        <v>203.082763671875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>344.1411743164062</v>
+        <v>203.119384765625</v>
       </c>
       <c r="CA2" t="n">
-        <v>343.3316040039062</v>
+        <v>203.2502593994141</v>
       </c>
       <c r="CB2" t="n">
-        <v>343.2766723632812</v>
+        <v>203.4233856201172</v>
       </c>
       <c r="CC2" t="n">
-        <v>343.1370239257812</v>
+        <v>203.56396484375</v>
       </c>
       <c r="CD2" t="n">
-        <v>343.0468139648438</v>
+        <v>203.6393737792969</v>
       </c>
       <c r="CE2" t="n">
-        <v>343.0299072265625</v>
+        <v>203.72509765625</v>
       </c>
       <c r="CF2" t="n">
-        <v>342.9761962890625</v>
+        <v>203.8854675292969</v>
       </c>
       <c r="CG2" t="n">
-        <v>343.0357666015625</v>
+        <v>204.7693176269531</v>
       </c>
       <c r="CH2" t="n">
-        <v>344.0034484863281</v>
+        <v>206.1600494384766</v>
       </c>
       <c r="CI2" t="n">
-        <v>345.9006958007812</v>
+        <v>207.7449340820312</v>
       </c>
       <c r="CJ2" t="n">
-        <v>346.8941955566406</v>
+        <v>208.7564239501953</v>
       </c>
       <c r="CK2" t="n">
-        <v>347.3218994140625</v>
+        <v>209.317138671875</v>
       </c>
       <c r="CL2" t="n">
-        <v>347.7626342773438</v>
+        <v>209.9288787841797</v>
       </c>
       <c r="CM2" t="n">
-        <v>347.6066284179688</v>
+        <v>209.9020080566406</v>
       </c>
       <c r="CN2" t="n">
-        <v>347.5780944824219</v>
+        <v>209.8676910400391</v>
       </c>
       <c r="CO2" t="n">
-        <v>347.8357543945312</v>
+        <v>209.8069763183594</v>
       </c>
       <c r="CP2" t="n">
-        <v>347.255615234375</v>
+        <v>209.7465667724609</v>
       </c>
       <c r="CQ2" t="n">
-        <v>345.3882446289062</v>
+        <v>209.7310791015625</v>
       </c>
       <c r="CR2" t="n">
-        <v>341.7899780273438</v>
+        <v>209.6926574707031</v>
       </c>
       <c r="CS2" t="n">
-        <v>342.6408081054688</v>
+        <v>209.6186218261719</v>
       </c>
       <c r="CT2" t="n">
-        <v>342.3671875</v>
+        <v>209.1406097412109</v>
       </c>
       <c r="CU2" t="n">
-        <v>341.9993591308594</v>
+        <v>208.1238403320312</v>
       </c>
       <c r="CV2" t="n">
-        <v>340.4959106445312</v>
+        <v>206.7906951904297</v>
       </c>
       <c r="CW2" t="n">
-        <v>338.1644897460938</v>
+        <v>205.9790344238281</v>
       </c>
       <c r="CX2" t="n">
-        <v>339.0044860839844</v>
+        <v>206.1161499023438</v>
       </c>
       <c r="CY2" t="n">
-        <v>336.8868408203125</v>
+        <v>206.435546875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>337.0178833007812</v>
+        <v>206.7924499511719</v>
       </c>
       <c r="DA2" t="n">
-        <v>336.9378051757812</v>
+        <v>207.1194305419922</v>
       </c>
       <c r="DB2" t="n">
-        <v>335.9057006835938</v>
+        <v>207.4680938720703</v>
       </c>
       <c r="DC2" t="n">
-        <v>335.3113403320312</v>
+        <v>207.8337860107422</v>
       </c>
       <c r="DD2" t="n">
-        <v>333.8924560546875</v>
+        <v>208.4995727539062</v>
       </c>
       <c r="DE2" t="n">
-        <v>331.48095703125</v>
+        <v>210.3660888671875</v>
       </c>
       <c r="DF2" t="n">
-        <v>333.2056274414062</v>
+        <v>213.6175689697266</v>
       </c>
       <c r="DG2" t="n">
-        <v>332.7672729492188</v>
+        <v>227.5627746582031</v>
       </c>
       <c r="DH2" t="n">
-        <v>331.4091186523438</v>
+        <v>228.6713562011719</v>
       </c>
       <c r="DI2" t="n">
-        <v>331.4748840332031</v>
+        <v>220.9783172607422</v>
       </c>
       <c r="DJ2" t="n">
-        <v>331.5439147949219</v>
+        <v>333.6752014160156</v>
       </c>
       <c r="DK2" t="n">
-        <v>331.3867492675781</v>
+        <v>336.3068237304688</v>
       </c>
       <c r="DL2" t="n">
-        <v>331.1251220703125</v>
+        <v>357.96533203125</v>
       </c>
       <c r="DM2" t="n">
-        <v>330.8749389648438</v>
+        <v>258.3711853027344</v>
       </c>
       <c r="DN2" t="n">
-        <v>330.87890625</v>
+        <v>265.3186340332031</v>
       </c>
       <c r="DO2" t="n">
-        <v>330.8084106445312</v>
+        <v>272.0618286132812</v>
       </c>
       <c r="DP2" t="n">
-        <v>330.7037963867188</v>
+        <v>289.5776672363281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>330.705810546875</v>
+        <v>299.3517456054688</v>
       </c>
       <c r="DR2" t="n">
-        <v>330.76513671875</v>
+        <v>307.8858642578125</v>
       </c>
       <c r="DS2" t="n">
-        <v>330.8806762695312</v>
+        <v>321.1701049804688</v>
       </c>
       <c r="DT2" t="n">
-        <v>330.8834228515625</v>
+        <v>326.9513244628906</v>
       </c>
       <c r="DU2" t="n">
-        <v>330.8944091796875</v>
+        <v>329.821533203125</v>
       </c>
       <c r="DV2" t="n">
-        <v>330.9598388671875</v>
+        <v>305.7430419921875</v>
       </c>
       <c r="DW2" t="n">
-        <v>331.443115234375</v>
+        <v>307.9129333496094</v>
       </c>
       <c r="DX2" t="n">
-        <v>332.3390502929688</v>
+        <v>310.2754821777344</v>
       </c>
       <c r="DY2" t="n">
-        <v>332.5211181640625</v>
+        <v>319.3948669433594</v>
       </c>
       <c r="DZ2" t="n">
-        <v>332.840087890625</v>
+        <v>332.0459594726562</v>
       </c>
       <c r="EA2" t="n">
-        <v>332.8937072753906</v>
+        <v>334.4550170898438</v>
       </c>
       <c r="EB2" t="n">
-        <v>332.9601745605469</v>
+        <v>340.4006652832031</v>
       </c>
       <c r="EC2" t="n">
-        <v>333.5200500488281</v>
+        <v>340.7731323242188</v>
       </c>
       <c r="ED2" t="n">
-        <v>334.4067077636719</v>
+        <v>338.437744140625</v>
       </c>
       <c r="EE2" t="n">
-        <v>336.7473754882812</v>
+        <v>335.9032897949219</v>
       </c>
       <c r="EF2" t="n">
-        <v>336.123779296875</v>
+        <v>333.4936218261719</v>
       </c>
       <c r="EG2" t="n">
-        <v>336.1731567382812</v>
+        <v>334.6130981445312</v>
       </c>
       <c r="EH2" t="n">
-        <v>336.1384887695312</v>
+        <v>334.52734375</v>
       </c>
       <c r="EI2" t="n">
-        <v>336.1988830566406</v>
+        <v>328.3993835449219</v>
       </c>
       <c r="EJ2" t="n">
-        <v>336.3244018554688</v>
+        <v>320.0067138671875</v>
       </c>
       <c r="EK2" t="n">
-        <v>336.4109497070312</v>
+        <v>318.9763793945312</v>
       </c>
       <c r="EL2" t="n">
-        <v>336.4395141601562</v>
+        <v>318.5800476074219</v>
       </c>
       <c r="EM2" t="n">
-        <v>336.163818359375</v>
+        <v>309.0949401855469</v>
       </c>
       <c r="EN2" t="n">
-        <v>335.5032958984375</v>
+        <v>295.811279296875</v>
       </c>
       <c r="EO2" t="n">
-        <v>335.3167114257812</v>
+        <v>284.5545043945312</v>
       </c>
       <c r="EP2" t="n">
-        <v>334.520263671875</v>
+        <v>282.027587890625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>334.2861328125</v>
+        <v>270.865966796875</v>
       </c>
       <c r="ER2" t="n">
-        <v>333.9202575683594</v>
+        <v>267.6181030273438</v>
       </c>
       <c r="ES2" t="n">
-        <v>333.9238891601562</v>
+        <v>272.7820739746094</v>
       </c>
       <c r="ET2" t="n">
-        <v>334.134765625</v>
+        <v>268.9582214355469</v>
       </c>
       <c r="EU2" t="n">
-        <v>334.2467651367188</v>
+        <v>267.8345947265625</v>
       </c>
       <c r="EV2" t="n">
-        <v>334.2284545898438</v>
+        <v>257.8836975097656</v>
       </c>
       <c r="EW2" t="n">
-        <v>334.361328125</v>
+        <v>225.4771575927734</v>
       </c>
       <c r="EX2" t="n">
-        <v>334.5427856445312</v>
+        <v>232.7968139648438</v>
       </c>
       <c r="EY2" t="n">
-        <v>334.9384765625</v>
+        <v>245.3696441650391</v>
       </c>
       <c r="EZ2" t="n">
-        <v>336.0615234375</v>
+        <v>248.5368499755859</v>
       </c>
       <c r="FA2" t="n">
-        <v>336.00537109375</v>
+        <v>253.5825805664062</v>
       </c>
       <c r="FB2" t="n">
-        <v>335.7666625976562</v>
+        <v>258.4305114746094</v>
       </c>
       <c r="FC2" t="n">
-        <v>335.8042907714844</v>
+        <v>262.824462890625</v>
       </c>
       <c r="FD2" t="n">
-        <v>335.6737976074219</v>
+        <v>266.9179382324219</v>
       </c>
       <c r="FE2" t="n">
-        <v>335.6816101074219</v>
+        <v>268.5350646972656</v>
       </c>
       <c r="FF2" t="n">
-        <v>335.3754272460938</v>
+        <v>276.4449768066406</v>
       </c>
       <c r="FG2" t="n">
-        <v>335.2879028320312</v>
+        <v>281.7203063964844</v>
       </c>
       <c r="FH2" t="n">
-        <v>335.2303466796875</v>
+        <v>295.6757507324219</v>
       </c>
       <c r="FI2" t="n">
-        <v>335.89599609375</v>
+        <v>302.7451171875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>335.8898315429688</v>
+        <v>315.5784606933594</v>
       </c>
       <c r="FK2" t="n">
-        <v>335.9399719238281</v>
+        <v>320.7476806640625</v>
       </c>
       <c r="FL2" t="n">
-        <v>335.9397888183594</v>
+        <v>340.95849609375</v>
       </c>
       <c r="FM2" t="n">
-        <v>336.0975341796875</v>
+        <v>351.4649658203125</v>
       </c>
       <c r="FN2" t="n">
-        <v>336.2743835449219</v>
+        <v>365.8363037109375</v>
       </c>
       <c r="FO2" t="n">
-        <v>336.4598999023438</v>
+        <v>383.2920837402344</v>
       </c>
       <c r="FP2" t="n">
-        <v>336.2177124023438</v>
+        <v>401.334228515625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>336.0130004882812</v>
+        <v>405.5311279296875</v>
       </c>
       <c r="FR2" t="n">
-        <v>336.144775390625</v>
+        <v>409.5791320800781</v>
       </c>
       <c r="FS2" t="n">
-        <v>336.1789245605469</v>
+        <v>403.0620727539062</v>
       </c>
       <c r="FT2" t="n">
-        <v>336.2080383300781</v>
+        <v>400.7916564941406</v>
       </c>
       <c r="FU2" t="n">
-        <v>335.2445983886719</v>
+        <v>398.1140441894531</v>
       </c>
       <c r="FV2" t="n">
-        <v>335.2846984863281</v>
+        <v>401.798583984375</v>
       </c>
       <c r="FW2" t="n">
-        <v>335.217529296875</v>
+        <v>412.568603515625</v>
       </c>
       <c r="FX2" t="n">
-        <v>335.5378723144531</v>
+        <v>414.7138977050781</v>
       </c>
       <c r="FY2" t="n">
-        <v>335.865966796875</v>
+        <v>414.5818786621094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>335.7386474609375</v>
+        <v>414.5822143554688</v>
       </c>
       <c r="GA2" t="n">
-        <v>335.8657531738281</v>
+        <v>415.6851806640625</v>
       </c>
       <c r="GB2" t="n">
-        <v>336.0452880859375</v>
+        <v>419.889892578125</v>
       </c>
       <c r="GC2" t="n">
-        <v>336.5368347167969</v>
+        <v>428.96630859375</v>
       </c>
       <c r="GD2" t="n">
-        <v>337.0221557617188</v>
+        <v>426.673583984375</v>
       </c>
       <c r="GE2" t="n">
-        <v>337.5574951171875</v>
+        <v>427.07373046875</v>
       </c>
       <c r="GF2" t="n">
-        <v>339.86962890625</v>
+        <v>422.0521850585938</v>
       </c>
       <c r="GG2" t="n">
-        <v>338.8486328125</v>
+        <v>395.8658142089844</v>
       </c>
       <c r="GH2" t="n">
-        <v>339.204345703125</v>
+        <v>408.3590698242188</v>
       </c>
       <c r="GI2" t="n">
-        <v>339.2890014648438</v>
+        <v>371.5261535644531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>339.0805358886719</v>
+        <v>381.8150634765625</v>
       </c>
       <c r="GK2" t="n">
-        <v>338.3223876953125</v>
+        <v>369.3554992675781</v>
       </c>
       <c r="GL2" t="n">
-        <v>337.7142639160156</v>
+        <v>356.8250122070312</v>
       </c>
       <c r="GM2" t="n">
-        <v>337.942138671875</v>
+        <v>334.1193237304688</v>
       </c>
       <c r="GN2" t="n">
-        <v>337.8424682617188</v>
+        <v>295.4503173828125</v>
       </c>
       <c r="GO2" t="n">
-        <v>337.900146484375</v>
+        <v>311.8379516601562</v>
       </c>
       <c r="GP2" t="n">
-        <v>337.9259643554688</v>
+        <v>299.68017578125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>337.9551696777344</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>337.971435546875</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>337.9948120117188</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>337.9468078613281</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>336.0533142089844</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>328.56201171875</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>328.5082397460938</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>328.8003234863281</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>328.7279663085938</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>328.9093627929688</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>328.5834350585938</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>328.4273071289062</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>325.2953491210938</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>320.0949096679688</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>322.1734313964844</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>319.1469116210938</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>313.2396850585938</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>314.4971618652344</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>319.0307312011719</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>314.7120666503906</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>302.827880859375</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>295.6176452636719</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>292.0007934570312</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>291.7560729980469</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>289.6230773925781</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>285.5969848632812</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>282.6209411621094</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>281.4182739257812</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>279.4054260253906</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>271.6617126464844</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>261.6543579101562</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>258.9428100585938</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>256.8036193847656</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>257.3017272949219</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>253.0216369628906</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>233.8893890380859</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>231.1502685546875</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>228.28076171875</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>228.1341400146484</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>227.3887329101562</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>242.7976684570312</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>261.0743408203125</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>233.7048034667969</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>237.4889526367188</v>
-      </c>
-      <c r="II2" t="n">
-        <v>235.6151123046875</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>228.7535400390625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>231.0664520263672</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>217.2464599609375</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>227.8876342773438</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>257.7684326171875</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>239.6607360839844</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>212.8090209960938</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>187.53369140625</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>200.0272216796875</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>182.732421875</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>135.6365203857422</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>110.5942230224609</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>121.9113616943359</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>99.71086120605469</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>85.74001312255859</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>94.74345397949219</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>132.6155700683594</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>145.2100067138672</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>183.5854187011719</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>165.1992492675781</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>205.3426818847656</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>229.7915802001953</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>228.9914245605469</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>244.9381713867188</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>248.0627593994141</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>230.2381591796875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>227.6608428955078</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>205.0775451660156</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>192.5207672119141</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>191.3050537109375</v>
+        <v>292.1475219726562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>591.3181762695312</v>
+        <v>563.7611694335938</v>
       </c>
       <c r="B3" t="n">
-        <v>591.5573120117188</v>
+        <v>554.1024169921875</v>
       </c>
       <c r="C3" t="n">
-        <v>591.5651245117188</v>
+        <v>551.1548461914062</v>
       </c>
       <c r="D3" t="n">
-        <v>591.5746459960938</v>
+        <v>548.8967895507812</v>
       </c>
       <c r="E3" t="n">
-        <v>591.57080078125</v>
+        <v>547.85205078125</v>
       </c>
       <c r="F3" t="n">
-        <v>591.5797119140625</v>
+        <v>545.9042358398438</v>
       </c>
       <c r="G3" t="n">
-        <v>591.586669921875</v>
+        <v>544.9508666992188</v>
       </c>
       <c r="H3" t="n">
-        <v>591.5925903320312</v>
+        <v>543.7943115234375</v>
       </c>
       <c r="I3" t="n">
-        <v>591.5987548828125</v>
+        <v>541.101318359375</v>
       </c>
       <c r="J3" t="n">
-        <v>591.6142578125</v>
+        <v>537.9383544921875</v>
       </c>
       <c r="K3" t="n">
-        <v>591.6572265625</v>
+        <v>533.2493286132812</v>
       </c>
       <c r="L3" t="n">
-        <v>591.7069091796875</v>
+        <v>528.1334838867188</v>
       </c>
       <c r="M3" t="n">
-        <v>591.7533569335938</v>
+        <v>518.68505859375</v>
       </c>
       <c r="N3" t="n">
-        <v>591.8204345703125</v>
+        <v>510.0382080078125</v>
       </c>
       <c r="O3" t="n">
-        <v>591.8876342773438</v>
+        <v>501.3097534179688</v>
       </c>
       <c r="P3" t="n">
-        <v>591.63427734375</v>
+        <v>493.6276245117188</v>
       </c>
       <c r="Q3" t="n">
-        <v>591.0731811523438</v>
+        <v>488.9585571289062</v>
       </c>
       <c r="R3" t="n">
-        <v>587.7256469726562</v>
+        <v>480.153076171875</v>
       </c>
       <c r="S3" t="n">
-        <v>581.2431640625</v>
+        <v>473.0345764160156</v>
       </c>
       <c r="T3" t="n">
-        <v>589.8204956054688</v>
+        <v>467.9034118652344</v>
       </c>
       <c r="U3" t="n">
-        <v>602.7023315429688</v>
+        <v>463.9781799316406</v>
       </c>
       <c r="V3" t="n">
-        <v>608.8312377929688</v>
+        <v>459.9883117675781</v>
       </c>
       <c r="W3" t="n">
-        <v>619.0748901367188</v>
+        <v>457.5516967773438</v>
       </c>
       <c r="X3" t="n">
-        <v>625.84521484375</v>
+        <v>453.2532348632812</v>
       </c>
       <c r="Y3" t="n">
-        <v>630.2003173828125</v>
+        <v>449.2562255859375</v>
       </c>
       <c r="Z3" t="n">
-        <v>628.1796875</v>
+        <v>446.8691101074219</v>
       </c>
       <c r="AA3" t="n">
-        <v>628.0208129882812</v>
+        <v>445.1372985839844</v>
       </c>
       <c r="AB3" t="n">
-        <v>627.6947021484375</v>
+        <v>446.22900390625</v>
       </c>
       <c r="AC3" t="n">
-        <v>624.1116333007812</v>
+        <v>453.8740844726562</v>
       </c>
       <c r="AD3" t="n">
-        <v>396.8634948730469</v>
+        <v>458.2391357421875</v>
       </c>
       <c r="AE3" t="n">
-        <v>392.2589111328125</v>
+        <v>459.3153076171875</v>
       </c>
       <c r="AF3" t="n">
-        <v>390.6983947753906</v>
+        <v>459.8362121582031</v>
       </c>
       <c r="AG3" t="n">
-        <v>389.0263977050781</v>
+        <v>459.8965148925781</v>
       </c>
       <c r="AH3" t="n">
-        <v>386.9738159179688</v>
+        <v>458.3951416015625</v>
       </c>
       <c r="AI3" t="n">
-        <v>383.7884216308594</v>
+        <v>458.1212768554688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>383.3786315917969</v>
+        <v>458.7987976074219</v>
       </c>
       <c r="AK3" t="n">
-        <v>383.6424560546875</v>
+        <v>458.9290466308594</v>
       </c>
       <c r="AL3" t="n">
-        <v>385.7737121582031</v>
+        <v>458.7773132324219</v>
       </c>
       <c r="AM3" t="n">
-        <v>389.6541748046875</v>
+        <v>459.7395629882812</v>
       </c>
       <c r="AN3" t="n">
-        <v>403.8681030273438</v>
+        <v>459.6507873535156</v>
       </c>
       <c r="AO3" t="n">
-        <v>414.8680725097656</v>
+        <v>456.9655456542969</v>
       </c>
       <c r="AP3" t="n">
-        <v>414.0055236816406</v>
+        <v>453.1653137207031</v>
       </c>
       <c r="AQ3" t="n">
-        <v>403.0086975097656</v>
+        <v>451.6070251464844</v>
       </c>
       <c r="AR3" t="n">
-        <v>509.017822265625</v>
+        <v>450.2009887695312</v>
       </c>
       <c r="AS3" t="n">
-        <v>513.9439697265625</v>
+        <v>450.4470825195312</v>
       </c>
       <c r="AT3" t="n">
-        <v>527.000244140625</v>
+        <v>451.3884887695312</v>
       </c>
       <c r="AU3" t="n">
-        <v>538.6423950195312</v>
+        <v>454.2290954589844</v>
       </c>
       <c r="AV3" t="n">
-        <v>544.4212646484375</v>
+        <v>458.271728515625</v>
       </c>
       <c r="AW3" t="n">
-        <v>542.0657958984375</v>
+        <v>461.1502075195312</v>
       </c>
       <c r="AX3" t="n">
-        <v>540.77001953125</v>
+        <v>462.3970336914062</v>
       </c>
       <c r="AY3" t="n">
-        <v>536.712890625</v>
+        <v>465.7118225097656</v>
       </c>
       <c r="AZ3" t="n">
-        <v>531.385009765625</v>
+        <v>465.9118041992188</v>
       </c>
       <c r="BA3" t="n">
-        <v>522.0684204101562</v>
+        <v>464.0363464355469</v>
       </c>
       <c r="BB3" t="n">
-        <v>513.2466430664062</v>
+        <v>463.6571655273438</v>
       </c>
       <c r="BC3" t="n">
-        <v>510.9076843261719</v>
+        <v>465.3999328613281</v>
       </c>
       <c r="BD3" t="n">
-        <v>504.7960205078125</v>
+        <v>466.900390625</v>
       </c>
       <c r="BE3" t="n">
-        <v>499.0825805664062</v>
+        <v>467.7516479492188</v>
       </c>
       <c r="BF3" t="n">
-        <v>492.0797424316406</v>
+        <v>466.4954833984375</v>
       </c>
       <c r="BG3" t="n">
-        <v>491.470703125</v>
+        <v>462.8616638183594</v>
       </c>
       <c r="BH3" t="n">
-        <v>491.2574462890625</v>
+        <v>460.5652160644531</v>
       </c>
       <c r="BI3" t="n">
-        <v>489.8898010253906</v>
+        <v>460.4909362792969</v>
       </c>
       <c r="BJ3" t="n">
-        <v>486.5285034179688</v>
+        <v>461.47412109375</v>
       </c>
       <c r="BK3" t="n">
-        <v>483.1419067382812</v>
+        <v>462.8526000976562</v>
       </c>
       <c r="BL3" t="n">
-        <v>480.9071655273438</v>
+        <v>464.3592834472656</v>
       </c>
       <c r="BM3" t="n">
-        <v>480.7233276367188</v>
+        <v>466.3508911132812</v>
       </c>
       <c r="BN3" t="n">
-        <v>480.1585693359375</v>
+        <v>467.3283996582031</v>
       </c>
       <c r="BO3" t="n">
-        <v>482.2012634277344</v>
+        <v>466.04248046875</v>
       </c>
       <c r="BP3" t="n">
-        <v>481.2856750488281</v>
+        <v>465.612060546875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>476.9572448730469</v>
+        <v>465.2763671875</v>
       </c>
       <c r="BR3" t="n">
-        <v>473.8074645996094</v>
+        <v>464.9179382324219</v>
       </c>
       <c r="BS3" t="n">
-        <v>473.2836303710938</v>
+        <v>464.7756958007812</v>
       </c>
       <c r="BT3" t="n">
-        <v>475.4501953125</v>
+        <v>464.5458374023438</v>
       </c>
       <c r="BU3" t="n">
-        <v>473.5620422363281</v>
+        <v>464.6993408203125</v>
       </c>
       <c r="BV3" t="n">
-        <v>469.2611694335938</v>
+        <v>464.9404296875</v>
       </c>
       <c r="BW3" t="n">
-        <v>465.3598327636719</v>
+        <v>464.9607238769531</v>
       </c>
       <c r="BX3" t="n">
-        <v>463.7416381835938</v>
+        <v>464.7982177734375</v>
       </c>
       <c r="BY3" t="n">
-        <v>473.9771118164062</v>
+        <v>464.6273498535156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>469.3243103027344</v>
+        <v>464.4902954101562</v>
       </c>
       <c r="CA3" t="n">
-        <v>462.7813720703125</v>
+        <v>464.3028869628906</v>
       </c>
       <c r="CB3" t="n">
-        <v>460.7806701660156</v>
+        <v>464.0970764160156</v>
       </c>
       <c r="CC3" t="n">
-        <v>456.1773071289062</v>
+        <v>463.9788513183594</v>
       </c>
       <c r="CD3" t="n">
-        <v>452.0221862792969</v>
+        <v>464.0516052246094</v>
       </c>
       <c r="CE3" t="n">
-        <v>448.7947387695312</v>
+        <v>464.1264038085938</v>
       </c>
       <c r="CF3" t="n">
-        <v>447.0968322753906</v>
+        <v>464.224609375</v>
       </c>
       <c r="CG3" t="n">
-        <v>446.9685668945312</v>
+        <v>463.9725341796875</v>
       </c>
       <c r="CH3" t="n">
-        <v>446.517333984375</v>
+        <v>463.6331481933594</v>
       </c>
       <c r="CI3" t="n">
-        <v>446.9905395507812</v>
+        <v>463.2916564941406</v>
       </c>
       <c r="CJ3" t="n">
-        <v>446.6955261230469</v>
+        <v>463.3921203613281</v>
       </c>
       <c r="CK3" t="n">
-        <v>446.7852172851562</v>
+        <v>463.7602844238281</v>
       </c>
       <c r="CL3" t="n">
-        <v>449.7281799316406</v>
+        <v>464.5210571289062</v>
       </c>
       <c r="CM3" t="n">
-        <v>451.24951171875</v>
+        <v>464.5504455566406</v>
       </c>
       <c r="CN3" t="n">
-        <v>453.3879699707031</v>
+        <v>464.5191345214844</v>
       </c>
       <c r="CO3" t="n">
-        <v>455.3241882324219</v>
+        <v>464.5364685058594</v>
       </c>
       <c r="CP3" t="n">
-        <v>456.1716918945312</v>
+        <v>464.578369140625</v>
       </c>
       <c r="CQ3" t="n">
-        <v>455.6598205566406</v>
+        <v>464.6824035644531</v>
       </c>
       <c r="CR3" t="n">
-        <v>455.0774841308594</v>
+        <v>464.7743225097656</v>
       </c>
       <c r="CS3" t="n">
-        <v>455.376220703125</v>
+        <v>464.7713012695312</v>
       </c>
       <c r="CT3" t="n">
-        <v>455.4187316894531</v>
+        <v>464.9393310546875</v>
       </c>
       <c r="CU3" t="n">
-        <v>455.0138244628906</v>
+        <v>465.3687438964844</v>
       </c>
       <c r="CV3" t="n">
-        <v>452.3297119140625</v>
+        <v>465.9988098144531</v>
       </c>
       <c r="CW3" t="n">
-        <v>449.7216491699219</v>
+        <v>466.4900512695312</v>
       </c>
       <c r="CX3" t="n">
-        <v>449.5664672851562</v>
+        <v>466.5423278808594</v>
       </c>
       <c r="CY3" t="n">
-        <v>447.6463623046875</v>
+        <v>466.4464416503906</v>
       </c>
       <c r="CZ3" t="n">
-        <v>446.995361328125</v>
+        <v>466.5197448730469</v>
       </c>
       <c r="DA3" t="n">
-        <v>446.8153381347656</v>
+        <v>466.5509948730469</v>
       </c>
       <c r="DB3" t="n">
-        <v>446.147216796875</v>
+        <v>466.4244689941406</v>
       </c>
       <c r="DC3" t="n">
-        <v>446.7815246582031</v>
+        <v>466.2191467285156</v>
       </c>
       <c r="DD3" t="n">
-        <v>445.6826171875</v>
+        <v>466.1400451660156</v>
       </c>
       <c r="DE3" t="n">
-        <v>444.8089599609375</v>
+        <v>465.6245422363281</v>
       </c>
       <c r="DF3" t="n">
-        <v>443.6550598144531</v>
+        <v>464.4961853027344</v>
       </c>
       <c r="DG3" t="n">
-        <v>442.8955078125</v>
+        <v>480.6151733398438</v>
       </c>
       <c r="DH3" t="n">
-        <v>441.7860412597656</v>
+        <v>480.3366394042969</v>
       </c>
       <c r="DI3" t="n">
-        <v>441.1861267089844</v>
+        <v>483.0053405761719</v>
       </c>
       <c r="DJ3" t="n">
-        <v>441.0721740722656</v>
+        <v>427.1329956054688</v>
       </c>
       <c r="DK3" t="n">
-        <v>440.9979248046875</v>
+        <v>435.1038513183594</v>
       </c>
       <c r="DL3" t="n">
-        <v>440.9341735839844</v>
+        <v>438.5695190429688</v>
       </c>
       <c r="DM3" t="n">
-        <v>440.9028625488281</v>
+        <v>477.6609497070312</v>
       </c>
       <c r="DN3" t="n">
-        <v>440.5192565917969</v>
+        <v>478.1655578613281</v>
       </c>
       <c r="DO3" t="n">
-        <v>439.9723815917969</v>
+        <v>478.3706359863281</v>
       </c>
       <c r="DP3" t="n">
-        <v>439.6851501464844</v>
+        <v>476.1188659667969</v>
       </c>
       <c r="DQ3" t="n">
-        <v>439.4779357910156</v>
+        <v>475.9779052734375</v>
       </c>
       <c r="DR3" t="n">
-        <v>439.4449768066406</v>
+        <v>475.7887878417969</v>
       </c>
       <c r="DS3" t="n">
-        <v>439.542724609375</v>
+        <v>475.43408203125</v>
       </c>
       <c r="DT3" t="n">
-        <v>439.8338928222656</v>
+        <v>474.4712524414062</v>
       </c>
       <c r="DU3" t="n">
-        <v>440.1670837402344</v>
+        <v>472.3699035644531</v>
       </c>
       <c r="DV3" t="n">
-        <v>440.4439392089844</v>
+        <v>482.08642578125</v>
       </c>
       <c r="DW3" t="n">
-        <v>441.8731994628906</v>
+        <v>474.4956359863281</v>
       </c>
       <c r="DX3" t="n">
-        <v>443.978759765625</v>
+        <v>474.8037719726562</v>
       </c>
       <c r="DY3" t="n">
-        <v>444.827392578125</v>
+        <v>476.9158325195312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>445.0888061523438</v>
+        <v>478.2689208984375</v>
       </c>
       <c r="EA3" t="n">
-        <v>446.1491088867188</v>
+        <v>478.5988159179688</v>
       </c>
       <c r="EB3" t="n">
-        <v>446.8083801269531</v>
+        <v>480.2978820800781</v>
       </c>
       <c r="EC3" t="n">
-        <v>447.5992126464844</v>
+        <v>480.945556640625</v>
       </c>
       <c r="ED3" t="n">
-        <v>447.8062438964844</v>
+        <v>481.2083740234375</v>
       </c>
       <c r="EE3" t="n">
-        <v>448.5670776367188</v>
+        <v>481.7392272949219</v>
       </c>
       <c r="EF3" t="n">
-        <v>449.6312866210938</v>
+        <v>482.803466796875</v>
       </c>
       <c r="EG3" t="n">
-        <v>450.2687072753906</v>
+        <v>484.3471069335938</v>
       </c>
       <c r="EH3" t="n">
-        <v>450.399169921875</v>
+        <v>484.107177734375</v>
       </c>
       <c r="EI3" t="n">
-        <v>450.6108093261719</v>
+        <v>483.6059265136719</v>
       </c>
       <c r="EJ3" t="n">
-        <v>450.7277526855469</v>
+        <v>483.7044982910156</v>
       </c>
       <c r="EK3" t="n">
-        <v>451.0553588867188</v>
+        <v>486.3843688964844</v>
       </c>
       <c r="EL3" t="n">
-        <v>451.1884765625</v>
+        <v>488.8815307617188</v>
       </c>
       <c r="EM3" t="n">
-        <v>451.328857421875</v>
+        <v>497.3634338378906</v>
       </c>
       <c r="EN3" t="n">
-        <v>451.5938415527344</v>
+        <v>499.987060546875</v>
       </c>
       <c r="EO3" t="n">
-        <v>451.6595153808594</v>
+        <v>510.6991882324219</v>
       </c>
       <c r="EP3" t="n">
-        <v>451.2663269042969</v>
+        <v>515.9637451171875</v>
       </c>
       <c r="EQ3" t="n">
-        <v>450.7485961914062</v>
+        <v>525.0653686523438</v>
       </c>
       <c r="ER3" t="n">
-        <v>449.8696899414062</v>
+        <v>526.3455810546875</v>
       </c>
       <c r="ES3" t="n">
-        <v>450.14990234375</v>
+        <v>529.439697265625</v>
       </c>
       <c r="ET3" t="n">
-        <v>450.4907531738281</v>
+        <v>532.3580322265625</v>
       </c>
       <c r="EU3" t="n">
-        <v>450.7826843261719</v>
+        <v>531.9155883789062</v>
       </c>
       <c r="EV3" t="n">
-        <v>450.788330078125</v>
+        <v>527.90966796875</v>
       </c>
       <c r="EW3" t="n">
-        <v>450.82421875</v>
+        <v>535.744140625</v>
       </c>
       <c r="EX3" t="n">
-        <v>450.673095703125</v>
+        <v>538.33349609375</v>
       </c>
       <c r="EY3" t="n">
-        <v>450.6210327148438</v>
+        <v>536.8092651367188</v>
       </c>
       <c r="EZ3" t="n">
-        <v>450.5212707519531</v>
+        <v>533.2630615234375</v>
       </c>
       <c r="FA3" t="n">
-        <v>450.5740966796875</v>
+        <v>544.3056030273438</v>
       </c>
       <c r="FB3" t="n">
-        <v>450.5716247558594</v>
+        <v>549.6535034179688</v>
       </c>
       <c r="FC3" t="n">
-        <v>450.5357971191406</v>
+        <v>553.063232421875</v>
       </c>
       <c r="FD3" t="n">
-        <v>450.4944763183594</v>
+        <v>561.7023315429688</v>
       </c>
       <c r="FE3" t="n">
-        <v>450.5708618164062</v>
+        <v>567.717529296875</v>
       </c>
       <c r="FF3" t="n">
-        <v>450.6571960449219</v>
+        <v>570.8165283203125</v>
       </c>
       <c r="FG3" t="n">
-        <v>450.6651916503906</v>
+        <v>573.2164306640625</v>
       </c>
       <c r="FH3" t="n">
-        <v>450.6088562011719</v>
+        <v>577.5706176757812</v>
       </c>
       <c r="FI3" t="n">
-        <v>450.3951721191406</v>
+        <v>580.017578125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>450.5177001953125</v>
+        <v>587.3984375</v>
       </c>
       <c r="FK3" t="n">
-        <v>450.70947265625</v>
+        <v>602.2938842773438</v>
       </c>
       <c r="FL3" t="n">
-        <v>450.606201171875</v>
+        <v>635.6650390625</v>
       </c>
       <c r="FM3" t="n">
-        <v>450.6514587402344</v>
+        <v>632.9055786132812</v>
       </c>
       <c r="FN3" t="n">
-        <v>450.7052307128906</v>
+        <v>639.9478149414062</v>
       </c>
       <c r="FO3" t="n">
-        <v>450.7521057128906</v>
+        <v>658.5148315429688</v>
       </c>
       <c r="FP3" t="n">
-        <v>450.7768249511719</v>
+        <v>687.17822265625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>450.9443664550781</v>
+        <v>697.46044921875</v>
       </c>
       <c r="FR3" t="n">
-        <v>451.1777954101562</v>
+        <v>700.3451538085938</v>
       </c>
       <c r="FS3" t="n">
-        <v>452.4793395996094</v>
+        <v>672.6260375976562</v>
       </c>
       <c r="FT3" t="n">
-        <v>452.9775085449219</v>
+        <v>651.88134765625</v>
       </c>
       <c r="FU3" t="n">
-        <v>453.7111511230469</v>
+        <v>647.5625610351562</v>
       </c>
       <c r="FV3" t="n">
-        <v>453.6680297851562</v>
+        <v>657.453857421875</v>
       </c>
       <c r="FW3" t="n">
-        <v>453.5534057617188</v>
+        <v>659.8956909179688</v>
       </c>
       <c r="FX3" t="n">
-        <v>453.5125732421875</v>
+        <v>665.4901123046875</v>
       </c>
       <c r="FY3" t="n">
-        <v>453.4850769042969</v>
+        <v>667.63037109375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>453.4734191894531</v>
+        <v>668.4482421875</v>
       </c>
       <c r="GA3" t="n">
-        <v>453.8446960449219</v>
+        <v>674.4508666992188</v>
       </c>
       <c r="GB3" t="n">
-        <v>454.1878051757812</v>
+        <v>671.46875</v>
       </c>
       <c r="GC3" t="n">
-        <v>454.19482421875</v>
+        <v>692.952392578125</v>
       </c>
       <c r="GD3" t="n">
-        <v>455.2796936035156</v>
+        <v>663.0706787109375</v>
       </c>
       <c r="GE3" t="n">
-        <v>455.359619140625</v>
+        <v>685.8851318359375</v>
       </c>
       <c r="GF3" t="n">
-        <v>454.463134765625</v>
+        <v>700.7444458007812</v>
       </c>
       <c r="GG3" t="n">
-        <v>453.7447509765625</v>
+        <v>708.17626953125</v>
       </c>
       <c r="GH3" t="n">
-        <v>453.6645812988281</v>
+        <v>798.6594848632812</v>
       </c>
       <c r="GI3" t="n">
-        <v>453.2656860351562</v>
+        <v>783.443359375</v>
       </c>
       <c r="GJ3" t="n">
-        <v>453.1426391601562</v>
+        <v>767.00048828125</v>
       </c>
       <c r="GK3" t="n">
-        <v>452.1298522949219</v>
+        <v>838.0439453125</v>
       </c>
       <c r="GL3" t="n">
-        <v>451.7326965332031</v>
+        <v>829.2994384765625</v>
       </c>
       <c r="GM3" t="n">
-        <v>452.0294799804688</v>
+        <v>847.2186889648438</v>
       </c>
       <c r="GN3" t="n">
-        <v>452.3263549804688</v>
+        <v>820.516845703125</v>
       </c>
       <c r="GO3" t="n">
-        <v>452.5774230957031</v>
+        <v>809.3653564453125</v>
       </c>
       <c r="GP3" t="n">
-        <v>452.3989562988281</v>
+        <v>864.356201171875</v>
       </c>
       <c r="GQ3" t="n">
-        <v>452.381103515625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>452.3021240234375</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>452.3475036621094</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>452.6817321777344</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>453.6718139648438</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>451.8220825195312</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>451.3882446289062</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>452.0549621582031</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>452.2929077148438</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>450.4872131347656</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>448.0570983886719</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>443.6448974609375</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>448.5640563964844</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>447.3116149902344</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>448.6891784667969</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>452.0193786621094</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>459.0744323730469</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>466.3034362792969</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>467.0217895507812</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>465.4222106933594</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>465.76171875</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>470.1202697753906</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>478.2922973632812</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>481.9497985839844</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>487.8958435058594</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>490.4742126464844</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>495.0936584472656</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>499.64013671875</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>506.8499450683594</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>514.718017578125</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>524.9480590820312</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>531.11474609375</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>539.411376953125</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>539.12548828125</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>541.1663208007812</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>547.8219604492188</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>558.9671630859375</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>565.283935546875</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>561.5230712890625</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>568.2518310546875</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>584.6854858398438</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>595.2890014648438</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>574.1306762695312</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>593.083251953125</v>
-      </c>
-      <c r="II3" t="n">
-        <v>598.8138427734375</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>630.7796630859375</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>754.1995849609375</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>809.3570556640625</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>871.0614013671875</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1099.705444335938</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>1049.975708007812</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1034.759155273438</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1043.026489257812</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>997.0728149414062</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>1054.367553710938</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>931.7001953125</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>863.5089111328125</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>783.6677856445312</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>805.2116088867188</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>713.401123046875</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>686.5507202148438</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>784.7129516601562</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>855.27978515625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>834.9197998046875</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>806.44482421875</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>787.8921508789062</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>754.8917236328125</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>760.7870483398438</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>757.796142578125</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>766.2171630859375</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>739.4219360351562</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>773.522705078125</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>795.4317016601562</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>812.1640625</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>811.6093139648438</v>
+        <v>852.424560546875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>854.8055419921875</v>
+        <v>1181.891967773438</v>
       </c>
       <c r="B4" t="n">
-        <v>854.2422485351562</v>
+        <v>1190.514770507812</v>
       </c>
       <c r="C4" t="n">
-        <v>854.158447265625</v>
+        <v>1201.87841796875</v>
       </c>
       <c r="D4" t="n">
-        <v>854.1737060546875</v>
+        <v>1209.5673828125</v>
       </c>
       <c r="E4" t="n">
-        <v>854.1723022460938</v>
+        <v>1214.3017578125</v>
       </c>
       <c r="F4" t="n">
-        <v>854.1680297851562</v>
+        <v>1221.083740234375</v>
       </c>
       <c r="G4" t="n">
-        <v>854.1641845703125</v>
+        <v>1221.199340820312</v>
       </c>
       <c r="H4" t="n">
-        <v>854.14990234375</v>
+        <v>1221.575317382812</v>
       </c>
       <c r="I4" t="n">
-        <v>854.1000366210938</v>
+        <v>1220.666748046875</v>
       </c>
       <c r="J4" t="n">
-        <v>854.0321044921875</v>
+        <v>1220.57421875</v>
       </c>
       <c r="K4" t="n">
-        <v>853.899169921875</v>
+        <v>1221.8017578125</v>
       </c>
       <c r="L4" t="n">
-        <v>853.7228393554688</v>
+        <v>1226.209228515625</v>
       </c>
       <c r="M4" t="n">
-        <v>853.5350341796875</v>
+        <v>1244.287109375</v>
       </c>
       <c r="N4" t="n">
-        <v>853.3018188476562</v>
+        <v>1264.763916015625</v>
       </c>
       <c r="O4" t="n">
-        <v>852.97802734375</v>
+        <v>1281.216186523438</v>
       </c>
       <c r="P4" t="n">
-        <v>852.7084350585938</v>
+        <v>1294.372314453125</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.2870483398438</v>
+        <v>1303.100708007812</v>
       </c>
       <c r="R4" t="n">
-        <v>851.6790771484375</v>
+        <v>1314.431884765625</v>
       </c>
       <c r="S4" t="n">
-        <v>850.692138671875</v>
+        <v>1314.113891601562</v>
       </c>
       <c r="T4" t="n">
-        <v>846.050537109375</v>
+        <v>1315.7646484375</v>
       </c>
       <c r="U4" t="n">
-        <v>833.31689453125</v>
+        <v>1317.512329101562</v>
       </c>
       <c r="V4" t="n">
-        <v>829.7238159179688</v>
+        <v>1319.939331054688</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3683471679688</v>
+        <v>1324.1669921875</v>
       </c>
       <c r="X4" t="n">
-        <v>828.6441650390625</v>
+        <v>1335.727172851562</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.4370727539062</v>
+        <v>1350.0888671875</v>
       </c>
       <c r="Z4" t="n">
-        <v>828.2603149414062</v>
+        <v>1362.977661132812</v>
       </c>
       <c r="AA4" t="n">
-        <v>828.4827880859375</v>
+        <v>1375.032592773438</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.2947998046875</v>
+        <v>1381.048828125</v>
       </c>
       <c r="AC4" t="n">
-        <v>842.3536987304688</v>
+        <v>1361.907104492188</v>
       </c>
       <c r="AD4" t="n">
-        <v>473.6216125488281</v>
+        <v>1340.829467773438</v>
       </c>
       <c r="AE4" t="n">
-        <v>484.6275024414062</v>
+        <v>1332.93896484375</v>
       </c>
       <c r="AF4" t="n">
-        <v>481.6233520507812</v>
+        <v>1324.651245117188</v>
       </c>
       <c r="AG4" t="n">
-        <v>490.2528991699219</v>
+        <v>1317.11328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>500.5049133300781</v>
+        <v>1315.56201171875</v>
       </c>
       <c r="AI4" t="n">
-        <v>530.8417358398438</v>
+        <v>1312.90869140625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>529.8993530273438</v>
+        <v>1309.55029296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>531.8814697265625</v>
+        <v>1304.44384765625</v>
       </c>
       <c r="AL4" t="n">
-        <v>536.1151123046875</v>
+        <v>1299.617797851562</v>
       </c>
       <c r="AM4" t="n">
-        <v>539.4359741210938</v>
+        <v>1293.191650390625</v>
       </c>
       <c r="AN4" t="n">
-        <v>533.382568359375</v>
+        <v>1288.18359375</v>
       </c>
       <c r="AO4" t="n">
-        <v>527.1552124023438</v>
+        <v>1288.322998046875</v>
       </c>
       <c r="AP4" t="n">
-        <v>522.309326171875</v>
+        <v>1288.176635742188</v>
       </c>
       <c r="AQ4" t="n">
-        <v>569.5556640625</v>
+        <v>1287.782836914062</v>
       </c>
       <c r="AR4" t="n">
-        <v>1031.905639648438</v>
+        <v>1286.6953125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1057.197509765625</v>
+        <v>1285.785766601562</v>
       </c>
       <c r="AT4" t="n">
-        <v>1073.431884765625</v>
+        <v>1281.715087890625</v>
       </c>
       <c r="AU4" t="n">
-        <v>1087.518676757812</v>
+        <v>1269.93115234375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1107.964477539062</v>
+        <v>1253.399536132812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1128.136352539062</v>
+        <v>1246.228637695312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1147.105712890625</v>
+        <v>1246.014526367188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1175.668701171875</v>
+        <v>1247.885131835938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1204.733276367188</v>
+        <v>1252.69677734375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1232.597534179688</v>
+        <v>1262.174926757812</v>
       </c>
       <c r="BB4" t="n">
-        <v>1258.81201171875</v>
+        <v>1265.13330078125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1279.133544921875</v>
+        <v>1266.336791992188</v>
       </c>
       <c r="BD4" t="n">
-        <v>1299.72119140625</v>
+        <v>1266.637451171875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1321.4609375</v>
+        <v>1267.716064453125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1349.533813476562</v>
+        <v>1273.667358398438</v>
       </c>
       <c r="BG4" t="n">
-        <v>1366.025756835938</v>
+        <v>1290.781982421875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1382.8603515625</v>
+        <v>1301.227905273438</v>
       </c>
       <c r="BI4" t="n">
-        <v>1421.9013671875</v>
+        <v>1302.346923828125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1443.212158203125</v>
+        <v>1300.5087890625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1464.813232421875</v>
+        <v>1296.869995117188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1481.364624023438</v>
+        <v>1292.60302734375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1491.385131835938</v>
+        <v>1287.373657226562</v>
       </c>
       <c r="BN4" t="n">
-        <v>1510.35546875</v>
+        <v>1285.724609375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1523.191284179688</v>
+        <v>1283.976318359375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1545.060546875</v>
+        <v>1283.92138671875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1565.704956054688</v>
+        <v>1283.9296875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1582.250366210938</v>
+        <v>1283.935180664062</v>
       </c>
       <c r="BS4" t="n">
-        <v>1600.648681640625</v>
+        <v>1283.858764648438</v>
       </c>
       <c r="BT4" t="n">
-        <v>1620.396240234375</v>
+        <v>1283.97314453125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1635.64794921875</v>
+        <v>1284.005126953125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1658.06298828125</v>
+        <v>1284.08740234375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1669.771850585938</v>
+        <v>1284.256469726562</v>
       </c>
       <c r="BX4" t="n">
-        <v>1691.54052734375</v>
+        <v>1284.897705078125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1460.291015625</v>
+        <v>1285.627807617188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1471.513305664062</v>
+        <v>1286.701171875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1498.941162109375</v>
+        <v>1287.846923828125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1515.911743164062</v>
+        <v>1289.061157226562</v>
       </c>
       <c r="CC4" t="n">
-        <v>1533.296020507812</v>
+        <v>1289.783447265625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1548.406372070312</v>
+        <v>1289.66015625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1567.828857421875</v>
+        <v>1289.551025390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1592.8115234375</v>
+        <v>1289.384521484375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1630.698486328125</v>
+        <v>1289.143676757812</v>
       </c>
       <c r="CH4" t="n">
-        <v>1661.998168945312</v>
+        <v>1289.001708984375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1677.097534179688</v>
+        <v>1288.677734375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1690.387451171875</v>
+        <v>1288.501708984375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1710.30712890625</v>
+        <v>1288.259521484375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1738.524536132812</v>
+        <v>1287.166748046875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1770.709838867188</v>
+        <v>1286.759887695312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1787.768310546875</v>
+        <v>1286.905883789062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1806.026977539062</v>
+        <v>1286.83544921875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1833.304077148438</v>
+        <v>1286.756103515625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1863.538330078125</v>
+        <v>1286.685302734375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1876.318481445312</v>
+        <v>1286.603393554688</v>
       </c>
       <c r="CS4" t="n">
-        <v>1878.24169921875</v>
+        <v>1286.561767578125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1883.935546875</v>
+        <v>1286.335815429688</v>
       </c>
       <c r="CU4" t="n">
-        <v>1893.69091796875</v>
+        <v>1285.8193359375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1915.001342773438</v>
+        <v>1285.08984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1926.842163085938</v>
+        <v>1284.509765625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1921.70166015625</v>
+        <v>1284.353393554688</v>
       </c>
       <c r="CY4" t="n">
-        <v>1934.17919921875</v>
+        <v>1284.579345703125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1934.222900390625</v>
+        <v>1285.023681640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1934.862060546875</v>
+        <v>1285.96484375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1939.6103515625</v>
+        <v>1288.058227539062</v>
       </c>
       <c r="DC4" t="n">
-        <v>1940.684448242188</v>
+        <v>1290.743774414062</v>
       </c>
       <c r="DD4" t="n">
-        <v>1943.919067382812</v>
+        <v>1293.973754882812</v>
       </c>
       <c r="DE4" t="n">
-        <v>1946.830444335938</v>
+        <v>1296.603271484375</v>
       </c>
       <c r="DF4" t="n">
-        <v>1946.44189453125</v>
+        <v>1300.43408203125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1947.750610351562</v>
+        <v>1085.093994140625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1949.560302734375</v>
+        <v>1079.054931640625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1949.87353515625</v>
+        <v>1074.129638671875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1949.522583007812</v>
+        <v>1141.402099609375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1950.352783203125</v>
+        <v>1119.971557617188</v>
       </c>
       <c r="DL4" t="n">
-        <v>1950.365234375</v>
+        <v>1103.654296875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1950.218994140625</v>
+        <v>1270.164428710938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1950.721313476562</v>
+        <v>1265.590209960938</v>
       </c>
       <c r="DO4" t="n">
-        <v>1951.313110351562</v>
+        <v>1263.916748046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1951.733276367188</v>
+        <v>1266.319946289062</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1951.595092773438</v>
+        <v>1267.208129882812</v>
       </c>
       <c r="DR4" t="n">
-        <v>1951.233032226562</v>
+        <v>1266.703735351562</v>
       </c>
       <c r="DS4" t="n">
-        <v>1950.575317382812</v>
+        <v>1267.494750976562</v>
       </c>
       <c r="DT4" t="n">
-        <v>1949.03173828125</v>
+        <v>1268.395751953125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1947.741821289062</v>
+        <v>1270.43115234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1945.46875</v>
+        <v>1094.045166015625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1936.077514648438</v>
+        <v>1099.706909179688</v>
       </c>
       <c r="DX4" t="n">
-        <v>1925.307373046875</v>
+        <v>1095.7294921875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1921.624755859375</v>
+        <v>1088.063720703125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1913.740234375</v>
+        <v>1081.477905273438</v>
       </c>
       <c r="EA4" t="n">
-        <v>1913.699462890625</v>
+        <v>1076.691162109375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1914.38720703125</v>
+        <v>1063.8330078125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1918.603637695312</v>
+        <v>1057.213134765625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1915.852661132812</v>
+        <v>1043.363891601562</v>
       </c>
       <c r="EE4" t="n">
-        <v>1914.998901367188</v>
+        <v>1042.09619140625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1914.822631835938</v>
+        <v>1037.039184570312</v>
       </c>
       <c r="EG4" t="n">
-        <v>1914.675415039062</v>
+        <v>1014.940612792969</v>
       </c>
       <c r="EH4" t="n">
-        <v>1914.703857421875</v>
+        <v>1016.979125976562</v>
       </c>
       <c r="EI4" t="n">
-        <v>1914.789306640625</v>
+        <v>1023.428405761719</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1913.994384765625</v>
+        <v>1030.024536132812</v>
       </c>
       <c r="EK4" t="n">
-        <v>1913.853515625</v>
+        <v>1059.068115234375</v>
       </c>
       <c r="EL4" t="n">
-        <v>1913.552368164062</v>
+        <v>1067.329833984375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1916.194458007812</v>
+        <v>1061.068603515625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1921.590942382812</v>
+        <v>1052.13671875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1922.1376953125</v>
+        <v>1008.576477050781</v>
       </c>
       <c r="EP4" t="n">
-        <v>1923.552001953125</v>
+        <v>992.1490478515625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1923.612670898438</v>
+        <v>959.522216796875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1922.7958984375</v>
+        <v>947.0081176757812</v>
       </c>
       <c r="ES4" t="n">
-        <v>1921.200927734375</v>
+        <v>886.6170654296875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1916.21435546875</v>
+        <v>860.1985473632812</v>
       </c>
       <c r="EU4" t="n">
-        <v>1913.55419921875</v>
+        <v>841.121337890625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1910.9150390625</v>
+        <v>841.6205444335938</v>
       </c>
       <c r="EW4" t="n">
-        <v>1905.154296875</v>
+        <v>815.7825317382812</v>
       </c>
       <c r="EX4" t="n">
-        <v>1905.407958984375</v>
+        <v>790.0919799804688</v>
       </c>
       <c r="EY4" t="n">
-        <v>1904.430908203125</v>
+        <v>724.4420166015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1903.701049804688</v>
+        <v>1003.911865234375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1901.915405273438</v>
+        <v>976.7182006835938</v>
       </c>
       <c r="FB4" t="n">
-        <v>1902.153930664062</v>
+        <v>958.6126098632812</v>
       </c>
       <c r="FC4" t="n">
-        <v>1902.408081054688</v>
+        <v>933.604248046875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1905.243896484375</v>
+        <v>916.0487060546875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1905.317138671875</v>
+        <v>900.9074096679688</v>
       </c>
       <c r="FF4" t="n">
-        <v>1905.390258789062</v>
+        <v>895.2750244140625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1905.759887695312</v>
+        <v>892.9979248046875</v>
       </c>
       <c r="FH4" t="n">
-        <v>1906.318237304688</v>
+        <v>903.6600952148438</v>
       </c>
       <c r="FI4" t="n">
-        <v>1906.010498046875</v>
+        <v>908.0089721679688</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1905.669555664062</v>
+        <v>912.9945678710938</v>
       </c>
       <c r="FK4" t="n">
-        <v>1904.953125</v>
+        <v>907.6928100585938</v>
       </c>
       <c r="FL4" t="n">
-        <v>1905.05712890625</v>
+        <v>878.40625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1903.318115234375</v>
+        <v>870.605712890625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1901.358154296875</v>
+        <v>869.5809326171875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1899.255126953125</v>
+        <v>866.7398681640625</v>
       </c>
       <c r="FP4" t="n">
-        <v>1901.464111328125</v>
+        <v>866.4505004882812</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1903.635375976562</v>
+        <v>858.4464721679688</v>
       </c>
       <c r="FR4" t="n">
-        <v>1902.169677734375</v>
+        <v>864.7928466796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1900.786376953125</v>
+        <v>884.5813598632812</v>
       </c>
       <c r="FT4" t="n">
-        <v>1900.34716796875</v>
+        <v>902.71240234375</v>
       </c>
       <c r="FU4" t="n">
-        <v>1900.1455078125</v>
+        <v>891.7111206054688</v>
       </c>
       <c r="FV4" t="n">
-        <v>1900.828002929688</v>
+        <v>870.4273681640625</v>
       </c>
       <c r="FW4" t="n">
-        <v>1902.408935546875</v>
+        <v>865.1555786132812</v>
       </c>
       <c r="FX4" t="n">
-        <v>1902.063842773438</v>
+        <v>869.537109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1902.02197265625</v>
+        <v>870.8694458007812</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1903.317138671875</v>
+        <v>874.3450927734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>1903.529663085938</v>
+        <v>884.3967895507812</v>
       </c>
       <c r="GB4" t="n">
-        <v>1902.649536132812</v>
+        <v>871.875244140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>1902.3779296875</v>
+        <v>809.582763671875</v>
       </c>
       <c r="GD4" t="n">
-        <v>1900.927490234375</v>
+        <v>838.2713623046875</v>
       </c>
       <c r="GE4" t="n">
-        <v>1900.667724609375</v>
+        <v>824.1638793945312</v>
       </c>
       <c r="GF4" t="n">
-        <v>1901.727172851562</v>
+        <v>817.7162475585938</v>
       </c>
       <c r="GG4" t="n">
-        <v>1902.866455078125</v>
+        <v>833.0916137695312</v>
       </c>
       <c r="GH4" t="n">
-        <v>1903.271484375</v>
+        <v>744.7943725585938</v>
       </c>
       <c r="GI4" t="n">
-        <v>1903.099365234375</v>
+        <v>714.414794921875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1902.8359375</v>
+        <v>779.4696655273438</v>
       </c>
       <c r="GK4" t="n">
-        <v>1904.229614257812</v>
+        <v>665.2694091796875</v>
       </c>
       <c r="GL4" t="n">
-        <v>1904.73388671875</v>
+        <v>686.2300415039062</v>
       </c>
       <c r="GM4" t="n">
-        <v>1904.313354492188</v>
+        <v>650.1651000976562</v>
       </c>
       <c r="GN4" t="n">
-        <v>1903.917114257812</v>
+        <v>700.0565185546875</v>
       </c>
       <c r="GO4" t="n">
-        <v>1903.380981445312</v>
+        <v>735.93115234375</v>
       </c>
       <c r="GP4" t="n">
-        <v>1903.13427734375</v>
+        <v>651.7312622070312</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1902.224487304688</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>1901.2265625</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>1901.2412109375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1901.6123046875</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>1904.27294921875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>1930.354858398438</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1954.204223632812</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1949.06201171875</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1952.602172851562</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1946.82080078125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1945.584716796875</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1919.251220703125</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1861.703002929688</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1883.585815429688</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1728.764892578125</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1726.8251953125</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1749.635498046875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1684.503540039062</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1612.89208984375</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1631.223388671875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1584.8427734375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1524.39404296875</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1430.225341796875</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1400.157104492188</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1332.918334960938</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1281.8310546875</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1236.39306640625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1205.61474609375</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1178.291748046875</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1144.278564453125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1166.571533203125</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1151.35595703125</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1085.838012695312</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1051.278564453125</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1066.187622070312</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1047.873046875</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1006.885681152344</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>959.0308227539062</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>953.184814453125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>923.4108276367188</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>869.965576171875</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>839.4769287109375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>937.6162719726562</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>882.644287109375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>833.959228515625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>769.7086791992188</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>597.893798828125</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>520.7352905273438</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>565.1251831054688</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>486.41455078125</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>502.0058898925781</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>501.4640808105469</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>491.5459594726562</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>519.9317626953125</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>456.1888732910156</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>461.3390502929688</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>530.8687133789062</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>634.6582641601562</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>605.511474609375</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>698.5472412109375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>757.0565185546875</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>716.0637817382812</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>673.1995849609375</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>719.3346557617188</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>765.0374755859375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>776.066650390625</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>831.2508544921875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>834.1659545898438</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>869.4838256835938</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>856.4119873046875</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>896.5618286132812</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>830.4537963867188</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>784.90478515625</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>742.695556640625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>771.5106811523438</v>
+        <v>656.8370971679688</v>
       </c>
     </row>
   </sheetData>

--- a/right_knee_Data.xlsx
+++ b/right_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>378.8675231933594</v>
+        <v>305.3699951171875</v>
       </c>
       <c r="B2" t="n">
-        <v>381.5474853515625</v>
+        <v>271.8698120117188</v>
       </c>
       <c r="C2" t="n">
-        <v>382.8384399414062</v>
+        <v>278.2648315429688</v>
       </c>
       <c r="D2" t="n">
-        <v>384.0971374511719</v>
+        <v>285.5160217285156</v>
       </c>
       <c r="E2" t="n">
-        <v>385.0166320800781</v>
+        <v>281.4942932128906</v>
       </c>
       <c r="F2" t="n">
-        <v>385.9952392578125</v>
+        <v>279.0200500488281</v>
       </c>
       <c r="G2" t="n">
-        <v>387.4478759765625</v>
+        <v>280.0264587402344</v>
       </c>
       <c r="H2" t="n">
-        <v>388.7813110351562</v>
+        <v>281.4436950683594</v>
       </c>
       <c r="I2" t="n">
-        <v>389.6377868652344</v>
+        <v>284.0674133300781</v>
       </c>
       <c r="J2" t="n">
-        <v>390.31494140625</v>
+        <v>283.0942077636719</v>
       </c>
       <c r="K2" t="n">
-        <v>390.3227233886719</v>
+        <v>284.5621948242188</v>
       </c>
       <c r="L2" t="n">
-        <v>389.73828125</v>
+        <v>288.3085021972656</v>
       </c>
       <c r="M2" t="n">
-        <v>385.1681213378906</v>
+        <v>291.4244384765625</v>
       </c>
       <c r="N2" t="n">
-        <v>376.7803955078125</v>
+        <v>292.8991394042969</v>
       </c>
       <c r="O2" t="n">
-        <v>369.8812866210938</v>
+        <v>294.5858154296875</v>
       </c>
       <c r="P2" t="n">
-        <v>367.4986572265625</v>
+        <v>295.9119873046875</v>
       </c>
       <c r="Q2" t="n">
-        <v>366.7404479980469</v>
+        <v>296.4253845214844</v>
       </c>
       <c r="R2" t="n">
-        <v>364.7130737304688</v>
+        <v>286.6005554199219</v>
       </c>
       <c r="S2" t="n">
-        <v>362.8386840820312</v>
+        <v>289.041259765625</v>
       </c>
       <c r="T2" t="n">
-        <v>362.0198364257812</v>
+        <v>290.7857055664062</v>
       </c>
       <c r="U2" t="n">
-        <v>360.576416015625</v>
+        <v>291.2977905273438</v>
       </c>
       <c r="V2" t="n">
-        <v>357.8338623046875</v>
+        <v>291.1900634765625</v>
       </c>
       <c r="W2" t="n">
-        <v>355.1725769042969</v>
+        <v>290.697998046875</v>
       </c>
       <c r="X2" t="n">
-        <v>352.2048645019531</v>
+        <v>291.6843872070312</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.7473449707031</v>
+        <v>292.9628601074219</v>
       </c>
       <c r="Z2" t="n">
-        <v>347.801025390625</v>
+        <v>294.2622680664062</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.2578430175781</v>
+        <v>296.2294616699219</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.7918090820312</v>
+        <v>295.9754943847656</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.124755859375</v>
+        <v>295.1553649902344</v>
       </c>
       <c r="AD2" t="n">
-        <v>345.5377807617188</v>
+        <v>293.268310546875</v>
       </c>
       <c r="AE2" t="n">
-        <v>345.2203979492188</v>
+        <v>289.8857727050781</v>
       </c>
       <c r="AF2" t="n">
-        <v>344.6199035644531</v>
+        <v>293.0199279785156</v>
       </c>
       <c r="AG2" t="n">
-        <v>343.9102783203125</v>
+        <v>297.7903747558594</v>
       </c>
       <c r="AH2" t="n">
-        <v>342.8762512207031</v>
+        <v>298.6431579589844</v>
       </c>
       <c r="AI2" t="n">
-        <v>342.5528564453125</v>
+        <v>298.2093505859375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>342.7664794921875</v>
+        <v>298.4372253417969</v>
       </c>
       <c r="AK2" t="n">
-        <v>342.4075317382812</v>
+        <v>298.5045166015625</v>
       </c>
       <c r="AL2" t="n">
-        <v>341.0667724609375</v>
+        <v>298.69873046875</v>
       </c>
       <c r="AM2" t="n">
-        <v>339.4506225585938</v>
+        <v>298.7861022949219</v>
       </c>
       <c r="AN2" t="n">
-        <v>337.3616027832031</v>
+        <v>298.8884582519531</v>
       </c>
       <c r="AO2" t="n">
-        <v>335.1617126464844</v>
+        <v>299.0982360839844</v>
       </c>
       <c r="AP2" t="n">
-        <v>333.0664367675781</v>
+        <v>299.4493103027344</v>
       </c>
       <c r="AQ2" t="n">
-        <v>332.2544555664062</v>
+        <v>300.2224426269531</v>
       </c>
       <c r="AR2" t="n">
-        <v>331.4803466796875</v>
+        <v>301.7824096679688</v>
       </c>
       <c r="AS2" t="n">
-        <v>330.5188598632812</v>
+        <v>303.8755187988281</v>
       </c>
       <c r="AT2" t="n">
-        <v>329.3388061523438</v>
+        <v>305.7523803710938</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.4175415039062</v>
+        <v>306.0768127441406</v>
       </c>
       <c r="AV2" t="n">
-        <v>316.2744140625</v>
+        <v>307.5836791992188</v>
       </c>
       <c r="AW2" t="n">
-        <v>309.9025268554688</v>
+        <v>306.8156127929688</v>
       </c>
       <c r="AX2" t="n">
-        <v>304.5796203613281</v>
+        <v>305.5468444824219</v>
       </c>
       <c r="AY2" t="n">
-        <v>300.2720947265625</v>
+        <v>305.1727600097656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>293.1831970214844</v>
+        <v>305.1865539550781</v>
       </c>
       <c r="BA2" t="n">
-        <v>285.4062805175781</v>
+        <v>305.284423828125</v>
       </c>
       <c r="BB2" t="n">
-        <v>276.1669006347656</v>
+        <v>305.5280456542969</v>
       </c>
       <c r="BC2" t="n">
-        <v>267.3543395996094</v>
+        <v>305.8858337402344</v>
       </c>
       <c r="BD2" t="n">
-        <v>260.9283447265625</v>
+        <v>306.3211669921875</v>
       </c>
       <c r="BE2" t="n">
-        <v>254.9216613769531</v>
+        <v>306.5895080566406</v>
       </c>
       <c r="BF2" t="n">
-        <v>248.8700103759766</v>
+        <v>306.4353637695312</v>
       </c>
       <c r="BG2" t="n">
-        <v>244.5874633789062</v>
+        <v>306.2902221679688</v>
       </c>
       <c r="BH2" t="n">
-        <v>240.7324066162109</v>
+        <v>306.3538208007812</v>
       </c>
       <c r="BI2" t="n">
-        <v>237.2759704589844</v>
+        <v>306.3395080566406</v>
       </c>
       <c r="BJ2" t="n">
-        <v>235.1024475097656</v>
+        <v>306.345703125</v>
       </c>
       <c r="BK2" t="n">
-        <v>233.7511901855469</v>
+        <v>306.3461608886719</v>
       </c>
       <c r="BL2" t="n">
-        <v>232.2728729248047</v>
+        <v>306.4152526855469</v>
       </c>
       <c r="BM2" t="n">
-        <v>229.3779144287109</v>
+        <v>306.5177612304688</v>
       </c>
       <c r="BN2" t="n">
-        <v>224.6777648925781</v>
+        <v>306.6248474121094</v>
       </c>
       <c r="BO2" t="n">
-        <v>218.7346496582031</v>
+        <v>306.7077026367188</v>
       </c>
       <c r="BP2" t="n">
-        <v>215.4552001953125</v>
+        <v>306.7749328613281</v>
       </c>
       <c r="BQ2" t="n">
-        <v>213.2396087646484</v>
+        <v>306.843017578125</v>
       </c>
       <c r="BR2" t="n">
-        <v>210.8038635253906</v>
+        <v>306.9112243652344</v>
       </c>
       <c r="BS2" t="n">
-        <v>208.6524810791016</v>
+        <v>306.9630737304688</v>
       </c>
       <c r="BT2" t="n">
-        <v>206.4927368164062</v>
+        <v>307.0104370117188</v>
       </c>
       <c r="BU2" t="n">
-        <v>204.8894958496094</v>
+        <v>307.05029296875</v>
       </c>
       <c r="BV2" t="n">
-        <v>204.1382446289062</v>
+        <v>307.1181640625</v>
       </c>
       <c r="BW2" t="n">
-        <v>203.6869659423828</v>
+        <v>307.1729125976562</v>
       </c>
       <c r="BX2" t="n">
-        <v>203.4126129150391</v>
+        <v>307.2232360839844</v>
       </c>
       <c r="BY2" t="n">
-        <v>203.082763671875</v>
+        <v>307.2614135742188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>203.119384765625</v>
+        <v>307.3487854003906</v>
       </c>
       <c r="CA2" t="n">
-        <v>203.2502593994141</v>
+        <v>307.6270141601562</v>
       </c>
       <c r="CB2" t="n">
-        <v>203.4233856201172</v>
+        <v>307.6420288085938</v>
       </c>
       <c r="CC2" t="n">
-        <v>203.56396484375</v>
+        <v>307.6612854003906</v>
       </c>
       <c r="CD2" t="n">
-        <v>203.6393737792969</v>
+        <v>307.6754760742188</v>
       </c>
       <c r="CE2" t="n">
-        <v>203.72509765625</v>
+        <v>307.6834106445312</v>
       </c>
       <c r="CF2" t="n">
-        <v>203.8854675292969</v>
+        <v>307.5937805175781</v>
       </c>
       <c r="CG2" t="n">
-        <v>204.7693176269531</v>
+        <v>307.5123596191406</v>
       </c>
       <c r="CH2" t="n">
-        <v>206.1600494384766</v>
+        <v>307.4210815429688</v>
       </c>
       <c r="CI2" t="n">
-        <v>207.7449340820312</v>
+        <v>307.3486938476562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>208.7564239501953</v>
+        <v>307.3654479980469</v>
       </c>
       <c r="CK2" t="n">
-        <v>209.317138671875</v>
+        <v>307.3821411132812</v>
       </c>
       <c r="CL2" t="n">
-        <v>209.9288787841797</v>
+        <v>307.3778686523438</v>
       </c>
       <c r="CM2" t="n">
-        <v>209.9020080566406</v>
+        <v>307.3644104003906</v>
       </c>
       <c r="CN2" t="n">
-        <v>209.8676910400391</v>
+        <v>307.3355712890625</v>
       </c>
       <c r="CO2" t="n">
-        <v>209.8069763183594</v>
+        <v>307.2639770507812</v>
       </c>
       <c r="CP2" t="n">
-        <v>209.7465667724609</v>
+        <v>307.2695007324219</v>
       </c>
       <c r="CQ2" t="n">
-        <v>209.7310791015625</v>
+        <v>307.2741088867188</v>
       </c>
       <c r="CR2" t="n">
-        <v>209.6926574707031</v>
+        <v>307.2883605957031</v>
       </c>
       <c r="CS2" t="n">
-        <v>209.6186218261719</v>
+        <v>307.2830505371094</v>
       </c>
       <c r="CT2" t="n">
-        <v>209.1406097412109</v>
+        <v>307.301025390625</v>
       </c>
       <c r="CU2" t="n">
-        <v>208.1238403320312</v>
+        <v>307.2774963378906</v>
       </c>
       <c r="CV2" t="n">
-        <v>206.7906951904297</v>
+        <v>307.273193359375</v>
       </c>
       <c r="CW2" t="n">
-        <v>205.9790344238281</v>
+        <v>307.1780090332031</v>
       </c>
       <c r="CX2" t="n">
-        <v>206.1161499023438</v>
+        <v>307.105712890625</v>
       </c>
       <c r="CY2" t="n">
-        <v>206.435546875</v>
+        <v>306.8153991699219</v>
       </c>
       <c r="CZ2" t="n">
-        <v>206.7924499511719</v>
+        <v>306.418212890625</v>
       </c>
       <c r="DA2" t="n">
-        <v>207.1194305419922</v>
+        <v>305.9002380371094</v>
       </c>
       <c r="DB2" t="n">
-        <v>207.4680938720703</v>
+        <v>305.4475708007812</v>
       </c>
       <c r="DC2" t="n">
-        <v>207.8337860107422</v>
+        <v>305.5041198730469</v>
       </c>
       <c r="DD2" t="n">
-        <v>208.4995727539062</v>
+        <v>305.4933776855469</v>
       </c>
       <c r="DE2" t="n">
-        <v>210.3660888671875</v>
+        <v>305.4703063964844</v>
       </c>
       <c r="DF2" t="n">
-        <v>213.6175689697266</v>
+        <v>305.4486999511719</v>
       </c>
       <c r="DG2" t="n">
-        <v>227.5627746582031</v>
+        <v>305.3968200683594</v>
       </c>
       <c r="DH2" t="n">
-        <v>228.6713562011719</v>
+        <v>305.3763122558594</v>
       </c>
       <c r="DI2" t="n">
-        <v>220.9783172607422</v>
+        <v>305.3599853515625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>333.6752014160156</v>
+        <v>305.3289184570312</v>
       </c>
       <c r="DK2" t="n">
-        <v>336.3068237304688</v>
+        <v>305.4060974121094</v>
       </c>
       <c r="DL2" t="n">
-        <v>357.96533203125</v>
+        <v>304.7460021972656</v>
       </c>
       <c r="DM2" t="n">
-        <v>258.3711853027344</v>
+        <v>304.4795837402344</v>
       </c>
       <c r="DN2" t="n">
-        <v>265.3186340332031</v>
+        <v>304.1158447265625</v>
       </c>
       <c r="DO2" t="n">
-        <v>272.0618286132812</v>
+        <v>303.753173828125</v>
       </c>
       <c r="DP2" t="n">
-        <v>289.5776672363281</v>
+        <v>303.4839172363281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>299.3517456054688</v>
+        <v>303.5364990234375</v>
       </c>
       <c r="DR2" t="n">
-        <v>307.8858642578125</v>
+        <v>303.6754760742188</v>
       </c>
       <c r="DS2" t="n">
-        <v>321.1701049804688</v>
+        <v>303.8360595703125</v>
       </c>
       <c r="DT2" t="n">
-        <v>326.9513244628906</v>
+        <v>303.8817443847656</v>
       </c>
       <c r="DU2" t="n">
-        <v>329.821533203125</v>
+        <v>303.8710021972656</v>
       </c>
       <c r="DV2" t="n">
-        <v>305.7430419921875</v>
+        <v>303.7021484375</v>
       </c>
       <c r="DW2" t="n">
-        <v>307.9129333496094</v>
+        <v>303.6143493652344</v>
       </c>
       <c r="DX2" t="n">
-        <v>310.2754821777344</v>
+        <v>303.4486083984375</v>
       </c>
       <c r="DY2" t="n">
-        <v>319.3948669433594</v>
+        <v>303.1914672851562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>332.0459594726562</v>
+        <v>303.0592041015625</v>
       </c>
       <c r="EA2" t="n">
-        <v>334.4550170898438</v>
+        <v>303.2526550292969</v>
       </c>
       <c r="EB2" t="n">
-        <v>340.4006652832031</v>
+        <v>303.425048828125</v>
       </c>
       <c r="EC2" t="n">
-        <v>340.7731323242188</v>
+        <v>303.5803527832031</v>
       </c>
       <c r="ED2" t="n">
-        <v>338.437744140625</v>
+        <v>303.661865234375</v>
       </c>
       <c r="EE2" t="n">
-        <v>335.9032897949219</v>
+        <v>303.6142883300781</v>
       </c>
       <c r="EF2" t="n">
-        <v>333.4936218261719</v>
+        <v>303.39892578125</v>
       </c>
       <c r="EG2" t="n">
-        <v>334.6130981445312</v>
+        <v>303.2774047851562</v>
       </c>
       <c r="EH2" t="n">
-        <v>334.52734375</v>
+        <v>303.5021362304688</v>
       </c>
       <c r="EI2" t="n">
-        <v>328.3993835449219</v>
+        <v>303.5882873535156</v>
       </c>
       <c r="EJ2" t="n">
-        <v>320.0067138671875</v>
+        <v>303.5355224609375</v>
       </c>
       <c r="EK2" t="n">
-        <v>318.9763793945312</v>
+        <v>303.2745666503906</v>
       </c>
       <c r="EL2" t="n">
-        <v>318.5800476074219</v>
+        <v>303.1712646484375</v>
       </c>
       <c r="EM2" t="n">
-        <v>309.0949401855469</v>
+        <v>303.2472839355469</v>
       </c>
       <c r="EN2" t="n">
-        <v>295.811279296875</v>
+        <v>303.3259887695312</v>
       </c>
       <c r="EO2" t="n">
-        <v>284.5545043945312</v>
+        <v>303.2838134765625</v>
       </c>
       <c r="EP2" t="n">
-        <v>282.027587890625</v>
+        <v>303.2962036132812</v>
       </c>
       <c r="EQ2" t="n">
-        <v>270.865966796875</v>
+        <v>303.3077392578125</v>
       </c>
       <c r="ER2" t="n">
-        <v>267.6181030273438</v>
+        <v>303.3117980957031</v>
       </c>
       <c r="ES2" t="n">
-        <v>272.7820739746094</v>
+        <v>303.3085021972656</v>
       </c>
       <c r="ET2" t="n">
-        <v>268.9582214355469</v>
+        <v>303.24462890625</v>
       </c>
       <c r="EU2" t="n">
-        <v>267.8345947265625</v>
+        <v>303.2604064941406</v>
       </c>
       <c r="EV2" t="n">
-        <v>257.8836975097656</v>
+        <v>303.2620544433594</v>
       </c>
       <c r="EW2" t="n">
-        <v>225.4771575927734</v>
+        <v>303.27099609375</v>
       </c>
       <c r="EX2" t="n">
-        <v>232.7968139648438</v>
+        <v>303.3820495605469</v>
       </c>
       <c r="EY2" t="n">
-        <v>245.3696441650391</v>
+        <v>303.3688659667969</v>
       </c>
       <c r="EZ2" t="n">
-        <v>248.5368499755859</v>
+        <v>303.3335876464844</v>
       </c>
       <c r="FA2" t="n">
-        <v>253.5825805664062</v>
+        <v>303.2883605957031</v>
       </c>
       <c r="FB2" t="n">
-        <v>258.4305114746094</v>
+        <v>303.2450561523438</v>
       </c>
       <c r="FC2" t="n">
-        <v>262.824462890625</v>
+        <v>303.2571411132812</v>
       </c>
       <c r="FD2" t="n">
-        <v>266.9179382324219</v>
+        <v>303.3226623535156</v>
       </c>
       <c r="FE2" t="n">
-        <v>268.5350646972656</v>
+        <v>303.3208923339844</v>
       </c>
       <c r="FF2" t="n">
-        <v>276.4449768066406</v>
+        <v>303.3105163574219</v>
       </c>
       <c r="FG2" t="n">
-        <v>281.7203063964844</v>
+        <v>303.1715393066406</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.6757507324219</v>
+        <v>303.0186157226562</v>
       </c>
       <c r="FI2" t="n">
-        <v>302.7451171875</v>
+        <v>302.68603515625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>315.5784606933594</v>
+        <v>302.2362976074219</v>
       </c>
       <c r="FK2" t="n">
-        <v>320.7476806640625</v>
+        <v>302.0428161621094</v>
       </c>
       <c r="FL2" t="n">
-        <v>340.95849609375</v>
+        <v>301.3060607910156</v>
       </c>
       <c r="FM2" t="n">
-        <v>351.4649658203125</v>
+        <v>301.4246520996094</v>
       </c>
       <c r="FN2" t="n">
-        <v>365.8363037109375</v>
+        <v>301.7083740234375</v>
       </c>
       <c r="FO2" t="n">
-        <v>383.2920837402344</v>
+        <v>301.6619262695312</v>
       </c>
       <c r="FP2" t="n">
-        <v>401.334228515625</v>
+        <v>301.5396118164062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>405.5311279296875</v>
+        <v>301.4562072753906</v>
       </c>
       <c r="FR2" t="n">
-        <v>409.5791320800781</v>
+        <v>301.4802551269531</v>
       </c>
       <c r="FS2" t="n">
-        <v>403.0620727539062</v>
+        <v>301.4879455566406</v>
       </c>
       <c r="FT2" t="n">
-        <v>400.7916564941406</v>
+        <v>301.5086364746094</v>
       </c>
       <c r="FU2" t="n">
-        <v>398.1140441894531</v>
+        <v>301.4879760742188</v>
       </c>
       <c r="FV2" t="n">
-        <v>401.798583984375</v>
+        <v>301.4838562011719</v>
       </c>
       <c r="FW2" t="n">
-        <v>412.568603515625</v>
+        <v>301.4941101074219</v>
       </c>
       <c r="FX2" t="n">
-        <v>414.7138977050781</v>
+        <v>301.4929809570312</v>
       </c>
       <c r="FY2" t="n">
-        <v>414.5818786621094</v>
+        <v>301.6122131347656</v>
       </c>
       <c r="FZ2" t="n">
-        <v>414.5822143554688</v>
+        <v>301.6610717773438</v>
       </c>
       <c r="GA2" t="n">
-        <v>415.6851806640625</v>
+        <v>301.6913757324219</v>
       </c>
       <c r="GB2" t="n">
-        <v>419.889892578125</v>
+        <v>301.6769409179688</v>
       </c>
       <c r="GC2" t="n">
-        <v>428.96630859375</v>
+        <v>301.5706481933594</v>
       </c>
       <c r="GD2" t="n">
-        <v>426.673583984375</v>
+        <v>301.5113525390625</v>
       </c>
       <c r="GE2" t="n">
-        <v>427.07373046875</v>
+        <v>301.5210266113281</v>
       </c>
       <c r="GF2" t="n">
-        <v>422.0521850585938</v>
+        <v>301.5517272949219</v>
       </c>
       <c r="GG2" t="n">
-        <v>395.8658142089844</v>
+        <v>301.61328125</v>
       </c>
       <c r="GH2" t="n">
-        <v>408.3590698242188</v>
+        <v>301.7628479003906</v>
       </c>
       <c r="GI2" t="n">
-        <v>371.5261535644531</v>
+        <v>301.9003601074219</v>
       </c>
       <c r="GJ2" t="n">
-        <v>381.8150634765625</v>
+        <v>301.9773559570312</v>
       </c>
       <c r="GK2" t="n">
-        <v>369.3554992675781</v>
+        <v>302.0126037597656</v>
       </c>
       <c r="GL2" t="n">
-        <v>356.8250122070312</v>
+        <v>302.0127563476562</v>
       </c>
       <c r="GM2" t="n">
-        <v>334.1193237304688</v>
+        <v>301.9569091796875</v>
       </c>
       <c r="GN2" t="n">
-        <v>295.4503173828125</v>
+        <v>301.9213562011719</v>
       </c>
       <c r="GO2" t="n">
-        <v>311.8379516601562</v>
+        <v>301.8958435058594</v>
       </c>
       <c r="GP2" t="n">
-        <v>299.68017578125</v>
+        <v>301.9026184082031</v>
       </c>
       <c r="GQ2" t="n">
-        <v>292.1475219726562</v>
+        <v>301.9631652832031</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>301.9920959472656</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>302.0241088867188</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>301.9567260742188</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>301.9706115722656</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>301.9844970703125</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>302.0156860351562</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>302.0661926269531</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>302.1932373046875</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>302.2420959472656</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>302.2682800292969</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>302.2872009277344</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>302.3451843261719</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>302.4538879394531</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>302.4757995605469</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>302.5585021972656</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>302.7155456542969</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>302.7549743652344</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>302.6474609375</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>302.5422668457031</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>302.4933166503906</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>302.4289855957031</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>302.3642272949219</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>302.2263488769531</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>302.2303466796875</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>302.2097473144531</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>302.2619018554688</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>302.2752380371094</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>302.3804321289062</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>302.3243713378906</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>302.2781066894531</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>302.3040161132812</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>302.2962646484375</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>302.3534545898438</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>302.3628234863281</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>302.3070678710938</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>302.1835021972656</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>302.1343994140625</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>302.1162719726562</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>302.169677734375</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>302.1451721191406</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>302.1412963867188</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>302.1244812011719</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>302.1112365722656</v>
+      </c>
+      <c r="II2" t="n">
+        <v>302.1162414550781</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>302.098388671875</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>302.094482421875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>302.0910339355469</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>302.1331176757812</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>302.1925964355469</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>302.1159362792969</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>302.1306762695312</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>302.1357116699219</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>302.1139221191406</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>302.2456970214844</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>302.2012329101562</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>302.2159729003906</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>302.2525329589844</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>302.3418579101562</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>302.4393615722656</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>302.4413146972656</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>302.2696533203125</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>302.2555541992188</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>302.2805786132812</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>302.2204284667969</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>302.1224365234375</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>301.8913879394531</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>301.4692687988281</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>301.1831970214844</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>300.64501953125</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>299.4128723144531</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>298.0681762695312</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>298.6608276367188</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>298.9510192871094</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>299.07958984375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>299.1436462402344</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>299.2044067382812</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>299.21044921875</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>299.1744689941406</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>299.259033203125</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>299.3187866210938</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>299.35595703125</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>299.2938232421875</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>299.2712097167969</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>299.2493591308594</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>299.2218933105469</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>299.256103515625</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>298.85693359375</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>297.0830383300781</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>295.1927490234375</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>294.66845703125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>292.8582763671875</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>293.0386962890625</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>293.0755310058594</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>292.7702026367188</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>292.3227233886719</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>292.2384338378906</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>291.8766174316406</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>292.3525390625</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>291.225830078125</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>290.6724548339844</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>290.1030883789062</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>291.7634582519531</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>303.1257019042969</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>284.6510620117188</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>310.8546752929688</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>323.8253784179688</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>317.8472290039062</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>325.1033935546875</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>335.4074096679688</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>348.4365844726562</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>380.5289916992188</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>260.5419006347656</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>259.0625305175781</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>256.6521606445312</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>255.2221374511719</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>252.1347961425781</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>250.7671966552734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>563.7611694335938</v>
+        <v>644.1321411132812</v>
       </c>
       <c r="B3" t="n">
-        <v>554.1024169921875</v>
+        <v>567.8977661132812</v>
       </c>
       <c r="C3" t="n">
-        <v>551.1548461914062</v>
+        <v>553.4031982421875</v>
       </c>
       <c r="D3" t="n">
-        <v>548.8967895507812</v>
+        <v>549.822265625</v>
       </c>
       <c r="E3" t="n">
-        <v>547.85205078125</v>
+        <v>547.9668579101562</v>
       </c>
       <c r="F3" t="n">
-        <v>545.9042358398438</v>
+        <v>543.0405883789062</v>
       </c>
       <c r="G3" t="n">
-        <v>544.9508666992188</v>
+        <v>546.5162963867188</v>
       </c>
       <c r="H3" t="n">
-        <v>543.7943115234375</v>
+        <v>545.1656494140625</v>
       </c>
       <c r="I3" t="n">
-        <v>541.101318359375</v>
+        <v>545.9749755859375</v>
       </c>
       <c r="J3" t="n">
-        <v>537.9383544921875</v>
+        <v>534.677001953125</v>
       </c>
       <c r="K3" t="n">
-        <v>533.2493286132812</v>
+        <v>525.6533813476562</v>
       </c>
       <c r="L3" t="n">
-        <v>528.1334838867188</v>
+        <v>520.2740478515625</v>
       </c>
       <c r="M3" t="n">
-        <v>518.68505859375</v>
+        <v>519.1338500976562</v>
       </c>
       <c r="N3" t="n">
-        <v>510.0382080078125</v>
+        <v>512.8759765625</v>
       </c>
       <c r="O3" t="n">
-        <v>501.3097534179688</v>
+        <v>508.7216491699219</v>
       </c>
       <c r="P3" t="n">
-        <v>493.6276245117188</v>
+        <v>504.9237365722656</v>
       </c>
       <c r="Q3" t="n">
-        <v>488.9585571289062</v>
+        <v>497.8984985351562</v>
       </c>
       <c r="R3" t="n">
-        <v>480.153076171875</v>
+        <v>510.4210815429688</v>
       </c>
       <c r="S3" t="n">
-        <v>473.0345764160156</v>
+        <v>500.9085693359375</v>
       </c>
       <c r="T3" t="n">
-        <v>467.9034118652344</v>
+        <v>496.380615234375</v>
       </c>
       <c r="U3" t="n">
-        <v>463.9781799316406</v>
+        <v>493.3213806152344</v>
       </c>
       <c r="V3" t="n">
-        <v>459.9883117675781</v>
+        <v>492.6151733398438</v>
       </c>
       <c r="W3" t="n">
-        <v>457.5516967773438</v>
+        <v>495.2328796386719</v>
       </c>
       <c r="X3" t="n">
-        <v>453.2532348632812</v>
+        <v>494.6441345214844</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.2562255859375</v>
+        <v>490.2327880859375</v>
       </c>
       <c r="Z3" t="n">
-        <v>446.8691101074219</v>
+        <v>488.6829833984375</v>
       </c>
       <c r="AA3" t="n">
-        <v>445.1372985839844</v>
+        <v>485.9782104492188</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.22900390625</v>
+        <v>481.1049194335938</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.8740844726562</v>
+        <v>478.6839599609375</v>
       </c>
       <c r="AD3" t="n">
-        <v>458.2391357421875</v>
+        <v>474.8404541015625</v>
       </c>
       <c r="AE3" t="n">
-        <v>459.3153076171875</v>
+        <v>473.0566101074219</v>
       </c>
       <c r="AF3" t="n">
-        <v>459.8362121582031</v>
+        <v>472.6429748535156</v>
       </c>
       <c r="AG3" t="n">
-        <v>459.8965148925781</v>
+        <v>471.3965454101562</v>
       </c>
       <c r="AH3" t="n">
-        <v>458.3951416015625</v>
+        <v>473.2290954589844</v>
       </c>
       <c r="AI3" t="n">
-        <v>458.1212768554688</v>
+        <v>469.684814453125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>458.7987976074219</v>
+        <v>465.714599609375</v>
       </c>
       <c r="AK3" t="n">
-        <v>458.9290466308594</v>
+        <v>463.5285949707031</v>
       </c>
       <c r="AL3" t="n">
-        <v>458.7773132324219</v>
+        <v>462.0768737792969</v>
       </c>
       <c r="AM3" t="n">
-        <v>459.7395629882812</v>
+        <v>460.6640625</v>
       </c>
       <c r="AN3" t="n">
-        <v>459.6507873535156</v>
+        <v>459.6644287109375</v>
       </c>
       <c r="AO3" t="n">
-        <v>456.9655456542969</v>
+        <v>459.687744140625</v>
       </c>
       <c r="AP3" t="n">
-        <v>453.1653137207031</v>
+        <v>461.1252136230469</v>
       </c>
       <c r="AQ3" t="n">
-        <v>451.6070251464844</v>
+        <v>463.0328674316406</v>
       </c>
       <c r="AR3" t="n">
-        <v>450.2009887695312</v>
+        <v>463.9941711425781</v>
       </c>
       <c r="AS3" t="n">
-        <v>450.4470825195312</v>
+        <v>463.2853698730469</v>
       </c>
       <c r="AT3" t="n">
-        <v>451.3884887695312</v>
+        <v>463.0574951171875</v>
       </c>
       <c r="AU3" t="n">
-        <v>454.2290954589844</v>
+        <v>462.7336120605469</v>
       </c>
       <c r="AV3" t="n">
-        <v>458.271728515625</v>
+        <v>462.2130126953125</v>
       </c>
       <c r="AW3" t="n">
-        <v>461.1502075195312</v>
+        <v>462.1853332519531</v>
       </c>
       <c r="AX3" t="n">
-        <v>462.3970336914062</v>
+        <v>463.1356811523438</v>
       </c>
       <c r="AY3" t="n">
-        <v>465.7118225097656</v>
+        <v>463.8692626953125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>465.9118041992188</v>
+        <v>463.62841796875</v>
       </c>
       <c r="BA3" t="n">
-        <v>464.0363464355469</v>
+        <v>463.702880859375</v>
       </c>
       <c r="BB3" t="n">
-        <v>463.6571655273438</v>
+        <v>463.9848937988281</v>
       </c>
       <c r="BC3" t="n">
-        <v>465.3999328613281</v>
+        <v>461.755126953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>466.900390625</v>
+        <v>461.6958923339844</v>
       </c>
       <c r="BE3" t="n">
-        <v>467.7516479492188</v>
+        <v>461.1435241699219</v>
       </c>
       <c r="BF3" t="n">
-        <v>466.4954833984375</v>
+        <v>460.8459777832031</v>
       </c>
       <c r="BG3" t="n">
-        <v>462.8616638183594</v>
+        <v>460.7020568847656</v>
       </c>
       <c r="BH3" t="n">
-        <v>460.5652160644531</v>
+        <v>460.5422973632812</v>
       </c>
       <c r="BI3" t="n">
-        <v>460.4909362792969</v>
+        <v>461.0385131835938</v>
       </c>
       <c r="BJ3" t="n">
-        <v>461.47412109375</v>
+        <v>461.268310546875</v>
       </c>
       <c r="BK3" t="n">
-        <v>462.8526000976562</v>
+        <v>460.8794860839844</v>
       </c>
       <c r="BL3" t="n">
-        <v>464.3592834472656</v>
+        <v>462.248779296875</v>
       </c>
       <c r="BM3" t="n">
-        <v>466.3508911132812</v>
+        <v>463.2253112792969</v>
       </c>
       <c r="BN3" t="n">
-        <v>467.3283996582031</v>
+        <v>464.1590576171875</v>
       </c>
       <c r="BO3" t="n">
-        <v>466.04248046875</v>
+        <v>464.6740417480469</v>
       </c>
       <c r="BP3" t="n">
-        <v>465.612060546875</v>
+        <v>464.8938293457031</v>
       </c>
       <c r="BQ3" t="n">
-        <v>465.2763671875</v>
+        <v>465.5503845214844</v>
       </c>
       <c r="BR3" t="n">
-        <v>464.9179382324219</v>
+        <v>465.9176330566406</v>
       </c>
       <c r="BS3" t="n">
-        <v>464.7756958007812</v>
+        <v>466.3229064941406</v>
       </c>
       <c r="BT3" t="n">
-        <v>464.5458374023438</v>
+        <v>466.472412109375</v>
       </c>
       <c r="BU3" t="n">
-        <v>464.6993408203125</v>
+        <v>466.7061157226562</v>
       </c>
       <c r="BV3" t="n">
-        <v>464.9404296875</v>
+        <v>467.1166687011719</v>
       </c>
       <c r="BW3" t="n">
-        <v>464.9607238769531</v>
+        <v>467.6753540039062</v>
       </c>
       <c r="BX3" t="n">
-        <v>464.7982177734375</v>
+        <v>468.3197021484375</v>
       </c>
       <c r="BY3" t="n">
-        <v>464.6273498535156</v>
+        <v>469.1197204589844</v>
       </c>
       <c r="BZ3" t="n">
-        <v>464.4902954101562</v>
+        <v>469.8459167480469</v>
       </c>
       <c r="CA3" t="n">
-        <v>464.3028869628906</v>
+        <v>470.8124084472656</v>
       </c>
       <c r="CB3" t="n">
-        <v>464.0970764160156</v>
+        <v>470.8970642089844</v>
       </c>
       <c r="CC3" t="n">
-        <v>463.9788513183594</v>
+        <v>471.0570983886719</v>
       </c>
       <c r="CD3" t="n">
-        <v>464.0516052246094</v>
+        <v>471.2042236328125</v>
       </c>
       <c r="CE3" t="n">
-        <v>464.1264038085938</v>
+        <v>471.3273315429688</v>
       </c>
       <c r="CF3" t="n">
-        <v>464.224609375</v>
+        <v>471.4292602539062</v>
       </c>
       <c r="CG3" t="n">
-        <v>463.9725341796875</v>
+        <v>471.4969787597656</v>
       </c>
       <c r="CH3" t="n">
-        <v>463.6331481933594</v>
+        <v>471.5433654785156</v>
       </c>
       <c r="CI3" t="n">
-        <v>463.2916564941406</v>
+        <v>471.5604858398438</v>
       </c>
       <c r="CJ3" t="n">
-        <v>463.3921203613281</v>
+        <v>471.4592590332031</v>
       </c>
       <c r="CK3" t="n">
-        <v>463.7602844238281</v>
+        <v>471.4581298828125</v>
       </c>
       <c r="CL3" t="n">
-        <v>464.5210571289062</v>
+        <v>471.4295043945312</v>
       </c>
       <c r="CM3" t="n">
-        <v>464.5504455566406</v>
+        <v>470.9152221679688</v>
       </c>
       <c r="CN3" t="n">
-        <v>464.5191345214844</v>
+        <v>470.5098571777344</v>
       </c>
       <c r="CO3" t="n">
-        <v>464.5364685058594</v>
+        <v>470.1702575683594</v>
       </c>
       <c r="CP3" t="n">
-        <v>464.578369140625</v>
+        <v>470.4708862304688</v>
       </c>
       <c r="CQ3" t="n">
-        <v>464.6824035644531</v>
+        <v>470.3397827148438</v>
       </c>
       <c r="CR3" t="n">
-        <v>464.7743225097656</v>
+        <v>470.3419189453125</v>
       </c>
       <c r="CS3" t="n">
-        <v>464.7713012695312</v>
+        <v>470.3720397949219</v>
       </c>
       <c r="CT3" t="n">
-        <v>464.9393310546875</v>
+        <v>470.4124145507812</v>
       </c>
       <c r="CU3" t="n">
-        <v>465.3687438964844</v>
+        <v>470.4561767578125</v>
       </c>
       <c r="CV3" t="n">
-        <v>465.9988098144531</v>
+        <v>470.5772399902344</v>
       </c>
       <c r="CW3" t="n">
-        <v>466.4900512695312</v>
+        <v>470.6946411132812</v>
       </c>
       <c r="CX3" t="n">
-        <v>466.5423278808594</v>
+        <v>470.8049621582031</v>
       </c>
       <c r="CY3" t="n">
-        <v>466.4464416503906</v>
+        <v>470.8030090332031</v>
       </c>
       <c r="CZ3" t="n">
-        <v>466.5197448730469</v>
+        <v>470.9436950683594</v>
       </c>
       <c r="DA3" t="n">
-        <v>466.5509948730469</v>
+        <v>471.0499877929688</v>
       </c>
       <c r="DB3" t="n">
-        <v>466.4244689941406</v>
+        <v>470.9270629882812</v>
       </c>
       <c r="DC3" t="n">
-        <v>466.2191467285156</v>
+        <v>470.8503112792969</v>
       </c>
       <c r="DD3" t="n">
-        <v>466.1400451660156</v>
+        <v>470.9393920898438</v>
       </c>
       <c r="DE3" t="n">
-        <v>465.6245422363281</v>
+        <v>470.9833679199219</v>
       </c>
       <c r="DF3" t="n">
-        <v>464.4961853027344</v>
+        <v>471.0068664550781</v>
       </c>
       <c r="DG3" t="n">
-        <v>480.6151733398438</v>
+        <v>470.8079833984375</v>
       </c>
       <c r="DH3" t="n">
-        <v>480.3366394042969</v>
+        <v>470.7334899902344</v>
       </c>
       <c r="DI3" t="n">
-        <v>483.0053405761719</v>
+        <v>470.7018432617188</v>
       </c>
       <c r="DJ3" t="n">
-        <v>427.1329956054688</v>
+        <v>470.7158203125</v>
       </c>
       <c r="DK3" t="n">
-        <v>435.1038513183594</v>
+        <v>470.8674926757812</v>
       </c>
       <c r="DL3" t="n">
-        <v>438.5695190429688</v>
+        <v>471.3009033203125</v>
       </c>
       <c r="DM3" t="n">
-        <v>477.6609497070312</v>
+        <v>471.5596313476562</v>
       </c>
       <c r="DN3" t="n">
-        <v>478.1655578613281</v>
+        <v>471.9606323242188</v>
       </c>
       <c r="DO3" t="n">
-        <v>478.3706359863281</v>
+        <v>472.0093383789062</v>
       </c>
       <c r="DP3" t="n">
-        <v>476.1188659667969</v>
+        <v>471.7793273925781</v>
       </c>
       <c r="DQ3" t="n">
-        <v>475.9779052734375</v>
+        <v>471.6911010742188</v>
       </c>
       <c r="DR3" t="n">
-        <v>475.7887878417969</v>
+        <v>471.5777282714844</v>
       </c>
       <c r="DS3" t="n">
-        <v>475.43408203125</v>
+        <v>471.8053283691406</v>
       </c>
       <c r="DT3" t="n">
-        <v>474.4712524414062</v>
+        <v>472.2863464355469</v>
       </c>
       <c r="DU3" t="n">
-        <v>472.3699035644531</v>
+        <v>472.5062561035156</v>
       </c>
       <c r="DV3" t="n">
-        <v>482.08642578125</v>
+        <v>472.3976745605469</v>
       </c>
       <c r="DW3" t="n">
-        <v>474.4956359863281</v>
+        <v>472.4117126464844</v>
       </c>
       <c r="DX3" t="n">
-        <v>474.8037719726562</v>
+        <v>472.440185546875</v>
       </c>
       <c r="DY3" t="n">
-        <v>476.9158325195312</v>
+        <v>472.3310852050781</v>
       </c>
       <c r="DZ3" t="n">
-        <v>478.2689208984375</v>
+        <v>472.2787170410156</v>
       </c>
       <c r="EA3" t="n">
-        <v>478.5988159179688</v>
+        <v>472.1273803710938</v>
       </c>
       <c r="EB3" t="n">
-        <v>480.2978820800781</v>
+        <v>472.1725463867188</v>
       </c>
       <c r="EC3" t="n">
-        <v>480.945556640625</v>
+        <v>472.1669921875</v>
       </c>
       <c r="ED3" t="n">
-        <v>481.2083740234375</v>
+        <v>472.1352233886719</v>
       </c>
       <c r="EE3" t="n">
-        <v>481.7392272949219</v>
+        <v>472.156005859375</v>
       </c>
       <c r="EF3" t="n">
-        <v>482.803466796875</v>
+        <v>472.1960754394531</v>
       </c>
       <c r="EG3" t="n">
-        <v>484.3471069335938</v>
+        <v>472.2033386230469</v>
       </c>
       <c r="EH3" t="n">
-        <v>484.107177734375</v>
+        <v>472.1764221191406</v>
       </c>
       <c r="EI3" t="n">
-        <v>483.6059265136719</v>
+        <v>472.2433776855469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>483.7044982910156</v>
+        <v>472.3509826660156</v>
       </c>
       <c r="EK3" t="n">
-        <v>486.3843688964844</v>
+        <v>471.8611450195312</v>
       </c>
       <c r="EL3" t="n">
-        <v>488.8815307617188</v>
+        <v>472.0828247070312</v>
       </c>
       <c r="EM3" t="n">
-        <v>497.3634338378906</v>
+        <v>471.9147644042969</v>
       </c>
       <c r="EN3" t="n">
-        <v>499.987060546875</v>
+        <v>471.992431640625</v>
       </c>
       <c r="EO3" t="n">
-        <v>510.6991882324219</v>
+        <v>472.042236328125</v>
       </c>
       <c r="EP3" t="n">
-        <v>515.9637451171875</v>
+        <v>472.2157592773438</v>
       </c>
       <c r="EQ3" t="n">
-        <v>525.0653686523438</v>
+        <v>472.560791015625</v>
       </c>
       <c r="ER3" t="n">
-        <v>526.3455810546875</v>
+        <v>472.7166442871094</v>
       </c>
       <c r="ES3" t="n">
-        <v>529.439697265625</v>
+        <v>472.6655578613281</v>
       </c>
       <c r="ET3" t="n">
-        <v>532.3580322265625</v>
+        <v>472.6737365722656</v>
       </c>
       <c r="EU3" t="n">
-        <v>531.9155883789062</v>
+        <v>472.7389831542969</v>
       </c>
       <c r="EV3" t="n">
-        <v>527.90966796875</v>
+        <v>472.7928771972656</v>
       </c>
       <c r="EW3" t="n">
-        <v>535.744140625</v>
+        <v>473.0675964355469</v>
       </c>
       <c r="EX3" t="n">
-        <v>538.33349609375</v>
+        <v>473.4227905273438</v>
       </c>
       <c r="EY3" t="n">
-        <v>536.8092651367188</v>
+        <v>473.359130859375</v>
       </c>
       <c r="EZ3" t="n">
-        <v>533.2630615234375</v>
+        <v>473.1991271972656</v>
       </c>
       <c r="FA3" t="n">
-        <v>544.3056030273438</v>
+        <v>473.0460205078125</v>
       </c>
       <c r="FB3" t="n">
-        <v>549.6535034179688</v>
+        <v>472.8098449707031</v>
       </c>
       <c r="FC3" t="n">
-        <v>553.063232421875</v>
+        <v>472.7590637207031</v>
       </c>
       <c r="FD3" t="n">
-        <v>561.7023315429688</v>
+        <v>472.7843933105469</v>
       </c>
       <c r="FE3" t="n">
-        <v>567.717529296875</v>
+        <v>472.800048828125</v>
       </c>
       <c r="FF3" t="n">
-        <v>570.8165283203125</v>
+        <v>472.8522644042969</v>
       </c>
       <c r="FG3" t="n">
-        <v>573.2164306640625</v>
+        <v>472.9469299316406</v>
       </c>
       <c r="FH3" t="n">
-        <v>577.5706176757812</v>
+        <v>472.9767761230469</v>
       </c>
       <c r="FI3" t="n">
-        <v>580.017578125</v>
+        <v>472.9959106445312</v>
       </c>
       <c r="FJ3" t="n">
-        <v>587.3984375</v>
+        <v>473.0029296875</v>
       </c>
       <c r="FK3" t="n">
-        <v>602.2938842773438</v>
+        <v>472.9687194824219</v>
       </c>
       <c r="FL3" t="n">
-        <v>635.6650390625</v>
+        <v>472.8535461425781</v>
       </c>
       <c r="FM3" t="n">
-        <v>632.9055786132812</v>
+        <v>472.6664123535156</v>
       </c>
       <c r="FN3" t="n">
-        <v>639.9478149414062</v>
+        <v>472.3842468261719</v>
       </c>
       <c r="FO3" t="n">
-        <v>658.5148315429688</v>
+        <v>472.3685607910156</v>
       </c>
       <c r="FP3" t="n">
-        <v>687.17822265625</v>
+        <v>472.3132629394531</v>
       </c>
       <c r="FQ3" t="n">
-        <v>697.46044921875</v>
+        <v>472.2570190429688</v>
       </c>
       <c r="FR3" t="n">
-        <v>700.3451538085938</v>
+        <v>472.2939453125</v>
       </c>
       <c r="FS3" t="n">
-        <v>672.6260375976562</v>
+        <v>472.3480529785156</v>
       </c>
       <c r="FT3" t="n">
-        <v>651.88134765625</v>
+        <v>472.2872619628906</v>
       </c>
       <c r="FU3" t="n">
-        <v>647.5625610351562</v>
+        <v>472.1549987792969</v>
       </c>
       <c r="FV3" t="n">
-        <v>657.453857421875</v>
+        <v>472.1036682128906</v>
       </c>
       <c r="FW3" t="n">
-        <v>659.8956909179688</v>
+        <v>472.0184936523438</v>
       </c>
       <c r="FX3" t="n">
-        <v>665.4901123046875</v>
+        <v>472.0458679199219</v>
       </c>
       <c r="FY3" t="n">
-        <v>667.63037109375</v>
+        <v>473.0063781738281</v>
       </c>
       <c r="FZ3" t="n">
-        <v>668.4482421875</v>
+        <v>473.2042846679688</v>
       </c>
       <c r="GA3" t="n">
-        <v>674.4508666992188</v>
+        <v>473.7904968261719</v>
       </c>
       <c r="GB3" t="n">
-        <v>671.46875</v>
+        <v>473.5490112304688</v>
       </c>
       <c r="GC3" t="n">
-        <v>692.952392578125</v>
+        <v>472.84326171875</v>
       </c>
       <c r="GD3" t="n">
-        <v>663.0706787109375</v>
+        <v>472.3696899414062</v>
       </c>
       <c r="GE3" t="n">
-        <v>685.8851318359375</v>
+        <v>472.3250732421875</v>
       </c>
       <c r="GF3" t="n">
-        <v>700.7444458007812</v>
+        <v>472.3550415039062</v>
       </c>
       <c r="GG3" t="n">
-        <v>708.17626953125</v>
+        <v>472.5499572753906</v>
       </c>
       <c r="GH3" t="n">
-        <v>798.6594848632812</v>
+        <v>472.9913024902344</v>
       </c>
       <c r="GI3" t="n">
-        <v>783.443359375</v>
+        <v>473.368408203125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>767.00048828125</v>
+        <v>473.6969604492188</v>
       </c>
       <c r="GK3" t="n">
-        <v>838.0439453125</v>
+        <v>473.8070068359375</v>
       </c>
       <c r="GL3" t="n">
-        <v>829.2994384765625</v>
+        <v>473.7491149902344</v>
       </c>
       <c r="GM3" t="n">
-        <v>847.2186889648438</v>
+        <v>473.5313110351562</v>
       </c>
       <c r="GN3" t="n">
-        <v>820.516845703125</v>
+        <v>473.4808044433594</v>
       </c>
       <c r="GO3" t="n">
-        <v>809.3653564453125</v>
+        <v>473.4293823242188</v>
       </c>
       <c r="GP3" t="n">
-        <v>864.356201171875</v>
+        <v>473.4180603027344</v>
       </c>
       <c r="GQ3" t="n">
-        <v>852.424560546875</v>
+        <v>473.4046630859375</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>473.4090881347656</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>473.1902160644531</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>473.1480407714844</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>473.103759765625</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>472.9399108886719</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>473.0106506347656</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>473.0056457519531</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>472.9590759277344</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>473.1958923339844</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>473.4854431152344</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>473.4461059570312</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>473.4093933105469</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>473.3592834472656</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>473.4391479492188</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>473.7244873046875</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>474.1091003417969</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>474.320556640625</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>474.1326293945312</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>473.9371337890625</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>473.903076171875</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>473.8832397460938</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>473.8855590820312</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>473.697509765625</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>473.7802429199219</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>474.1165466308594</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>474.4920043945312</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>474.289794921875</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>474.1898498535156</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>473.9822082519531</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>473.8276977539062</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>473.7974548339844</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>473.5156555175781</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>473.414306640625</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>473.1699523925781</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>473.2287902832031</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>473.2226257324219</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>473.2159729003906</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>473.276611328125</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>473.2738342285156</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>473.2133483886719</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>473.1543579101562</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>473.1345825195312</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>473.1128540039062</v>
+      </c>
+      <c r="II3" t="n">
+        <v>473.1063232421875</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>473.1009216308594</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>473.1198120117188</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>473.0743408203125</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>473.2218627929688</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>473.5255737304688</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>473.3927307128906</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>473.4582214355469</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>473.479248046875</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>473.4281311035156</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>473.5577392578125</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>473.5169677734375</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>473.4410705566406</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>473.9402160644531</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>473.529541015625</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>472.6829223632812</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>472.7976684570312</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>472.9750061035156</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>472.9192504882812</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>472.9261474609375</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>472.9602966308594</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>473.0041809082031</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>473.1476135253906</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>473.1978454589844</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>473.2198486328125</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>473.2183227539062</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>473.2867736816406</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>473.3699340820312</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>473.2348022460938</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>473.1554870605469</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>473.1727600097656</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>473.1592407226562</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>473.3018798828125</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>473.434814453125</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>473.6099548339844</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>474.1802062988281</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>474.6286010742188</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>474.8431091308594</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>474.5462341308594</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>474.6331176757812</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>474.5027160644531</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>473.8330383300781</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>472.5186462402344</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>473.7673645019531</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>474.9064636230469</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>475.7312316894531</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>475.6310424804688</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>474.3482971191406</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>473.8745422363281</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>472.534423828125</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>472.3453063964844</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>472.8619079589844</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>475.430419921875</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>476.6457824707031</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>476.0333557128906</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>483.7327270507812</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>491.9830932617188</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>499.5998840332031</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>507.2747192382812</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>508.9774169921875</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>517.7916870117188</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>518.0237426757812</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>503.5266418457031</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>517.7098999023438</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>545.0555419921875</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>550.0404052734375</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>557.7218627929688</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>563.1704711914062</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>575.6818237304688</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>580.4248046875</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>591.056640625</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>593.7196044921875</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>597.178955078125</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>599.4354858398438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1181.891967773438</v>
+        <v>871.674560546875</v>
       </c>
       <c r="B4" t="n">
-        <v>1190.514770507812</v>
+        <v>940.9132690429688</v>
       </c>
       <c r="C4" t="n">
-        <v>1201.87841796875</v>
+        <v>969.0177001953125</v>
       </c>
       <c r="D4" t="n">
-        <v>1209.5673828125</v>
+        <v>1004.855285644531</v>
       </c>
       <c r="E4" t="n">
-        <v>1214.3017578125</v>
+        <v>1029.936889648438</v>
       </c>
       <c r="F4" t="n">
-        <v>1221.083740234375</v>
+        <v>1056.289184570312</v>
       </c>
       <c r="G4" t="n">
-        <v>1221.199340820312</v>
+        <v>1066.0546875</v>
       </c>
       <c r="H4" t="n">
-        <v>1221.575317382812</v>
+        <v>1089.650268554688</v>
       </c>
       <c r="I4" t="n">
-        <v>1220.666748046875</v>
+        <v>1117.8818359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1220.57421875</v>
+        <v>1145.07861328125</v>
       </c>
       <c r="K4" t="n">
-        <v>1221.8017578125</v>
+        <v>1183.6416015625</v>
       </c>
       <c r="L4" t="n">
-        <v>1226.209228515625</v>
+        <v>1213.175537109375</v>
       </c>
       <c r="M4" t="n">
-        <v>1244.287109375</v>
+        <v>1244.601440429688</v>
       </c>
       <c r="N4" t="n">
-        <v>1264.763916015625</v>
+        <v>1278.817260742188</v>
       </c>
       <c r="O4" t="n">
-        <v>1281.216186523438</v>
+        <v>1309.19873046875</v>
       </c>
       <c r="P4" t="n">
-        <v>1294.372314453125</v>
+        <v>1335.474975585938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1303.100708007812</v>
+        <v>1360.213012695312</v>
       </c>
       <c r="R4" t="n">
-        <v>1314.431884765625</v>
+        <v>1149.711059570312</v>
       </c>
       <c r="S4" t="n">
-        <v>1314.113891601562</v>
+        <v>1181.212768554688</v>
       </c>
       <c r="T4" t="n">
-        <v>1315.7646484375</v>
+        <v>1222.954833984375</v>
       </c>
       <c r="U4" t="n">
-        <v>1317.512329101562</v>
+        <v>1269.5458984375</v>
       </c>
       <c r="V4" t="n">
-        <v>1319.939331054688</v>
+        <v>1307.116455078125</v>
       </c>
       <c r="W4" t="n">
-        <v>1324.1669921875</v>
+        <v>1343.708129882812</v>
       </c>
       <c r="X4" t="n">
-        <v>1335.727172851562</v>
+        <v>1387.657348632812</v>
       </c>
       <c r="Y4" t="n">
-        <v>1350.0888671875</v>
+        <v>1450.574340820312</v>
       </c>
       <c r="Z4" t="n">
-        <v>1362.977661132812</v>
+        <v>1488.855590820312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1375.032592773438</v>
+        <v>1546.93896484375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1381.048828125</v>
+        <v>1578.957763671875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1361.907104492188</v>
+        <v>1608.107421875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1340.829467773438</v>
+        <v>1641.10107421875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1332.93896484375</v>
+        <v>1658.073120117188</v>
       </c>
       <c r="AF4" t="n">
-        <v>1324.651245117188</v>
+        <v>1677.33203125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1317.11328125</v>
+        <v>1696.621704101562</v>
       </c>
       <c r="AH4" t="n">
-        <v>1315.56201171875</v>
+        <v>1712.484985351562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1312.90869140625</v>
+        <v>1744.76318359375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1309.55029296875</v>
+        <v>1768.434814453125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1304.44384765625</v>
+        <v>1787.146240234375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1299.617797851562</v>
+        <v>1791.876586914062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1293.191650390625</v>
+        <v>1807.3125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1288.18359375</v>
+        <v>1821.50634765625</v>
       </c>
       <c r="AO4" t="n">
-        <v>1288.322998046875</v>
+        <v>1825.368408203125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1288.176635742188</v>
+        <v>1824.596801757812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1287.782836914062</v>
+        <v>1822.020874023438</v>
       </c>
       <c r="AR4" t="n">
-        <v>1286.6953125</v>
+        <v>1821.479614257812</v>
       </c>
       <c r="AS4" t="n">
-        <v>1285.785766601562</v>
+        <v>1822.855346679688</v>
       </c>
       <c r="AT4" t="n">
-        <v>1281.715087890625</v>
+        <v>1822.813232421875</v>
       </c>
       <c r="AU4" t="n">
-        <v>1269.93115234375</v>
+        <v>1822.458740234375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1253.399536132812</v>
+        <v>1822.176025390625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1246.228637695312</v>
+        <v>1819.932006835938</v>
       </c>
       <c r="AX4" t="n">
-        <v>1246.014526367188</v>
+        <v>1814.716674804688</v>
       </c>
       <c r="AY4" t="n">
-        <v>1247.885131835938</v>
+        <v>1809.072265625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1252.69677734375</v>
+        <v>1810.753784179688</v>
       </c>
       <c r="BA4" t="n">
-        <v>1262.174926757812</v>
+        <v>1813.834716796875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1265.13330078125</v>
+        <v>1817.806274414062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1266.336791992188</v>
+        <v>1828.098999023438</v>
       </c>
       <c r="BD4" t="n">
-        <v>1266.637451171875</v>
+        <v>1837.254272460938</v>
       </c>
       <c r="BE4" t="n">
-        <v>1267.716064453125</v>
+        <v>1844.6650390625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1273.667358398438</v>
+        <v>1844.785034179688</v>
       </c>
       <c r="BG4" t="n">
-        <v>1290.781982421875</v>
+        <v>1845.369750976562</v>
       </c>
       <c r="BH4" t="n">
-        <v>1301.227905273438</v>
+        <v>1845.665649414062</v>
       </c>
       <c r="BI4" t="n">
-        <v>1302.346923828125</v>
+        <v>1845.329223632812</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1300.5087890625</v>
+        <v>1845.260986328125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1296.869995117188</v>
+        <v>1845.61767578125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1292.60302734375</v>
+        <v>1843.1552734375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1287.373657226562</v>
+        <v>1841.557495117188</v>
       </c>
       <c r="BN4" t="n">
-        <v>1285.724609375</v>
+        <v>1840.447998046875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1283.976318359375</v>
+        <v>1839.478515625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1283.92138671875</v>
+        <v>1838.817993164062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1283.9296875</v>
+        <v>1837.16943359375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1283.935180664062</v>
+        <v>1835.738403320312</v>
       </c>
       <c r="BS4" t="n">
-        <v>1283.858764648438</v>
+        <v>1835.084350585938</v>
       </c>
       <c r="BT4" t="n">
-        <v>1283.97314453125</v>
+        <v>1834.659423828125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1284.005126953125</v>
+        <v>1833.10791015625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1284.08740234375</v>
+        <v>1830.60595703125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1284.256469726562</v>
+        <v>1826.455200195312</v>
       </c>
       <c r="BX4" t="n">
-        <v>1284.897705078125</v>
+        <v>1822.891967773438</v>
       </c>
       <c r="BY4" t="n">
-        <v>1285.627807617188</v>
+        <v>1816.961669921875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1286.701171875</v>
+        <v>1814.651123046875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1287.846923828125</v>
+        <v>1810.937622070312</v>
       </c>
       <c r="CB4" t="n">
-        <v>1289.061157226562</v>
+        <v>1811.224609375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1289.783447265625</v>
+        <v>1811.07470703125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1289.66015625</v>
+        <v>1810.6904296875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1289.551025390625</v>
+        <v>1809.908935546875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1289.384521484375</v>
+        <v>1809.998168945312</v>
       </c>
       <c r="CG4" t="n">
-        <v>1289.143676757812</v>
+        <v>1809.95654296875</v>
       </c>
       <c r="CH4" t="n">
-        <v>1289.001708984375</v>
+        <v>1809.760375976562</v>
       </c>
       <c r="CI4" t="n">
-        <v>1288.677734375</v>
+        <v>1809.305786132812</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1288.501708984375</v>
+        <v>1809.034057617188</v>
       </c>
       <c r="CK4" t="n">
-        <v>1288.259521484375</v>
+        <v>1808.306274414062</v>
       </c>
       <c r="CL4" t="n">
-        <v>1287.166748046875</v>
+        <v>1808.634765625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1286.759887695312</v>
+        <v>1809.744140625</v>
       </c>
       <c r="CN4" t="n">
-        <v>1286.905883789062</v>
+        <v>1810.0419921875</v>
       </c>
       <c r="CO4" t="n">
-        <v>1286.83544921875</v>
+        <v>1810.724853515625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1286.756103515625</v>
+        <v>1810.198852539062</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1286.685302734375</v>
+        <v>1810.2333984375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1286.603393554688</v>
+        <v>1809.74951171875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1286.561767578125</v>
+        <v>1809.80224609375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1286.335815429688</v>
+        <v>1809.826782226562</v>
       </c>
       <c r="CU4" t="n">
-        <v>1285.8193359375</v>
+        <v>1809.724731445312</v>
       </c>
       <c r="CV4" t="n">
-        <v>1285.08984375</v>
+        <v>1809.328979492188</v>
       </c>
       <c r="CW4" t="n">
-        <v>1284.509765625</v>
+        <v>1809.892944335938</v>
       </c>
       <c r="CX4" t="n">
-        <v>1284.353393554688</v>
+        <v>1810.480590820312</v>
       </c>
       <c r="CY4" t="n">
-        <v>1284.579345703125</v>
+        <v>1810.60693359375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1285.023681640625</v>
+        <v>1810.685302734375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1285.96484375</v>
+        <v>1811.28564453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1288.058227539062</v>
+        <v>1813.4208984375</v>
       </c>
       <c r="DC4" t="n">
-        <v>1290.743774414062</v>
+        <v>1814.723266601562</v>
       </c>
       <c r="DD4" t="n">
-        <v>1293.973754882812</v>
+        <v>1816.133056640625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1296.603271484375</v>
+        <v>1818.378173828125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1300.43408203125</v>
+        <v>1820.71240234375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1085.093994140625</v>
+        <v>1823.548461914062</v>
       </c>
       <c r="DH4" t="n">
-        <v>1079.054931640625</v>
+        <v>1822.866577148438</v>
       </c>
       <c r="DI4" t="n">
-        <v>1074.129638671875</v>
+        <v>1821.762084960938</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1141.402099609375</v>
+        <v>1821.812744140625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1119.971557617188</v>
+        <v>1822.518920898438</v>
       </c>
       <c r="DL4" t="n">
-        <v>1103.654296875</v>
+        <v>1821.273315429688</v>
       </c>
       <c r="DM4" t="n">
-        <v>1270.164428710938</v>
+        <v>1820.624755859375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1265.590209960938</v>
+        <v>1820.470703125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1263.916748046875</v>
+        <v>1820.888671875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1266.319946289062</v>
+        <v>1820.705932617188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1267.208129882812</v>
+        <v>1820.681030273438</v>
       </c>
       <c r="DR4" t="n">
-        <v>1266.703735351562</v>
+        <v>1820.605712890625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1267.494750976562</v>
+        <v>1820.473022460938</v>
       </c>
       <c r="DT4" t="n">
-        <v>1268.395751953125</v>
+        <v>1819.418579101562</v>
       </c>
       <c r="DU4" t="n">
-        <v>1270.43115234375</v>
+        <v>1819.18505859375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1094.045166015625</v>
+        <v>1819.61865234375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1099.706909179688</v>
+        <v>1819.631225585938</v>
       </c>
       <c r="DX4" t="n">
-        <v>1095.7294921875</v>
+        <v>1820.615844726562</v>
       </c>
       <c r="DY4" t="n">
-        <v>1088.063720703125</v>
+        <v>1820.429077148438</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1081.477905273438</v>
+        <v>1820.398681640625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1076.691162109375</v>
+        <v>1820.699462890625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1063.8330078125</v>
+        <v>1820.622680664062</v>
       </c>
       <c r="EC4" t="n">
-        <v>1057.213134765625</v>
+        <v>1820.51171875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1043.363891601562</v>
+        <v>1820.15576171875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1042.09619140625</v>
+        <v>1819.304077148438</v>
       </c>
       <c r="EF4" t="n">
-        <v>1037.039184570312</v>
+        <v>1819.261108398438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1014.940612792969</v>
+        <v>1819.65380859375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1016.979125976562</v>
+        <v>1820.038452148438</v>
       </c>
       <c r="EI4" t="n">
-        <v>1023.428405761719</v>
+        <v>1821.196899414062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1030.024536132812</v>
+        <v>1820.361450195312</v>
       </c>
       <c r="EK4" t="n">
-        <v>1059.068115234375</v>
+        <v>1821.212890625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1067.329833984375</v>
+        <v>1820.839599609375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1061.068603515625</v>
+        <v>1821.197021484375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1052.13671875</v>
+        <v>1821.142211914062</v>
       </c>
       <c r="EO4" t="n">
-        <v>1008.576477050781</v>
+        <v>1821.095825195312</v>
       </c>
       <c r="EP4" t="n">
-        <v>992.1490478515625</v>
+        <v>1820.969848632812</v>
       </c>
       <c r="EQ4" t="n">
-        <v>959.522216796875</v>
+        <v>1819.595458984375</v>
       </c>
       <c r="ER4" t="n">
-        <v>947.0081176757812</v>
+        <v>1819.30908203125</v>
       </c>
       <c r="ES4" t="n">
-        <v>886.6170654296875</v>
+        <v>1819.317626953125</v>
       </c>
       <c r="ET4" t="n">
-        <v>860.1985473632812</v>
+        <v>1820.306518554688</v>
       </c>
       <c r="EU4" t="n">
-        <v>841.121337890625</v>
+        <v>1820.029296875</v>
       </c>
       <c r="EV4" t="n">
-        <v>841.6205444335938</v>
+        <v>1820.005981445312</v>
       </c>
       <c r="EW4" t="n">
-        <v>815.7825317382812</v>
+        <v>1819.986694335938</v>
       </c>
       <c r="EX4" t="n">
-        <v>790.0919799804688</v>
+        <v>1819.925537109375</v>
       </c>
       <c r="EY4" t="n">
-        <v>724.4420166015625</v>
+        <v>1820.1015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1003.911865234375</v>
+        <v>1820.336181640625</v>
       </c>
       <c r="FA4" t="n">
-        <v>976.7182006835938</v>
+        <v>1820.378173828125</v>
       </c>
       <c r="FB4" t="n">
-        <v>958.6126098632812</v>
+        <v>1820.4130859375</v>
       </c>
       <c r="FC4" t="n">
-        <v>933.604248046875</v>
+        <v>1820.222900390625</v>
       </c>
       <c r="FD4" t="n">
-        <v>916.0487060546875</v>
+        <v>1819.906616210938</v>
       </c>
       <c r="FE4" t="n">
-        <v>900.9074096679688</v>
+        <v>1819.862548828125</v>
       </c>
       <c r="FF4" t="n">
-        <v>895.2750244140625</v>
+        <v>1819.046752929688</v>
       </c>
       <c r="FG4" t="n">
-        <v>892.9979248046875</v>
+        <v>1817.73486328125</v>
       </c>
       <c r="FH4" t="n">
-        <v>903.6600952148438</v>
+        <v>1817.673828125</v>
       </c>
       <c r="FI4" t="n">
-        <v>908.0089721679688</v>
+        <v>1816.04443359375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>912.9945678710938</v>
+        <v>1815.980834960938</v>
       </c>
       <c r="FK4" t="n">
-        <v>907.6928100585938</v>
+        <v>1816.0888671875</v>
       </c>
       <c r="FL4" t="n">
-        <v>878.40625</v>
+        <v>1816.114379882812</v>
       </c>
       <c r="FM4" t="n">
-        <v>870.605712890625</v>
+        <v>1816.210083007812</v>
       </c>
       <c r="FN4" t="n">
-        <v>869.5809326171875</v>
+        <v>1816.669555664062</v>
       </c>
       <c r="FO4" t="n">
-        <v>866.7398681640625</v>
+        <v>1816.834228515625</v>
       </c>
       <c r="FP4" t="n">
-        <v>866.4505004882812</v>
+        <v>1816.8759765625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>858.4464721679688</v>
+        <v>1817.004516601562</v>
       </c>
       <c r="FR4" t="n">
-        <v>864.7928466796875</v>
+        <v>1816.935791015625</v>
       </c>
       <c r="FS4" t="n">
-        <v>884.5813598632812</v>
+        <v>1816.549194335938</v>
       </c>
       <c r="FT4" t="n">
-        <v>902.71240234375</v>
+        <v>1815.947021484375</v>
       </c>
       <c r="FU4" t="n">
-        <v>891.7111206054688</v>
+        <v>1816.236572265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>870.4273681640625</v>
+        <v>1816.25830078125</v>
       </c>
       <c r="FW4" t="n">
-        <v>865.1555786132812</v>
+        <v>1815.809448242188</v>
       </c>
       <c r="FX4" t="n">
-        <v>869.537109375</v>
+        <v>1815.999755859375</v>
       </c>
       <c r="FY4" t="n">
-        <v>870.8694458007812</v>
+        <v>1814.542846679688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>874.3450927734375</v>
+        <v>1814.802734375</v>
       </c>
       <c r="GA4" t="n">
-        <v>884.3967895507812</v>
+        <v>1815.029052734375</v>
       </c>
       <c r="GB4" t="n">
-        <v>871.875244140625</v>
+        <v>1814.65771484375</v>
       </c>
       <c r="GC4" t="n">
-        <v>809.582763671875</v>
+        <v>1816.287231445312</v>
       </c>
       <c r="GD4" t="n">
-        <v>838.2713623046875</v>
+        <v>1817.146118164062</v>
       </c>
       <c r="GE4" t="n">
-        <v>824.1638793945312</v>
+        <v>1817.500610351562</v>
       </c>
       <c r="GF4" t="n">
-        <v>817.7162475585938</v>
+        <v>1817.447875976562</v>
       </c>
       <c r="GG4" t="n">
-        <v>833.0916137695312</v>
+        <v>1817.088500976562</v>
       </c>
       <c r="GH4" t="n">
-        <v>744.7943725585938</v>
+        <v>1816.324340820312</v>
       </c>
       <c r="GI4" t="n">
-        <v>714.414794921875</v>
+        <v>1815.8173828125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>779.4696655273438</v>
+        <v>1815.729614257812</v>
       </c>
       <c r="GK4" t="n">
-        <v>665.2694091796875</v>
+        <v>1815.418090820312</v>
       </c>
       <c r="GL4" t="n">
-        <v>686.2300415039062</v>
+        <v>1815.221435546875</v>
       </c>
       <c r="GM4" t="n">
-        <v>650.1651000976562</v>
+        <v>1815.276611328125</v>
       </c>
       <c r="GN4" t="n">
-        <v>700.0565185546875</v>
+        <v>1815.674072265625</v>
       </c>
       <c r="GO4" t="n">
-        <v>735.93115234375</v>
+        <v>1816.340942382812</v>
       </c>
       <c r="GP4" t="n">
-        <v>651.7312622070312</v>
+        <v>1816.347045898438</v>
       </c>
       <c r="GQ4" t="n">
-        <v>656.8370971679688</v>
+        <v>1815.294799804688</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1814.695068359375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1813.435180664062</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1814.653564453125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1814.797485351562</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1815.0341796875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1814.917236328125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1814.800537109375</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1814.314086914062</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1813.930786132812</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1813.251586914062</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1813.380737304688</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1813.270263671875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1813.352294921875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1813.253295898438</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1812.828857421875</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1812.647338867188</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1812.4150390625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1812.514770507812</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1812.88525390625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1812.92041015625</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1813.284790039062</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1814.043212890625</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1815.64013671875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1815.602905273438</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1815.162231445312</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1814.67626953125</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1814.988037109375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1813.420166015625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1813.931884765625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1814.393798828125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1814.224853515625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1815.332153320312</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1815.191162109375</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1815.166870117188</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1815.266845703125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1815.37548828125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1815.359130859375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1814.8095703125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1813.517456054688</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1813.239501953125</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1812.859741210938</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1812.89501953125</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1813.318359375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1813.31103515625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1813.374267578125</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1813.243408203125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1813.350952148438</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1812.275024414062</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1811.239868164062</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1811.09326171875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1811.122802734375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1811.0029296875</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1811.728881835938</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1812.96044921875</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1812.964477539062</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1812.987670898438</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1812.0888671875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1812.7802734375</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1814.1826171875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1814.027465820312</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1813.905517578125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1813.880493164062</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1812.814453125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1812.142211914062</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1811.2783203125</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1808.92236328125</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1808.541381835938</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1808.23583984375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1808.275390625</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1808.309326171875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1808.13623046875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1808.727905273438</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1811.283569335938</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1810.372436523438</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1810.103759765625</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1809.83203125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1810.224731445312</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1810.408447265625</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1809.560424804688</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1808.913940429688</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1809.2861328125</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1809.95751953125</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1809.851684570312</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1810.060302734375</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1810.971557617188</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1810.687255859375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1810.962768554688</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1809.33984375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1807.473266601562</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1806.607788085938</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1813.82568359375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1808.51025390625</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1802.102783203125</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1784.123413085938</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1753.868530273438</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1736.639282226562</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1705.604736328125</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1676.15966796875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1630.91943359375</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1573.556762695312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1501.730224609375</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1403.071655273438</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1324.661743164062</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1259.216430664062</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1144.28564453125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>998.43359375</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>955.9086303710938</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>910.9492797851562</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>829.79833984375</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>774.536376953125</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>782.3912353515625</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1018.265563964844</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>997.4293823242188</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>958.8837890625</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>952.72509765625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>939.7288818359375</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>933.9094848632812</v>
       </c>
     </row>
   </sheetData>

--- a/right_knee_Data.xlsx
+++ b/right_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>305.3699951171875</v>
+        <v>233.1322631835938</v>
       </c>
       <c r="B2" t="n">
-        <v>271.8698120117188</v>
+        <v>236.4584655761719</v>
       </c>
       <c r="C2" t="n">
-        <v>278.2648315429688</v>
+        <v>239.9947509765625</v>
       </c>
       <c r="D2" t="n">
-        <v>285.5160217285156</v>
+        <v>242.9183197021484</v>
       </c>
       <c r="E2" t="n">
-        <v>281.4942932128906</v>
+        <v>245.7327423095703</v>
       </c>
       <c r="F2" t="n">
-        <v>279.0200500488281</v>
+        <v>248.4462280273438</v>
       </c>
       <c r="G2" t="n">
-        <v>280.0264587402344</v>
+        <v>250.4050598144531</v>
       </c>
       <c r="H2" t="n">
-        <v>281.4436950683594</v>
+        <v>253.5424041748047</v>
       </c>
       <c r="I2" t="n">
-        <v>284.0674133300781</v>
+        <v>256.0462036132812</v>
       </c>
       <c r="J2" t="n">
-        <v>283.0942077636719</v>
+        <v>257.8853149414062</v>
       </c>
       <c r="K2" t="n">
-        <v>284.5621948242188</v>
+        <v>258.6502990722656</v>
       </c>
       <c r="L2" t="n">
-        <v>288.3085021972656</v>
+        <v>258.5497131347656</v>
       </c>
       <c r="M2" t="n">
-        <v>291.4244384765625</v>
+        <v>255.9114074707031</v>
       </c>
       <c r="N2" t="n">
-        <v>292.8991394042969</v>
+        <v>254.5875549316406</v>
       </c>
       <c r="O2" t="n">
-        <v>294.5858154296875</v>
+        <v>254.3948669433594</v>
       </c>
       <c r="P2" t="n">
-        <v>295.9119873046875</v>
+        <v>255.3536071777344</v>
       </c>
       <c r="Q2" t="n">
-        <v>296.4253845214844</v>
+        <v>256.338134765625</v>
       </c>
       <c r="R2" t="n">
-        <v>286.6005554199219</v>
+        <v>257.5943603515625</v>
       </c>
       <c r="S2" t="n">
-        <v>289.041259765625</v>
+        <v>259.5267333984375</v>
       </c>
       <c r="T2" t="n">
-        <v>290.7857055664062</v>
+        <v>261.5538024902344</v>
       </c>
       <c r="U2" t="n">
-        <v>291.2977905273438</v>
+        <v>263.4330749511719</v>
       </c>
       <c r="V2" t="n">
-        <v>291.1900634765625</v>
+        <v>264.2422485351562</v>
       </c>
       <c r="W2" t="n">
-        <v>290.697998046875</v>
+        <v>264.8612060546875</v>
       </c>
       <c r="X2" t="n">
-        <v>291.6843872070312</v>
+        <v>266.1418151855469</v>
       </c>
       <c r="Y2" t="n">
-        <v>292.9628601074219</v>
+        <v>264.0702819824219</v>
       </c>
       <c r="Z2" t="n">
-        <v>294.2622680664062</v>
+        <v>265.6077880859375</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.2294616699219</v>
+        <v>268.1456298828125</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.9754943847656</v>
+        <v>273.3180847167969</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.1553649902344</v>
+        <v>283.7702941894531</v>
       </c>
       <c r="AD2" t="n">
-        <v>293.268310546875</v>
+        <v>289.0250549316406</v>
       </c>
       <c r="AE2" t="n">
-        <v>289.8857727050781</v>
+        <v>290.5006713867188</v>
       </c>
       <c r="AF2" t="n">
-        <v>293.0199279785156</v>
+        <v>290.0586853027344</v>
       </c>
       <c r="AG2" t="n">
-        <v>297.7903747558594</v>
+        <v>290.2306213378906</v>
       </c>
       <c r="AH2" t="n">
-        <v>298.6431579589844</v>
+        <v>290.7318725585938</v>
       </c>
       <c r="AI2" t="n">
-        <v>298.2093505859375</v>
+        <v>291.4643859863281</v>
       </c>
       <c r="AJ2" t="n">
-        <v>298.4372253417969</v>
+        <v>291.6964721679688</v>
       </c>
       <c r="AK2" t="n">
-        <v>298.5045166015625</v>
+        <v>291.8149108886719</v>
       </c>
       <c r="AL2" t="n">
-        <v>298.69873046875</v>
+        <v>292.0020446777344</v>
       </c>
       <c r="AM2" t="n">
-        <v>298.7861022949219</v>
+        <v>291.1221313476562</v>
       </c>
       <c r="AN2" t="n">
-        <v>298.8884582519531</v>
+        <v>289.7084350585938</v>
       </c>
       <c r="AO2" t="n">
-        <v>299.0982360839844</v>
+        <v>287.1513671875</v>
       </c>
       <c r="AP2" t="n">
-        <v>299.4493103027344</v>
+        <v>286.3804931640625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>300.2224426269531</v>
+        <v>287.7197570800781</v>
       </c>
       <c r="AR2" t="n">
-        <v>301.7824096679688</v>
+        <v>289.2238159179688</v>
       </c>
       <c r="AS2" t="n">
-        <v>303.8755187988281</v>
+        <v>289.6974182128906</v>
       </c>
       <c r="AT2" t="n">
-        <v>305.7523803710938</v>
+        <v>289.2755737304688</v>
       </c>
       <c r="AU2" t="n">
-        <v>306.0768127441406</v>
+        <v>286.3458251953125</v>
       </c>
       <c r="AV2" t="n">
-        <v>307.5836791992188</v>
+        <v>286.296142578125</v>
       </c>
       <c r="AW2" t="n">
-        <v>306.8156127929688</v>
+        <v>287.38623046875</v>
       </c>
       <c r="AX2" t="n">
-        <v>305.5468444824219</v>
+        <v>287.5660705566406</v>
       </c>
       <c r="AY2" t="n">
-        <v>305.1727600097656</v>
+        <v>286.9198303222656</v>
       </c>
       <c r="AZ2" t="n">
-        <v>305.1865539550781</v>
+        <v>282.6034545898438</v>
       </c>
       <c r="BA2" t="n">
-        <v>305.284423828125</v>
+        <v>281.6372680664062</v>
       </c>
       <c r="BB2" t="n">
-        <v>305.5280456542969</v>
+        <v>282.0656433105469</v>
       </c>
       <c r="BC2" t="n">
-        <v>305.8858337402344</v>
+        <v>282.0347595214844</v>
       </c>
       <c r="BD2" t="n">
-        <v>306.3211669921875</v>
+        <v>282.3286437988281</v>
       </c>
       <c r="BE2" t="n">
-        <v>306.5895080566406</v>
+        <v>282.4197387695312</v>
       </c>
       <c r="BF2" t="n">
-        <v>306.4353637695312</v>
+        <v>282.3205871582031</v>
       </c>
       <c r="BG2" t="n">
-        <v>306.2902221679688</v>
+        <v>282.5711059570312</v>
       </c>
       <c r="BH2" t="n">
-        <v>306.3538208007812</v>
+        <v>282.9855651855469</v>
       </c>
       <c r="BI2" t="n">
-        <v>306.3395080566406</v>
+        <v>283.5465698242188</v>
       </c>
       <c r="BJ2" t="n">
-        <v>306.345703125</v>
+        <v>285.7633056640625</v>
       </c>
       <c r="BK2" t="n">
-        <v>306.3461608886719</v>
+        <v>286.2821350097656</v>
       </c>
       <c r="BL2" t="n">
-        <v>306.4152526855469</v>
+        <v>286.9562683105469</v>
       </c>
       <c r="BM2" t="n">
-        <v>306.5177612304688</v>
+        <v>288.4106750488281</v>
       </c>
       <c r="BN2" t="n">
-        <v>306.6248474121094</v>
+        <v>289.3993225097656</v>
       </c>
       <c r="BO2" t="n">
-        <v>306.7077026367188</v>
+        <v>289.2227172851562</v>
       </c>
       <c r="BP2" t="n">
-        <v>306.7749328613281</v>
+        <v>289.2922668457031</v>
       </c>
       <c r="BQ2" t="n">
-        <v>306.843017578125</v>
+        <v>289.3090209960938</v>
       </c>
       <c r="BR2" t="n">
-        <v>306.9112243652344</v>
+        <v>289.5928955078125</v>
       </c>
       <c r="BS2" t="n">
-        <v>306.9630737304688</v>
+        <v>290.0001525878906</v>
       </c>
       <c r="BT2" t="n">
-        <v>307.0104370117188</v>
+        <v>290.6737060546875</v>
       </c>
       <c r="BU2" t="n">
-        <v>307.05029296875</v>
+        <v>291.3720703125</v>
       </c>
       <c r="BV2" t="n">
-        <v>307.1181640625</v>
+        <v>292.8598327636719</v>
       </c>
       <c r="BW2" t="n">
-        <v>307.1729125976562</v>
+        <v>293.02880859375</v>
       </c>
       <c r="BX2" t="n">
-        <v>307.2232360839844</v>
+        <v>292.9739685058594</v>
       </c>
       <c r="BY2" t="n">
-        <v>307.2614135742188</v>
+        <v>293.0592956542969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>307.3487854003906</v>
+        <v>292.8123474121094</v>
       </c>
       <c r="CA2" t="n">
-        <v>307.6270141601562</v>
+        <v>292.3320922851562</v>
       </c>
       <c r="CB2" t="n">
-        <v>307.6420288085938</v>
+        <v>291.41259765625</v>
       </c>
       <c r="CC2" t="n">
-        <v>307.6612854003906</v>
+        <v>290.4790344238281</v>
       </c>
       <c r="CD2" t="n">
-        <v>307.6754760742188</v>
+        <v>289.7391662597656</v>
       </c>
       <c r="CE2" t="n">
-        <v>307.6834106445312</v>
+        <v>289.9893188476562</v>
       </c>
       <c r="CF2" t="n">
-        <v>307.5937805175781</v>
+        <v>290.2363586425781</v>
       </c>
       <c r="CG2" t="n">
-        <v>307.5123596191406</v>
+        <v>290.6437683105469</v>
       </c>
       <c r="CH2" t="n">
-        <v>307.4210815429688</v>
+        <v>290.3215637207031</v>
       </c>
       <c r="CI2" t="n">
-        <v>307.3486938476562</v>
+        <v>290.154541015625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>307.3654479980469</v>
+        <v>290.010498046875</v>
       </c>
       <c r="CK2" t="n">
-        <v>307.3821411132812</v>
+        <v>288.9506225585938</v>
       </c>
       <c r="CL2" t="n">
-        <v>307.3778686523438</v>
+        <v>288.5042419433594</v>
       </c>
       <c r="CM2" t="n">
-        <v>307.3644104003906</v>
+        <v>288.7532958984375</v>
       </c>
       <c r="CN2" t="n">
-        <v>307.3355712890625</v>
+        <v>288.7496337890625</v>
       </c>
       <c r="CO2" t="n">
-        <v>307.2639770507812</v>
+        <v>288.73291015625</v>
       </c>
       <c r="CP2" t="n">
-        <v>307.2695007324219</v>
+        <v>288.6341857910156</v>
       </c>
       <c r="CQ2" t="n">
-        <v>307.2741088867188</v>
+        <v>288.5986633300781</v>
       </c>
       <c r="CR2" t="n">
-        <v>307.2883605957031</v>
+        <v>288.6241760253906</v>
       </c>
       <c r="CS2" t="n">
-        <v>307.2830505371094</v>
+        <v>288.4542541503906</v>
       </c>
       <c r="CT2" t="n">
-        <v>307.301025390625</v>
+        <v>288.1659240722656</v>
       </c>
       <c r="CU2" t="n">
-        <v>307.2774963378906</v>
+        <v>287.9884643554688</v>
       </c>
       <c r="CV2" t="n">
-        <v>307.273193359375</v>
+        <v>287.9521789550781</v>
       </c>
       <c r="CW2" t="n">
-        <v>307.1780090332031</v>
+        <v>287.9966125488281</v>
       </c>
       <c r="CX2" t="n">
-        <v>307.105712890625</v>
+        <v>287.8567810058594</v>
       </c>
       <c r="CY2" t="n">
-        <v>306.8153991699219</v>
+        <v>288.0285034179688</v>
       </c>
       <c r="CZ2" t="n">
-        <v>306.418212890625</v>
+        <v>288.0983276367188</v>
       </c>
       <c r="DA2" t="n">
-        <v>305.9002380371094</v>
+        <v>288.0935363769531</v>
       </c>
       <c r="DB2" t="n">
-        <v>305.4475708007812</v>
+        <v>288.1388854980469</v>
       </c>
       <c r="DC2" t="n">
-        <v>305.5041198730469</v>
+        <v>288.2015686035156</v>
       </c>
       <c r="DD2" t="n">
-        <v>305.4933776855469</v>
+        <v>288.6071472167969</v>
       </c>
       <c r="DE2" t="n">
-        <v>305.4703063964844</v>
+        <v>288.7648620605469</v>
       </c>
       <c r="DF2" t="n">
-        <v>305.4486999511719</v>
+        <v>288.880859375</v>
       </c>
       <c r="DG2" t="n">
-        <v>305.3968200683594</v>
+        <v>288.6100769042969</v>
       </c>
       <c r="DH2" t="n">
-        <v>305.3763122558594</v>
+        <v>288.7146301269531</v>
       </c>
       <c r="DI2" t="n">
-        <v>305.3599853515625</v>
+        <v>288.7589111328125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>305.3289184570312</v>
+        <v>288.7153015136719</v>
       </c>
       <c r="DK2" t="n">
-        <v>305.4060974121094</v>
+        <v>288.7269592285156</v>
       </c>
       <c r="DL2" t="n">
-        <v>304.7460021972656</v>
+        <v>288.7209777832031</v>
       </c>
       <c r="DM2" t="n">
-        <v>304.4795837402344</v>
+        <v>288.6989135742188</v>
       </c>
       <c r="DN2" t="n">
-        <v>304.1158447265625</v>
+        <v>288.7454223632812</v>
       </c>
       <c r="DO2" t="n">
-        <v>303.753173828125</v>
+        <v>288.7472534179688</v>
       </c>
       <c r="DP2" t="n">
-        <v>303.4839172363281</v>
+        <v>288.7522888183594</v>
       </c>
       <c r="DQ2" t="n">
-        <v>303.5364990234375</v>
+        <v>288.860107421875</v>
       </c>
       <c r="DR2" t="n">
-        <v>303.6754760742188</v>
+        <v>288.7196655273438</v>
       </c>
       <c r="DS2" t="n">
-        <v>303.8360595703125</v>
+        <v>288.7749328613281</v>
       </c>
       <c r="DT2" t="n">
-        <v>303.8817443847656</v>
+        <v>288.8063354492188</v>
       </c>
       <c r="DU2" t="n">
-        <v>303.8710021972656</v>
+        <v>288.7900085449219</v>
       </c>
       <c r="DV2" t="n">
-        <v>303.7021484375</v>
+        <v>288.7559814453125</v>
       </c>
       <c r="DW2" t="n">
-        <v>303.6143493652344</v>
+        <v>288.81396484375</v>
       </c>
       <c r="DX2" t="n">
-        <v>303.4486083984375</v>
+        <v>288.8157958984375</v>
       </c>
       <c r="DY2" t="n">
-        <v>303.1914672851562</v>
+        <v>288.8203735351562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>303.0592041015625</v>
+        <v>288.8501892089844</v>
       </c>
       <c r="EA2" t="n">
-        <v>303.2526550292969</v>
+        <v>288.8061828613281</v>
       </c>
       <c r="EB2" t="n">
-        <v>303.425048828125</v>
+        <v>288.7796630859375</v>
       </c>
       <c r="EC2" t="n">
-        <v>303.5803527832031</v>
+        <v>288.7937316894531</v>
       </c>
       <c r="ED2" t="n">
-        <v>303.661865234375</v>
+        <v>288.7785339355469</v>
       </c>
       <c r="EE2" t="n">
-        <v>303.6142883300781</v>
+        <v>288.5640258789062</v>
       </c>
       <c r="EF2" t="n">
-        <v>303.39892578125</v>
+        <v>288.6963806152344</v>
       </c>
       <c r="EG2" t="n">
-        <v>303.2774047851562</v>
+        <v>288.7225952148438</v>
       </c>
       <c r="EH2" t="n">
-        <v>303.5021362304688</v>
+        <v>288.7386779785156</v>
       </c>
       <c r="EI2" t="n">
-        <v>303.5882873535156</v>
+        <v>288.6156005859375</v>
       </c>
       <c r="EJ2" t="n">
-        <v>303.5355224609375</v>
+        <v>288.4609069824219</v>
       </c>
       <c r="EK2" t="n">
-        <v>303.2745666503906</v>
+        <v>288.3565979003906</v>
       </c>
       <c r="EL2" t="n">
-        <v>303.1712646484375</v>
+        <v>288.4066772460938</v>
       </c>
       <c r="EM2" t="n">
-        <v>303.2472839355469</v>
+        <v>288.4170227050781</v>
       </c>
       <c r="EN2" t="n">
-        <v>303.3259887695312</v>
+        <v>288.3868408203125</v>
       </c>
       <c r="EO2" t="n">
-        <v>303.2838134765625</v>
+        <v>288.3841247558594</v>
       </c>
       <c r="EP2" t="n">
-        <v>303.2962036132812</v>
+        <v>288.4080505371094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303.3077392578125</v>
+        <v>288.4052734375</v>
       </c>
       <c r="ER2" t="n">
-        <v>303.3117980957031</v>
+        <v>288.4247131347656</v>
       </c>
       <c r="ES2" t="n">
-        <v>303.3085021972656</v>
+        <v>288.4932861328125</v>
       </c>
       <c r="ET2" t="n">
-        <v>303.24462890625</v>
+        <v>288.475341796875</v>
       </c>
       <c r="EU2" t="n">
-        <v>303.2604064941406</v>
+        <v>288.4926452636719</v>
       </c>
       <c r="EV2" t="n">
-        <v>303.2620544433594</v>
+        <v>288.5547790527344</v>
       </c>
       <c r="EW2" t="n">
-        <v>303.27099609375</v>
+        <v>288.5145874023438</v>
       </c>
       <c r="EX2" t="n">
-        <v>303.3820495605469</v>
+        <v>288.4024963378906</v>
       </c>
       <c r="EY2" t="n">
-        <v>303.3688659667969</v>
+        <v>288.3925170898438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>303.3335876464844</v>
+        <v>288.5090942382812</v>
       </c>
       <c r="FA2" t="n">
-        <v>303.2883605957031</v>
+        <v>288.8558044433594</v>
       </c>
       <c r="FB2" t="n">
-        <v>303.2450561523438</v>
+        <v>289.0024719238281</v>
       </c>
       <c r="FC2" t="n">
-        <v>303.2571411132812</v>
+        <v>288.8838500976562</v>
       </c>
       <c r="FD2" t="n">
-        <v>303.3226623535156</v>
+        <v>289.0206909179688</v>
       </c>
       <c r="FE2" t="n">
-        <v>303.3208923339844</v>
+        <v>288.7249450683594</v>
       </c>
       <c r="FF2" t="n">
-        <v>303.3105163574219</v>
+        <v>288.9521789550781</v>
       </c>
       <c r="FG2" t="n">
-        <v>303.1715393066406</v>
+        <v>288.8987121582031</v>
       </c>
       <c r="FH2" t="n">
-        <v>303.0186157226562</v>
+        <v>288.9561157226562</v>
       </c>
       <c r="FI2" t="n">
-        <v>302.68603515625</v>
+        <v>288.8070068359375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>302.2362976074219</v>
+        <v>289.0530395507812</v>
       </c>
       <c r="FK2" t="n">
-        <v>302.0428161621094</v>
+        <v>288.9413452148438</v>
       </c>
       <c r="FL2" t="n">
-        <v>301.3060607910156</v>
+        <v>289.0775146484375</v>
       </c>
       <c r="FM2" t="n">
-        <v>301.4246520996094</v>
+        <v>288.9926452636719</v>
       </c>
       <c r="FN2" t="n">
-        <v>301.7083740234375</v>
+        <v>289.0014343261719</v>
       </c>
       <c r="FO2" t="n">
-        <v>301.6619262695312</v>
+        <v>289.0294494628906</v>
       </c>
       <c r="FP2" t="n">
-        <v>301.5396118164062</v>
+        <v>288.8967895507812</v>
       </c>
       <c r="FQ2" t="n">
-        <v>301.4562072753906</v>
+        <v>288.8916625976562</v>
       </c>
       <c r="FR2" t="n">
-        <v>301.4802551269531</v>
+        <v>288.8837890625</v>
       </c>
       <c r="FS2" t="n">
-        <v>301.4879455566406</v>
+        <v>288.8848266601562</v>
       </c>
       <c r="FT2" t="n">
-        <v>301.5086364746094</v>
+        <v>288.9788818359375</v>
       </c>
       <c r="FU2" t="n">
-        <v>301.4879760742188</v>
+        <v>288.7896423339844</v>
       </c>
       <c r="FV2" t="n">
-        <v>301.4838562011719</v>
+        <v>288.8104248046875</v>
       </c>
       <c r="FW2" t="n">
-        <v>301.4941101074219</v>
+        <v>288.8733520507812</v>
       </c>
       <c r="FX2" t="n">
-        <v>301.4929809570312</v>
+        <v>288.9436645507812</v>
       </c>
       <c r="FY2" t="n">
-        <v>301.6122131347656</v>
+        <v>288.8786926269531</v>
       </c>
       <c r="FZ2" t="n">
-        <v>301.6610717773438</v>
+        <v>288.9210510253906</v>
       </c>
       <c r="GA2" t="n">
-        <v>301.6913757324219</v>
+        <v>288.9206237792969</v>
       </c>
       <c r="GB2" t="n">
-        <v>301.6769409179688</v>
+        <v>288.9473876953125</v>
       </c>
       <c r="GC2" t="n">
-        <v>301.5706481933594</v>
+        <v>288.9629211425781</v>
       </c>
       <c r="GD2" t="n">
-        <v>301.5113525390625</v>
+        <v>288.9642028808594</v>
       </c>
       <c r="GE2" t="n">
-        <v>301.5210266113281</v>
+        <v>288.9577331542969</v>
       </c>
       <c r="GF2" t="n">
-        <v>301.5517272949219</v>
+        <v>288.7909240722656</v>
       </c>
       <c r="GG2" t="n">
-        <v>301.61328125</v>
+        <v>288.7745361328125</v>
       </c>
       <c r="GH2" t="n">
-        <v>301.7628479003906</v>
+        <v>288.5909729003906</v>
       </c>
       <c r="GI2" t="n">
-        <v>301.9003601074219</v>
+        <v>288.7283020019531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>301.9773559570312</v>
+        <v>288.7695922851562</v>
       </c>
       <c r="GK2" t="n">
-        <v>302.0126037597656</v>
+        <v>288.6892395019531</v>
       </c>
       <c r="GL2" t="n">
-        <v>302.0127563476562</v>
+        <v>288.7564392089844</v>
       </c>
       <c r="GM2" t="n">
-        <v>301.9569091796875</v>
+        <v>288.7977294921875</v>
       </c>
       <c r="GN2" t="n">
-        <v>301.9213562011719</v>
+        <v>288.75634765625</v>
       </c>
       <c r="GO2" t="n">
-        <v>301.8958435058594</v>
+        <v>288.7068176269531</v>
       </c>
       <c r="GP2" t="n">
-        <v>301.9026184082031</v>
+        <v>288.7838134765625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>301.9631652832031</v>
+        <v>288.7772521972656</v>
       </c>
       <c r="GR2" t="n">
-        <v>301.9920959472656</v>
+        <v>288.7353515625</v>
       </c>
       <c r="GS2" t="n">
-        <v>302.0241088867188</v>
+        <v>288.5372314453125</v>
       </c>
       <c r="GT2" t="n">
-        <v>301.9567260742188</v>
+        <v>288.5258483886719</v>
       </c>
       <c r="GU2" t="n">
-        <v>301.9706115722656</v>
+        <v>288.6601867675781</v>
       </c>
       <c r="GV2" t="n">
-        <v>301.9844970703125</v>
+        <v>288.6004943847656</v>
       </c>
       <c r="GW2" t="n">
-        <v>302.0156860351562</v>
+        <v>288.6168212890625</v>
       </c>
       <c r="GX2" t="n">
-        <v>302.0661926269531</v>
+        <v>288.6401672363281</v>
       </c>
       <c r="GY2" t="n">
-        <v>302.1932373046875</v>
+        <v>288.6914367675781</v>
       </c>
       <c r="GZ2" t="n">
-        <v>302.2420959472656</v>
+        <v>288.7752075195312</v>
       </c>
       <c r="HA2" t="n">
-        <v>302.2682800292969</v>
+        <v>288.8775939941406</v>
       </c>
       <c r="HB2" t="n">
-        <v>302.2872009277344</v>
+        <v>288.9139099121094</v>
       </c>
       <c r="HC2" t="n">
-        <v>302.3451843261719</v>
+        <v>288.8374938964844</v>
       </c>
       <c r="HD2" t="n">
-        <v>302.4538879394531</v>
+        <v>288.8464050292969</v>
       </c>
       <c r="HE2" t="n">
-        <v>302.4757995605469</v>
+        <v>288.8387145996094</v>
       </c>
       <c r="HF2" t="n">
-        <v>302.5585021972656</v>
+        <v>288.9060668945312</v>
       </c>
       <c r="HG2" t="n">
-        <v>302.7155456542969</v>
+        <v>289.1099548339844</v>
       </c>
       <c r="HH2" t="n">
-        <v>302.7549743652344</v>
+        <v>289.3060302734375</v>
       </c>
       <c r="HI2" t="n">
-        <v>302.6474609375</v>
+        <v>289.3162231445312</v>
       </c>
       <c r="HJ2" t="n">
-        <v>302.5422668457031</v>
+        <v>289.2723693847656</v>
       </c>
       <c r="HK2" t="n">
-        <v>302.4933166503906</v>
+        <v>289.0648498535156</v>
       </c>
       <c r="HL2" t="n">
-        <v>302.4289855957031</v>
+        <v>288.8459167480469</v>
       </c>
       <c r="HM2" t="n">
-        <v>302.3642272949219</v>
+        <v>288.4222717285156</v>
       </c>
       <c r="HN2" t="n">
-        <v>302.2263488769531</v>
+        <v>287.874267578125</v>
       </c>
       <c r="HO2" t="n">
-        <v>302.2303466796875</v>
+        <v>287.7909240722656</v>
       </c>
       <c r="HP2" t="n">
-        <v>302.2097473144531</v>
+        <v>287.6964721679688</v>
       </c>
       <c r="HQ2" t="n">
-        <v>302.2619018554688</v>
+        <v>287.7001037597656</v>
       </c>
       <c r="HR2" t="n">
-        <v>302.2752380371094</v>
+        <v>287.6457824707031</v>
       </c>
       <c r="HS2" t="n">
-        <v>302.3804321289062</v>
+        <v>287.6422119140625</v>
       </c>
       <c r="HT2" t="n">
-        <v>302.3243713378906</v>
+        <v>287.6546020507812</v>
       </c>
       <c r="HU2" t="n">
-        <v>302.2781066894531</v>
+        <v>287.6939086914062</v>
       </c>
       <c r="HV2" t="n">
-        <v>302.3040161132812</v>
+        <v>287.7657165527344</v>
       </c>
       <c r="HW2" t="n">
-        <v>302.2962646484375</v>
+        <v>287.7132568359375</v>
       </c>
       <c r="HX2" t="n">
-        <v>302.3534545898438</v>
+        <v>287.8526306152344</v>
       </c>
       <c r="HY2" t="n">
-        <v>302.3628234863281</v>
+        <v>287.9026489257812</v>
       </c>
       <c r="HZ2" t="n">
-        <v>302.3070678710938</v>
+        <v>287.9815368652344</v>
       </c>
       <c r="IA2" t="n">
-        <v>302.1835021972656</v>
+        <v>287.8885803222656</v>
       </c>
       <c r="IB2" t="n">
-        <v>302.1343994140625</v>
+        <v>288.4891967773438</v>
       </c>
       <c r="IC2" t="n">
-        <v>302.1162719726562</v>
+        <v>288.3035888671875</v>
       </c>
       <c r="ID2" t="n">
-        <v>302.169677734375</v>
+        <v>288.3702087402344</v>
       </c>
       <c r="IE2" t="n">
-        <v>302.1451721191406</v>
+        <v>288.4228210449219</v>
       </c>
       <c r="IF2" t="n">
-        <v>302.1412963867188</v>
+        <v>288.4691467285156</v>
       </c>
       <c r="IG2" t="n">
-        <v>302.1244812011719</v>
+        <v>288.4359436035156</v>
       </c>
       <c r="IH2" t="n">
-        <v>302.1112365722656</v>
+        <v>288.47314453125</v>
       </c>
       <c r="II2" t="n">
-        <v>302.1162414550781</v>
+        <v>288.56494140625</v>
       </c>
       <c r="IJ2" t="n">
-        <v>302.098388671875</v>
+        <v>288.5640258789062</v>
       </c>
       <c r="IK2" t="n">
-        <v>302.094482421875</v>
+        <v>288.4671630859375</v>
       </c>
       <c r="IL2" t="n">
-        <v>302.0910339355469</v>
+        <v>288.499267578125</v>
       </c>
       <c r="IM2" t="n">
-        <v>302.1331176757812</v>
+        <v>288.5155944824219</v>
       </c>
       <c r="IN2" t="n">
-        <v>302.1925964355469</v>
+        <v>288.362060546875</v>
       </c>
       <c r="IO2" t="n">
-        <v>302.1159362792969</v>
+        <v>288.2285766601562</v>
       </c>
       <c r="IP2" t="n">
-        <v>302.1306762695312</v>
+        <v>288.2300720214844</v>
       </c>
       <c r="IQ2" t="n">
-        <v>302.1357116699219</v>
+        <v>288.2296142578125</v>
       </c>
       <c r="IR2" t="n">
-        <v>302.1139221191406</v>
+        <v>288.2926635742188</v>
       </c>
       <c r="IS2" t="n">
-        <v>302.2456970214844</v>
+        <v>288.2647705078125</v>
       </c>
       <c r="IT2" t="n">
-        <v>302.2012329101562</v>
+        <v>288.3853454589844</v>
       </c>
       <c r="IU2" t="n">
-        <v>302.2159729003906</v>
+        <v>288.5142211914062</v>
       </c>
       <c r="IV2" t="n">
-        <v>302.2525329589844</v>
+        <v>288.4141845703125</v>
       </c>
       <c r="IW2" t="n">
-        <v>302.3418579101562</v>
+        <v>288.5211486816406</v>
       </c>
       <c r="IX2" t="n">
-        <v>302.4393615722656</v>
+        <v>288.4231262207031</v>
       </c>
       <c r="IY2" t="n">
-        <v>302.4413146972656</v>
+        <v>288.4525146484375</v>
       </c>
       <c r="IZ2" t="n">
-        <v>302.2696533203125</v>
+        <v>288.4582214355469</v>
       </c>
       <c r="JA2" t="n">
-        <v>302.2555541992188</v>
+        <v>288.4767150878906</v>
       </c>
       <c r="JB2" t="n">
-        <v>302.2805786132812</v>
+        <v>288.6738586425781</v>
       </c>
       <c r="JC2" t="n">
-        <v>302.2204284667969</v>
+        <v>288.56494140625</v>
       </c>
       <c r="JD2" t="n">
-        <v>302.1224365234375</v>
+        <v>288.2586975097656</v>
       </c>
       <c r="JE2" t="n">
-        <v>301.8913879394531</v>
+        <v>288.0906066894531</v>
       </c>
       <c r="JF2" t="n">
-        <v>301.4692687988281</v>
+        <v>287.4797058105469</v>
       </c>
       <c r="JG2" t="n">
-        <v>301.1831970214844</v>
+        <v>287.576904296875</v>
       </c>
       <c r="JH2" t="n">
-        <v>300.64501953125</v>
+        <v>287.8203430175781</v>
       </c>
       <c r="JI2" t="n">
-        <v>299.4128723144531</v>
+        <v>287.8691711425781</v>
       </c>
       <c r="JJ2" t="n">
-        <v>298.0681762695312</v>
+        <v>288.2090148925781</v>
       </c>
       <c r="JK2" t="n">
-        <v>298.6608276367188</v>
+        <v>288.2578735351562</v>
       </c>
       <c r="JL2" t="n">
-        <v>298.9510192871094</v>
+        <v>288.3288879394531</v>
       </c>
       <c r="JM2" t="n">
-        <v>299.07958984375</v>
+        <v>289.0308532714844</v>
       </c>
       <c r="JN2" t="n">
-        <v>299.1436462402344</v>
+        <v>288.9669799804688</v>
       </c>
       <c r="JO2" t="n">
-        <v>299.2044067382812</v>
+        <v>288.8358459472656</v>
       </c>
       <c r="JP2" t="n">
-        <v>299.21044921875</v>
+        <v>288.8652954101562</v>
       </c>
       <c r="JQ2" t="n">
-        <v>299.1744689941406</v>
+        <v>288.8159484863281</v>
       </c>
       <c r="JR2" t="n">
-        <v>299.259033203125</v>
+        <v>288.9016723632812</v>
       </c>
       <c r="JS2" t="n">
-        <v>299.3187866210938</v>
+        <v>288.8611755371094</v>
       </c>
       <c r="JT2" t="n">
-        <v>299.35595703125</v>
+        <v>288.6238708496094</v>
       </c>
       <c r="JU2" t="n">
-        <v>299.2938232421875</v>
+        <v>288.4054565429688</v>
       </c>
       <c r="JV2" t="n">
-        <v>299.2712097167969</v>
+        <v>288.3395385742188</v>
       </c>
       <c r="JW2" t="n">
-        <v>299.2493591308594</v>
+        <v>288.275634765625</v>
       </c>
       <c r="JX2" t="n">
-        <v>299.2218933105469</v>
+        <v>288.2460632324219</v>
       </c>
       <c r="JY2" t="n">
-        <v>299.256103515625</v>
+        <v>288.2795715332031</v>
       </c>
       <c r="JZ2" t="n">
-        <v>298.85693359375</v>
+        <v>288.2942504882812</v>
       </c>
       <c r="KA2" t="n">
-        <v>297.0830383300781</v>
+        <v>288.5231018066406</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.1927490234375</v>
+        <v>289.0574951171875</v>
       </c>
       <c r="KC2" t="n">
-        <v>294.66845703125</v>
+        <v>290.6076354980469</v>
       </c>
       <c r="KD2" t="n">
-        <v>292.8582763671875</v>
+        <v>290.4708557128906</v>
       </c>
       <c r="KE2" t="n">
-        <v>293.0386962890625</v>
+        <v>291.056884765625</v>
       </c>
       <c r="KF2" t="n">
-        <v>293.0755310058594</v>
+        <v>291.2752380371094</v>
       </c>
       <c r="KG2" t="n">
-        <v>292.7702026367188</v>
+        <v>291.5359497070312</v>
       </c>
       <c r="KH2" t="n">
-        <v>292.3227233886719</v>
+        <v>292.2827453613281</v>
       </c>
       <c r="KI2" t="n">
-        <v>292.2384338378906</v>
+        <v>292.2413024902344</v>
       </c>
       <c r="KJ2" t="n">
-        <v>291.8766174316406</v>
+        <v>292.2504272460938</v>
       </c>
       <c r="KK2" t="n">
-        <v>292.3525390625</v>
+        <v>292.1950378417969</v>
       </c>
       <c r="KL2" t="n">
-        <v>291.225830078125</v>
+        <v>292.1753234863281</v>
       </c>
       <c r="KM2" t="n">
-        <v>290.6724548339844</v>
+        <v>291.9859619140625</v>
       </c>
       <c r="KN2" t="n">
-        <v>290.1030883789062</v>
+        <v>291.6528930664062</v>
       </c>
       <c r="KO2" t="n">
-        <v>291.7634582519531</v>
+        <v>291.5502319335938</v>
       </c>
       <c r="KP2" t="n">
-        <v>303.1257019042969</v>
+        <v>291.9271545410156</v>
       </c>
       <c r="KQ2" t="n">
-        <v>284.6510620117188</v>
+        <v>294.4999694824219</v>
       </c>
       <c r="KR2" t="n">
-        <v>310.8546752929688</v>
+        <v>302.2189025878906</v>
       </c>
       <c r="KS2" t="n">
-        <v>323.8253784179688</v>
+        <v>303.7149353027344</v>
       </c>
       <c r="KT2" t="n">
-        <v>317.8472290039062</v>
+        <v>306.8570861816406</v>
       </c>
       <c r="KU2" t="n">
-        <v>325.1033935546875</v>
+        <v>309.3428955078125</v>
       </c>
       <c r="KV2" t="n">
-        <v>335.4074096679688</v>
+        <v>307.160400390625</v>
       </c>
       <c r="KW2" t="n">
-        <v>348.4365844726562</v>
+        <v>306.5228271484375</v>
       </c>
       <c r="KX2" t="n">
-        <v>380.5289916992188</v>
+        <v>307.8397521972656</v>
       </c>
       <c r="KY2" t="n">
-        <v>260.5419006347656</v>
+        <v>302.6463317871094</v>
       </c>
       <c r="KZ2" t="n">
-        <v>259.0625305175781</v>
+        <v>292.791259765625</v>
       </c>
       <c r="LA2" t="n">
-        <v>256.6521606445312</v>
+        <v>290.9502868652344</v>
       </c>
       <c r="LB2" t="n">
-        <v>255.2221374511719</v>
+        <v>274.2880859375</v>
       </c>
       <c r="LC2" t="n">
-        <v>252.1347961425781</v>
+        <v>272.6255493164062</v>
       </c>
       <c r="LD2" t="n">
-        <v>250.7671966552734</v>
+        <v>270.7858581542969</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>268.2514038085938</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>266.3863220214844</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>260.1981201171875</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>244.3577728271484</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>230.1541137695312</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>222.2039184570312</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>221.0135650634766</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>228.6642150878906</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>162.7739562988281</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>292.5065307617188</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>332.2750854492188</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>338.7296752929688</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>260.7614440917969</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>266.6966247558594</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>377.5238342285156</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>366.758056640625</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>207.21923828125</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>208.2052001953125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>215.3511352539062</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>222.6365356445312</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>225.5694885253906</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>226.9483642578125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>230.8370666503906</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>235.3043823242188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>246.2904357910156</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>248.121337890625</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>264.7243347167969</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>253.1590270996094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>644.1321411132812</v>
+        <v>630.14453125</v>
       </c>
       <c r="B3" t="n">
-        <v>567.8977661132812</v>
+        <v>604.570556640625</v>
       </c>
       <c r="C3" t="n">
-        <v>553.4031982421875</v>
+        <v>594.182373046875</v>
       </c>
       <c r="D3" t="n">
-        <v>549.822265625</v>
+        <v>584.5646362304688</v>
       </c>
       <c r="E3" t="n">
-        <v>547.9668579101562</v>
+        <v>572.3709106445312</v>
       </c>
       <c r="F3" t="n">
-        <v>543.0405883789062</v>
+        <v>561.177734375</v>
       </c>
       <c r="G3" t="n">
-        <v>546.5162963867188</v>
+        <v>553.317138671875</v>
       </c>
       <c r="H3" t="n">
-        <v>545.1656494140625</v>
+        <v>546.5608520507812</v>
       </c>
       <c r="I3" t="n">
-        <v>545.9749755859375</v>
+        <v>537.0914916992188</v>
       </c>
       <c r="J3" t="n">
-        <v>534.677001953125</v>
+        <v>528.0374755859375</v>
       </c>
       <c r="K3" t="n">
-        <v>525.6533813476562</v>
+        <v>519.7539672851562</v>
       </c>
       <c r="L3" t="n">
-        <v>520.2740478515625</v>
+        <v>512.5134887695312</v>
       </c>
       <c r="M3" t="n">
-        <v>519.1338500976562</v>
+        <v>505.3841857910156</v>
       </c>
       <c r="N3" t="n">
-        <v>512.8759765625</v>
+        <v>498.1304626464844</v>
       </c>
       <c r="O3" t="n">
-        <v>508.7216491699219</v>
+        <v>493.4021606445312</v>
       </c>
       <c r="P3" t="n">
-        <v>504.9237365722656</v>
+        <v>487.970458984375</v>
       </c>
       <c r="Q3" t="n">
-        <v>497.8984985351562</v>
+        <v>483.9703674316406</v>
       </c>
       <c r="R3" t="n">
-        <v>510.4210815429688</v>
+        <v>481.4986572265625</v>
       </c>
       <c r="S3" t="n">
-        <v>500.9085693359375</v>
+        <v>478.0333251953125</v>
       </c>
       <c r="T3" t="n">
-        <v>496.380615234375</v>
+        <v>477.4436645507812</v>
       </c>
       <c r="U3" t="n">
-        <v>493.3213806152344</v>
+        <v>475.8555908203125</v>
       </c>
       <c r="V3" t="n">
-        <v>492.6151733398438</v>
+        <v>471.546142578125</v>
       </c>
       <c r="W3" t="n">
-        <v>495.2328796386719</v>
+        <v>469.3023071289062</v>
       </c>
       <c r="X3" t="n">
-        <v>494.6441345214844</v>
+        <v>468.8246765136719</v>
       </c>
       <c r="Y3" t="n">
-        <v>490.2327880859375</v>
+        <v>485.6949157714844</v>
       </c>
       <c r="Z3" t="n">
-        <v>488.6829833984375</v>
+        <v>481.7623901367188</v>
       </c>
       <c r="AA3" t="n">
-        <v>485.9782104492188</v>
+        <v>473.8040466308594</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.1049194335938</v>
+        <v>465.5375366210938</v>
       </c>
       <c r="AC3" t="n">
-        <v>478.6839599609375</v>
+        <v>455.0079650878906</v>
       </c>
       <c r="AD3" t="n">
-        <v>474.8404541015625</v>
+        <v>449.608642578125</v>
       </c>
       <c r="AE3" t="n">
-        <v>473.0566101074219</v>
+        <v>444.0313415527344</v>
       </c>
       <c r="AF3" t="n">
-        <v>472.6429748535156</v>
+        <v>436.2268371582031</v>
       </c>
       <c r="AG3" t="n">
-        <v>471.3965454101562</v>
+        <v>430.0346984863281</v>
       </c>
       <c r="AH3" t="n">
-        <v>473.2290954589844</v>
+        <v>427.8710021972656</v>
       </c>
       <c r="AI3" t="n">
-        <v>469.684814453125</v>
+        <v>427.0650939941406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>465.714599609375</v>
+        <v>426.4289855957031</v>
       </c>
       <c r="AK3" t="n">
-        <v>463.5285949707031</v>
+        <v>425.764404296875</v>
       </c>
       <c r="AL3" t="n">
-        <v>462.0768737792969</v>
+        <v>423.2895812988281</v>
       </c>
       <c r="AM3" t="n">
-        <v>460.6640625</v>
+        <v>420.9307250976562</v>
       </c>
       <c r="AN3" t="n">
-        <v>459.6644287109375</v>
+        <v>418.7254638671875</v>
       </c>
       <c r="AO3" t="n">
-        <v>459.687744140625</v>
+        <v>415.9935302734375</v>
       </c>
       <c r="AP3" t="n">
-        <v>461.1252136230469</v>
+        <v>414.1582336425781</v>
       </c>
       <c r="AQ3" t="n">
-        <v>463.0328674316406</v>
+        <v>413.5172729492188</v>
       </c>
       <c r="AR3" t="n">
-        <v>463.9941711425781</v>
+        <v>413.1452941894531</v>
       </c>
       <c r="AS3" t="n">
-        <v>463.2853698730469</v>
+        <v>412.826171875</v>
       </c>
       <c r="AT3" t="n">
-        <v>463.0574951171875</v>
+        <v>406.8731994628906</v>
       </c>
       <c r="AU3" t="n">
-        <v>462.7336120605469</v>
+        <v>403.5102844238281</v>
       </c>
       <c r="AV3" t="n">
-        <v>462.2130126953125</v>
+        <v>402.0735778808594</v>
       </c>
       <c r="AW3" t="n">
-        <v>462.1853332519531</v>
+        <v>410.8035583496094</v>
       </c>
       <c r="AX3" t="n">
-        <v>463.1356811523438</v>
+        <v>412.6816711425781</v>
       </c>
       <c r="AY3" t="n">
-        <v>463.8692626953125</v>
+        <v>408.1417236328125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>463.62841796875</v>
+        <v>404.2044982910156</v>
       </c>
       <c r="BA3" t="n">
-        <v>463.702880859375</v>
+        <v>403.2569885253906</v>
       </c>
       <c r="BB3" t="n">
-        <v>463.9848937988281</v>
+        <v>402.6075134277344</v>
       </c>
       <c r="BC3" t="n">
-        <v>461.755126953125</v>
+        <v>400.7933044433594</v>
       </c>
       <c r="BD3" t="n">
-        <v>461.6958923339844</v>
+        <v>398.8231201171875</v>
       </c>
       <c r="BE3" t="n">
-        <v>461.1435241699219</v>
+        <v>397.39111328125</v>
       </c>
       <c r="BF3" t="n">
-        <v>460.8459777832031</v>
+        <v>396.8626708984375</v>
       </c>
       <c r="BG3" t="n">
-        <v>460.7020568847656</v>
+        <v>395.8900146484375</v>
       </c>
       <c r="BH3" t="n">
-        <v>460.5422973632812</v>
+        <v>394.4783020019531</v>
       </c>
       <c r="BI3" t="n">
-        <v>461.0385131835938</v>
+        <v>392.5759582519531</v>
       </c>
       <c r="BJ3" t="n">
-        <v>461.268310546875</v>
+        <v>393.6368713378906</v>
       </c>
       <c r="BK3" t="n">
-        <v>460.8794860839844</v>
+        <v>392.7886962890625</v>
       </c>
       <c r="BL3" t="n">
-        <v>462.248779296875</v>
+        <v>392.6112670898438</v>
       </c>
       <c r="BM3" t="n">
-        <v>463.2253112792969</v>
+        <v>394.9409484863281</v>
       </c>
       <c r="BN3" t="n">
-        <v>464.1590576171875</v>
+        <v>396.0796203613281</v>
       </c>
       <c r="BO3" t="n">
-        <v>464.6740417480469</v>
+        <v>396.4420776367188</v>
       </c>
       <c r="BP3" t="n">
-        <v>464.8938293457031</v>
+        <v>396.1908264160156</v>
       </c>
       <c r="BQ3" t="n">
-        <v>465.5503845214844</v>
+        <v>396.0614929199219</v>
       </c>
       <c r="BR3" t="n">
-        <v>465.9176330566406</v>
+        <v>393.2581787109375</v>
       </c>
       <c r="BS3" t="n">
-        <v>466.3229064941406</v>
+        <v>392.4686889648438</v>
       </c>
       <c r="BT3" t="n">
-        <v>466.472412109375</v>
+        <v>393.5823974609375</v>
       </c>
       <c r="BU3" t="n">
-        <v>466.7061157226562</v>
+        <v>394.878173828125</v>
       </c>
       <c r="BV3" t="n">
-        <v>467.1166687011719</v>
+        <v>395.0890502929688</v>
       </c>
       <c r="BW3" t="n">
-        <v>467.6753540039062</v>
+        <v>394.7654418945312</v>
       </c>
       <c r="BX3" t="n">
-        <v>468.3197021484375</v>
+        <v>395.7626342773438</v>
       </c>
       <c r="BY3" t="n">
-        <v>469.1197204589844</v>
+        <v>396.8764953613281</v>
       </c>
       <c r="BZ3" t="n">
-        <v>469.8459167480469</v>
+        <v>399.5184326171875</v>
       </c>
       <c r="CA3" t="n">
-        <v>470.8124084472656</v>
+        <v>399.7679443359375</v>
       </c>
       <c r="CB3" t="n">
-        <v>470.8970642089844</v>
+        <v>401.3851928710938</v>
       </c>
       <c r="CC3" t="n">
-        <v>471.0570983886719</v>
+        <v>401.1159057617188</v>
       </c>
       <c r="CD3" t="n">
-        <v>471.2042236328125</v>
+        <v>400.9584655761719</v>
       </c>
       <c r="CE3" t="n">
-        <v>471.3273315429688</v>
+        <v>399.8431701660156</v>
       </c>
       <c r="CF3" t="n">
-        <v>471.4292602539062</v>
+        <v>398.5890502929688</v>
       </c>
       <c r="CG3" t="n">
-        <v>471.4969787597656</v>
+        <v>399.7765502929688</v>
       </c>
       <c r="CH3" t="n">
-        <v>471.5433654785156</v>
+        <v>399.743408203125</v>
       </c>
       <c r="CI3" t="n">
-        <v>471.5604858398438</v>
+        <v>399.8422546386719</v>
       </c>
       <c r="CJ3" t="n">
-        <v>471.4592590332031</v>
+        <v>399.8689575195312</v>
       </c>
       <c r="CK3" t="n">
-        <v>471.4581298828125</v>
+        <v>399.9742736816406</v>
       </c>
       <c r="CL3" t="n">
-        <v>471.4295043945312</v>
+        <v>400.0953063964844</v>
       </c>
       <c r="CM3" t="n">
-        <v>470.9152221679688</v>
+        <v>400.908935546875</v>
       </c>
       <c r="CN3" t="n">
-        <v>470.5098571777344</v>
+        <v>400.743896484375</v>
       </c>
       <c r="CO3" t="n">
-        <v>470.1702575683594</v>
+        <v>400.5628967285156</v>
       </c>
       <c r="CP3" t="n">
-        <v>470.4708862304688</v>
+        <v>400.6323852539062</v>
       </c>
       <c r="CQ3" t="n">
-        <v>470.3397827148438</v>
+        <v>400.6869812011719</v>
       </c>
       <c r="CR3" t="n">
-        <v>470.3419189453125</v>
+        <v>401.3377685546875</v>
       </c>
       <c r="CS3" t="n">
-        <v>470.3720397949219</v>
+        <v>400.8313598632812</v>
       </c>
       <c r="CT3" t="n">
-        <v>470.4124145507812</v>
+        <v>399.5796203613281</v>
       </c>
       <c r="CU3" t="n">
-        <v>470.4561767578125</v>
+        <v>400.0715637207031</v>
       </c>
       <c r="CV3" t="n">
-        <v>470.5772399902344</v>
+        <v>400.67431640625</v>
       </c>
       <c r="CW3" t="n">
-        <v>470.6946411132812</v>
+        <v>401.187744140625</v>
       </c>
       <c r="CX3" t="n">
-        <v>470.8049621582031</v>
+        <v>399.8394775390625</v>
       </c>
       <c r="CY3" t="n">
-        <v>470.8030090332031</v>
+        <v>400.0692749023438</v>
       </c>
       <c r="CZ3" t="n">
-        <v>470.9436950683594</v>
+        <v>399.0815734863281</v>
       </c>
       <c r="DA3" t="n">
-        <v>471.0499877929688</v>
+        <v>399.2985534667969</v>
       </c>
       <c r="DB3" t="n">
-        <v>470.9270629882812</v>
+        <v>399.4821166992188</v>
       </c>
       <c r="DC3" t="n">
-        <v>470.8503112792969</v>
+        <v>399.779541015625</v>
       </c>
       <c r="DD3" t="n">
-        <v>470.9393920898438</v>
+        <v>399.4488830566406</v>
       </c>
       <c r="DE3" t="n">
-        <v>470.9833679199219</v>
+        <v>399.4001770019531</v>
       </c>
       <c r="DF3" t="n">
-        <v>471.0068664550781</v>
+        <v>399.4471130371094</v>
       </c>
       <c r="DG3" t="n">
-        <v>470.8079833984375</v>
+        <v>399.811279296875</v>
       </c>
       <c r="DH3" t="n">
-        <v>470.7334899902344</v>
+        <v>399.9391784667969</v>
       </c>
       <c r="DI3" t="n">
-        <v>470.7018432617188</v>
+        <v>400.2073364257812</v>
       </c>
       <c r="DJ3" t="n">
-        <v>470.7158203125</v>
+        <v>400.1372985839844</v>
       </c>
       <c r="DK3" t="n">
-        <v>470.8674926757812</v>
+        <v>400.4186096191406</v>
       </c>
       <c r="DL3" t="n">
-        <v>471.3009033203125</v>
+        <v>400.6051940917969</v>
       </c>
       <c r="DM3" t="n">
-        <v>471.5596313476562</v>
+        <v>401.3049926757812</v>
       </c>
       <c r="DN3" t="n">
-        <v>471.9606323242188</v>
+        <v>401.8435363769531</v>
       </c>
       <c r="DO3" t="n">
-        <v>472.0093383789062</v>
+        <v>401.955322265625</v>
       </c>
       <c r="DP3" t="n">
-        <v>471.7793273925781</v>
+        <v>402.1021118164062</v>
       </c>
       <c r="DQ3" t="n">
-        <v>471.6911010742188</v>
+        <v>401.4885559082031</v>
       </c>
       <c r="DR3" t="n">
-        <v>471.5777282714844</v>
+        <v>401.6979370117188</v>
       </c>
       <c r="DS3" t="n">
-        <v>471.8053283691406</v>
+        <v>401.7467041015625</v>
       </c>
       <c r="DT3" t="n">
-        <v>472.2863464355469</v>
+        <v>401.6302490234375</v>
       </c>
       <c r="DU3" t="n">
-        <v>472.5062561035156</v>
+        <v>401.5567626953125</v>
       </c>
       <c r="DV3" t="n">
-        <v>472.3976745605469</v>
+        <v>401.4519653320312</v>
       </c>
       <c r="DW3" t="n">
-        <v>472.4117126464844</v>
+        <v>401.6359252929688</v>
       </c>
       <c r="DX3" t="n">
-        <v>472.440185546875</v>
+        <v>401.7236328125</v>
       </c>
       <c r="DY3" t="n">
-        <v>472.3310852050781</v>
+        <v>401.8217163085938</v>
       </c>
       <c r="DZ3" t="n">
-        <v>472.2787170410156</v>
+        <v>401.68701171875</v>
       </c>
       <c r="EA3" t="n">
-        <v>472.1273803710938</v>
+        <v>401.6247863769531</v>
       </c>
       <c r="EB3" t="n">
-        <v>472.1725463867188</v>
+        <v>401.6567687988281</v>
       </c>
       <c r="EC3" t="n">
-        <v>472.1669921875</v>
+        <v>401.5325622558594</v>
       </c>
       <c r="ED3" t="n">
-        <v>472.1352233886719</v>
+        <v>401.4420776367188</v>
       </c>
       <c r="EE3" t="n">
-        <v>472.156005859375</v>
+        <v>400.2680053710938</v>
       </c>
       <c r="EF3" t="n">
-        <v>472.1960754394531</v>
+        <v>400.3637390136719</v>
       </c>
       <c r="EG3" t="n">
-        <v>472.2033386230469</v>
+        <v>399.6517639160156</v>
       </c>
       <c r="EH3" t="n">
-        <v>472.1764221191406</v>
+        <v>399.0467834472656</v>
       </c>
       <c r="EI3" t="n">
-        <v>472.2433776855469</v>
+        <v>400.0463562011719</v>
       </c>
       <c r="EJ3" t="n">
-        <v>472.3509826660156</v>
+        <v>400.62548828125</v>
       </c>
       <c r="EK3" t="n">
-        <v>471.8611450195312</v>
+        <v>401.0048522949219</v>
       </c>
       <c r="EL3" t="n">
-        <v>472.0828247070312</v>
+        <v>401.3025207519531</v>
       </c>
       <c r="EM3" t="n">
-        <v>471.9147644042969</v>
+        <v>401.3987731933594</v>
       </c>
       <c r="EN3" t="n">
-        <v>471.992431640625</v>
+        <v>401.4903869628906</v>
       </c>
       <c r="EO3" t="n">
-        <v>472.042236328125</v>
+        <v>401.7378234863281</v>
       </c>
       <c r="EP3" t="n">
-        <v>472.2157592773438</v>
+        <v>401.8872680664062</v>
       </c>
       <c r="EQ3" t="n">
-        <v>472.560791015625</v>
+        <v>401.8954772949219</v>
       </c>
       <c r="ER3" t="n">
-        <v>472.7166442871094</v>
+        <v>401.7856140136719</v>
       </c>
       <c r="ES3" t="n">
-        <v>472.6655578613281</v>
+        <v>401.5328063964844</v>
       </c>
       <c r="ET3" t="n">
-        <v>472.6737365722656</v>
+        <v>401.1138000488281</v>
       </c>
       <c r="EU3" t="n">
-        <v>472.7389831542969</v>
+        <v>400.7205505371094</v>
       </c>
       <c r="EV3" t="n">
-        <v>472.7928771972656</v>
+        <v>400.5873718261719</v>
       </c>
       <c r="EW3" t="n">
-        <v>473.0675964355469</v>
+        <v>400.569091796875</v>
       </c>
       <c r="EX3" t="n">
-        <v>473.4227905273438</v>
+        <v>400.784423828125</v>
       </c>
       <c r="EY3" t="n">
-        <v>473.359130859375</v>
+        <v>400.9024658203125</v>
       </c>
       <c r="EZ3" t="n">
-        <v>473.1991271972656</v>
+        <v>400.9072265625</v>
       </c>
       <c r="FA3" t="n">
-        <v>473.0460205078125</v>
+        <v>400.4664916992188</v>
       </c>
       <c r="FB3" t="n">
-        <v>472.8098449707031</v>
+        <v>399.7273864746094</v>
       </c>
       <c r="FC3" t="n">
-        <v>472.7590637207031</v>
+        <v>399.8360595703125</v>
       </c>
       <c r="FD3" t="n">
-        <v>472.7843933105469</v>
+        <v>399.5439758300781</v>
       </c>
       <c r="FE3" t="n">
-        <v>472.800048828125</v>
+        <v>398.9801025390625</v>
       </c>
       <c r="FF3" t="n">
-        <v>472.8522644042969</v>
+        <v>399.1007385253906</v>
       </c>
       <c r="FG3" t="n">
-        <v>472.9469299316406</v>
+        <v>399.3331298828125</v>
       </c>
       <c r="FH3" t="n">
-        <v>472.9767761230469</v>
+        <v>400.1170959472656</v>
       </c>
       <c r="FI3" t="n">
-        <v>472.9959106445312</v>
+        <v>399.6670227050781</v>
       </c>
       <c r="FJ3" t="n">
-        <v>473.0029296875</v>
+        <v>399.6759338378906</v>
       </c>
       <c r="FK3" t="n">
-        <v>472.9687194824219</v>
+        <v>400.5533142089844</v>
       </c>
       <c r="FL3" t="n">
-        <v>472.8535461425781</v>
+        <v>400.6652526855469</v>
       </c>
       <c r="FM3" t="n">
-        <v>472.6664123535156</v>
+        <v>400.9901123046875</v>
       </c>
       <c r="FN3" t="n">
-        <v>472.3842468261719</v>
+        <v>401.967041015625</v>
       </c>
       <c r="FO3" t="n">
-        <v>472.3685607910156</v>
+        <v>402.3341979980469</v>
       </c>
       <c r="FP3" t="n">
-        <v>472.3132629394531</v>
+        <v>402.2460327148438</v>
       </c>
       <c r="FQ3" t="n">
-        <v>472.2570190429688</v>
+        <v>401.7412414550781</v>
       </c>
       <c r="FR3" t="n">
-        <v>472.2939453125</v>
+        <v>401.5263366699219</v>
       </c>
       <c r="FS3" t="n">
-        <v>472.3480529785156</v>
+        <v>400.9998168945312</v>
       </c>
       <c r="FT3" t="n">
-        <v>472.2872619628906</v>
+        <v>400.1387023925781</v>
       </c>
       <c r="FU3" t="n">
-        <v>472.1549987792969</v>
+        <v>400.0307312011719</v>
       </c>
       <c r="FV3" t="n">
-        <v>472.1036682128906</v>
+        <v>399.9654541015625</v>
       </c>
       <c r="FW3" t="n">
-        <v>472.0184936523438</v>
+        <v>399.7420043945312</v>
       </c>
       <c r="FX3" t="n">
-        <v>472.0458679199219</v>
+        <v>399.7929077148438</v>
       </c>
       <c r="FY3" t="n">
-        <v>473.0063781738281</v>
+        <v>399.8372192382812</v>
       </c>
       <c r="FZ3" t="n">
-        <v>473.2042846679688</v>
+        <v>399.8941650390625</v>
       </c>
       <c r="GA3" t="n">
-        <v>473.7904968261719</v>
+        <v>399.8298034667969</v>
       </c>
       <c r="GB3" t="n">
-        <v>473.5490112304688</v>
+        <v>399.6269226074219</v>
       </c>
       <c r="GC3" t="n">
-        <v>472.84326171875</v>
+        <v>399.6861877441406</v>
       </c>
       <c r="GD3" t="n">
-        <v>472.3696899414062</v>
+        <v>399.7905883789062</v>
       </c>
       <c r="GE3" t="n">
-        <v>472.3250732421875</v>
+        <v>399.8340454101562</v>
       </c>
       <c r="GF3" t="n">
-        <v>472.3550415039062</v>
+        <v>400.097900390625</v>
       </c>
       <c r="GG3" t="n">
-        <v>472.5499572753906</v>
+        <v>400.4082336425781</v>
       </c>
       <c r="GH3" t="n">
-        <v>472.9913024902344</v>
+        <v>399.7400512695312</v>
       </c>
       <c r="GI3" t="n">
-        <v>473.368408203125</v>
+        <v>399.9515686035156</v>
       </c>
       <c r="GJ3" t="n">
-        <v>473.6969604492188</v>
+        <v>401.317138671875</v>
       </c>
       <c r="GK3" t="n">
-        <v>473.8070068359375</v>
+        <v>401.7595825195312</v>
       </c>
       <c r="GL3" t="n">
-        <v>473.7491149902344</v>
+        <v>401.6750793457031</v>
       </c>
       <c r="GM3" t="n">
-        <v>473.5313110351562</v>
+        <v>401.5274658203125</v>
       </c>
       <c r="GN3" t="n">
-        <v>473.4808044433594</v>
+        <v>401.2816772460938</v>
       </c>
       <c r="GO3" t="n">
-        <v>473.4293823242188</v>
+        <v>401.0440979003906</v>
       </c>
       <c r="GP3" t="n">
-        <v>473.4180603027344</v>
+        <v>400.5151672363281</v>
       </c>
       <c r="GQ3" t="n">
-        <v>473.4046630859375</v>
+        <v>399.6998596191406</v>
       </c>
       <c r="GR3" t="n">
-        <v>473.4090881347656</v>
+        <v>399.4532165527344</v>
       </c>
       <c r="GS3" t="n">
-        <v>473.1902160644531</v>
+        <v>399.2637634277344</v>
       </c>
       <c r="GT3" t="n">
-        <v>473.1480407714844</v>
+        <v>399.9053649902344</v>
       </c>
       <c r="GU3" t="n">
-        <v>473.103759765625</v>
+        <v>400.3329772949219</v>
       </c>
       <c r="GV3" t="n">
-        <v>472.9399108886719</v>
+        <v>400.822509765625</v>
       </c>
       <c r="GW3" t="n">
-        <v>473.0106506347656</v>
+        <v>401.0532531738281</v>
       </c>
       <c r="GX3" t="n">
-        <v>473.0056457519531</v>
+        <v>401.0323791503906</v>
       </c>
       <c r="GY3" t="n">
-        <v>472.9590759277344</v>
+        <v>401.0148010253906</v>
       </c>
       <c r="GZ3" t="n">
-        <v>473.1958923339844</v>
+        <v>400.7490234375</v>
       </c>
       <c r="HA3" t="n">
-        <v>473.4854431152344</v>
+        <v>400.447021484375</v>
       </c>
       <c r="HB3" t="n">
-        <v>473.4461059570312</v>
+        <v>400.2808532714844</v>
       </c>
       <c r="HC3" t="n">
-        <v>473.4093933105469</v>
+        <v>399.8915100097656</v>
       </c>
       <c r="HD3" t="n">
-        <v>473.3592834472656</v>
+        <v>399.9219970703125</v>
       </c>
       <c r="HE3" t="n">
-        <v>473.4391479492188</v>
+        <v>398.8248901367188</v>
       </c>
       <c r="HF3" t="n">
-        <v>473.7244873046875</v>
+        <v>398.368408203125</v>
       </c>
       <c r="HG3" t="n">
-        <v>474.1091003417969</v>
+        <v>398.5635375976562</v>
       </c>
       <c r="HH3" t="n">
-        <v>474.320556640625</v>
+        <v>399.0906677246094</v>
       </c>
       <c r="HI3" t="n">
-        <v>474.1326293945312</v>
+        <v>399.4218444824219</v>
       </c>
       <c r="HJ3" t="n">
-        <v>473.9371337890625</v>
+        <v>399.5025329589844</v>
       </c>
       <c r="HK3" t="n">
-        <v>473.903076171875</v>
+        <v>398.4301452636719</v>
       </c>
       <c r="HL3" t="n">
-        <v>473.8832397460938</v>
+        <v>399.6590270996094</v>
       </c>
       <c r="HM3" t="n">
-        <v>473.8855590820312</v>
+        <v>398.4359741210938</v>
       </c>
       <c r="HN3" t="n">
-        <v>473.697509765625</v>
+        <v>396.9373474121094</v>
       </c>
       <c r="HO3" t="n">
-        <v>473.7802429199219</v>
+        <v>395.9556884765625</v>
       </c>
       <c r="HP3" t="n">
-        <v>474.1165466308594</v>
+        <v>395.5709838867188</v>
       </c>
       <c r="HQ3" t="n">
-        <v>474.4920043945312</v>
+        <v>395.3584899902344</v>
       </c>
       <c r="HR3" t="n">
-        <v>474.289794921875</v>
+        <v>398.5646667480469</v>
       </c>
       <c r="HS3" t="n">
-        <v>474.1898498535156</v>
+        <v>399.5918273925781</v>
       </c>
       <c r="HT3" t="n">
-        <v>473.9822082519531</v>
+        <v>400.5287780761719</v>
       </c>
       <c r="HU3" t="n">
-        <v>473.8276977539062</v>
+        <v>401.2042846679688</v>
       </c>
       <c r="HV3" t="n">
-        <v>473.7974548339844</v>
+        <v>402.1537475585938</v>
       </c>
       <c r="HW3" t="n">
-        <v>473.5156555175781</v>
+        <v>399.7611999511719</v>
       </c>
       <c r="HX3" t="n">
-        <v>473.414306640625</v>
+        <v>400.9008178710938</v>
       </c>
       <c r="HY3" t="n">
-        <v>473.1699523925781</v>
+        <v>400.0886840820312</v>
       </c>
       <c r="HZ3" t="n">
-        <v>473.2287902832031</v>
+        <v>399.6760559082031</v>
       </c>
       <c r="IA3" t="n">
-        <v>473.2226257324219</v>
+        <v>400.3676452636719</v>
       </c>
       <c r="IB3" t="n">
-        <v>473.2159729003906</v>
+        <v>399.241943359375</v>
       </c>
       <c r="IC3" t="n">
-        <v>473.276611328125</v>
+        <v>398.908203125</v>
       </c>
       <c r="ID3" t="n">
-        <v>473.2738342285156</v>
+        <v>399.1255798339844</v>
       </c>
       <c r="IE3" t="n">
-        <v>473.2133483886719</v>
+        <v>399.1343078613281</v>
       </c>
       <c r="IF3" t="n">
-        <v>473.1543579101562</v>
+        <v>398.6055297851562</v>
       </c>
       <c r="IG3" t="n">
-        <v>473.1345825195312</v>
+        <v>398.7684936523438</v>
       </c>
       <c r="IH3" t="n">
-        <v>473.1128540039062</v>
+        <v>399.5042419433594</v>
       </c>
       <c r="II3" t="n">
-        <v>473.1063232421875</v>
+        <v>398.8449401855469</v>
       </c>
       <c r="IJ3" t="n">
-        <v>473.1009216308594</v>
+        <v>398.9856262207031</v>
       </c>
       <c r="IK3" t="n">
-        <v>473.1198120117188</v>
+        <v>399.3985595703125</v>
       </c>
       <c r="IL3" t="n">
-        <v>473.0743408203125</v>
+        <v>400.091796875</v>
       </c>
       <c r="IM3" t="n">
-        <v>473.2218627929688</v>
+        <v>399.2281799316406</v>
       </c>
       <c r="IN3" t="n">
-        <v>473.5255737304688</v>
+        <v>399.4595947265625</v>
       </c>
       <c r="IO3" t="n">
-        <v>473.3927307128906</v>
+        <v>400.8740539550781</v>
       </c>
       <c r="IP3" t="n">
-        <v>473.4582214355469</v>
+        <v>401.9064331054688</v>
       </c>
       <c r="IQ3" t="n">
-        <v>473.479248046875</v>
+        <v>400.7189331054688</v>
       </c>
       <c r="IR3" t="n">
-        <v>473.4281311035156</v>
+        <v>400.973388671875</v>
       </c>
       <c r="IS3" t="n">
-        <v>473.5577392578125</v>
+        <v>401.3713989257812</v>
       </c>
       <c r="IT3" t="n">
-        <v>473.5169677734375</v>
+        <v>401.4254760742188</v>
       </c>
       <c r="IU3" t="n">
-        <v>473.4410705566406</v>
+        <v>400.3065490722656</v>
       </c>
       <c r="IV3" t="n">
-        <v>473.9402160644531</v>
+        <v>399.7253112792969</v>
       </c>
       <c r="IW3" t="n">
-        <v>473.529541015625</v>
+        <v>400.0231323242188</v>
       </c>
       <c r="IX3" t="n">
-        <v>472.6829223632812</v>
+        <v>400.783935546875</v>
       </c>
       <c r="IY3" t="n">
-        <v>472.7976684570312</v>
+        <v>401.4467163085938</v>
       </c>
       <c r="IZ3" t="n">
-        <v>472.9750061035156</v>
+        <v>401.9228820800781</v>
       </c>
       <c r="JA3" t="n">
-        <v>472.9192504882812</v>
+        <v>402.4350891113281</v>
       </c>
       <c r="JB3" t="n">
-        <v>472.9261474609375</v>
+        <v>402.7546997070312</v>
       </c>
       <c r="JC3" t="n">
-        <v>472.9602966308594</v>
+        <v>403.165283203125</v>
       </c>
       <c r="JD3" t="n">
-        <v>473.0041809082031</v>
+        <v>401.873046875</v>
       </c>
       <c r="JE3" t="n">
-        <v>473.1476135253906</v>
+        <v>399.9478454589844</v>
       </c>
       <c r="JF3" t="n">
-        <v>473.1978454589844</v>
+        <v>397.6583862304688</v>
       </c>
       <c r="JG3" t="n">
-        <v>473.2198486328125</v>
+        <v>399.0288391113281</v>
       </c>
       <c r="JH3" t="n">
-        <v>473.2183227539062</v>
+        <v>402.8925476074219</v>
       </c>
       <c r="JI3" t="n">
-        <v>473.2867736816406</v>
+        <v>401.9811096191406</v>
       </c>
       <c r="JJ3" t="n">
-        <v>473.3699340820312</v>
+        <v>400.7637023925781</v>
       </c>
       <c r="JK3" t="n">
-        <v>473.2348022460938</v>
+        <v>400.7667846679688</v>
       </c>
       <c r="JL3" t="n">
-        <v>473.1554870605469</v>
+        <v>400.6789855957031</v>
       </c>
       <c r="JM3" t="n">
-        <v>473.1727600097656</v>
+        <v>400.0053100585938</v>
       </c>
       <c r="JN3" t="n">
-        <v>473.1592407226562</v>
+        <v>399.8609313964844</v>
       </c>
       <c r="JO3" t="n">
-        <v>473.3018798828125</v>
+        <v>399.6782836914062</v>
       </c>
       <c r="JP3" t="n">
-        <v>473.434814453125</v>
+        <v>399.8701782226562</v>
       </c>
       <c r="JQ3" t="n">
-        <v>473.6099548339844</v>
+        <v>400.0552673339844</v>
       </c>
       <c r="JR3" t="n">
-        <v>474.1802062988281</v>
+        <v>400.1077880859375</v>
       </c>
       <c r="JS3" t="n">
-        <v>474.6286010742188</v>
+        <v>400.1761474609375</v>
       </c>
       <c r="JT3" t="n">
-        <v>474.8431091308594</v>
+        <v>400.5379638671875</v>
       </c>
       <c r="JU3" t="n">
-        <v>474.5462341308594</v>
+        <v>400.3226013183594</v>
       </c>
       <c r="JV3" t="n">
-        <v>474.6331176757812</v>
+        <v>400.1378479003906</v>
       </c>
       <c r="JW3" t="n">
-        <v>474.5027160644531</v>
+        <v>400.2141418457031</v>
       </c>
       <c r="JX3" t="n">
-        <v>473.8330383300781</v>
+        <v>400.2354736328125</v>
       </c>
       <c r="JY3" t="n">
-        <v>472.5186462402344</v>
+        <v>401.0464477539062</v>
       </c>
       <c r="JZ3" t="n">
-        <v>473.7673645019531</v>
+        <v>401.4224853515625</v>
       </c>
       <c r="KA3" t="n">
-        <v>474.9064636230469</v>
+        <v>400.6561584472656</v>
       </c>
       <c r="KB3" t="n">
-        <v>475.7312316894531</v>
+        <v>399.890625</v>
       </c>
       <c r="KC3" t="n">
-        <v>475.6310424804688</v>
+        <v>399.9046020507812</v>
       </c>
       <c r="KD3" t="n">
-        <v>474.3482971191406</v>
+        <v>399.7373046875</v>
       </c>
       <c r="KE3" t="n">
-        <v>473.8745422363281</v>
+        <v>399.9830932617188</v>
       </c>
       <c r="KF3" t="n">
-        <v>472.534423828125</v>
+        <v>398.4357299804688</v>
       </c>
       <c r="KG3" t="n">
-        <v>472.3453063964844</v>
+        <v>398.1294250488281</v>
       </c>
       <c r="KH3" t="n">
-        <v>472.8619079589844</v>
+        <v>398.9355773925781</v>
       </c>
       <c r="KI3" t="n">
-        <v>475.430419921875</v>
+        <v>399.7691040039062</v>
       </c>
       <c r="KJ3" t="n">
-        <v>476.6457824707031</v>
+        <v>399.9388732910156</v>
       </c>
       <c r="KK3" t="n">
-        <v>476.0333557128906</v>
+        <v>398.9598693847656</v>
       </c>
       <c r="KL3" t="n">
-        <v>483.7327270507812</v>
+        <v>398.5472717285156</v>
       </c>
       <c r="KM3" t="n">
-        <v>491.9830932617188</v>
+        <v>399.1250915527344</v>
       </c>
       <c r="KN3" t="n">
-        <v>499.5998840332031</v>
+        <v>399.0594787597656</v>
       </c>
       <c r="KO3" t="n">
-        <v>507.2747192382812</v>
+        <v>398.6335754394531</v>
       </c>
       <c r="KP3" t="n">
-        <v>508.9774169921875</v>
+        <v>401.2071228027344</v>
       </c>
       <c r="KQ3" t="n">
-        <v>517.7916870117188</v>
+        <v>405.3838195800781</v>
       </c>
       <c r="KR3" t="n">
-        <v>518.0237426757812</v>
+        <v>413.5990600585938</v>
       </c>
       <c r="KS3" t="n">
-        <v>503.5266418457031</v>
+        <v>411.3277282714844</v>
       </c>
       <c r="KT3" t="n">
-        <v>517.7098999023438</v>
+        <v>408.9172668457031</v>
       </c>
       <c r="KU3" t="n">
-        <v>545.0555419921875</v>
+        <v>416.510986328125</v>
       </c>
       <c r="KV3" t="n">
-        <v>550.0404052734375</v>
+        <v>436.8914794921875</v>
       </c>
       <c r="KW3" t="n">
-        <v>557.7218627929688</v>
+        <v>442.9127502441406</v>
       </c>
       <c r="KX3" t="n">
-        <v>563.1704711914062</v>
+        <v>461.9203491210938</v>
       </c>
       <c r="KY3" t="n">
-        <v>575.6818237304688</v>
+        <v>473.2025146484375</v>
       </c>
       <c r="KZ3" t="n">
-        <v>580.4248046875</v>
+        <v>481.0420532226562</v>
       </c>
       <c r="LA3" t="n">
-        <v>591.056640625</v>
+        <v>500.1369018554688</v>
       </c>
       <c r="LB3" t="n">
-        <v>593.7196044921875</v>
+        <v>500.8988647460938</v>
       </c>
       <c r="LC3" t="n">
-        <v>597.178955078125</v>
+        <v>527.5297241210938</v>
       </c>
       <c r="LD3" t="n">
-        <v>599.4354858398438</v>
+        <v>560.6848754882812</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>592.7252807617188</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>627.95703125</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>654.5908813476562</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>729.9242553710938</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>778.7604370117188</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>868.4786987304688</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>858.4375610351562</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>968.191650390625</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>978.1512451171875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>972.2408447265625</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>1030.171142578125</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>1056.37890625</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>1113.226806640625</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>1115.735229492188</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>1231.802734375</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>1139.354248046875</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>1175.67919921875</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>1201.250244140625</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>1209.634155273438</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>1207.6357421875</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>1188.057373046875</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>1207.807739257812</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>1208.890014648438</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>1210.686645507812</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>1294.7119140625</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>1295.88525390625</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>1291.400390625</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1295.55126953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>871.674560546875</v>
+        <v>792.2411499023438</v>
       </c>
       <c r="B4" t="n">
-        <v>940.9132690429688</v>
+        <v>819.3224487304688</v>
       </c>
       <c r="C4" t="n">
-        <v>969.0177001953125</v>
+        <v>843.3475952148438</v>
       </c>
       <c r="D4" t="n">
-        <v>1004.855285644531</v>
+        <v>867.8015747070312</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.936889648438</v>
+        <v>901.576171875</v>
       </c>
       <c r="F4" t="n">
-        <v>1056.289184570312</v>
+        <v>936.994873046875</v>
       </c>
       <c r="G4" t="n">
-        <v>1066.0546875</v>
+        <v>968.8895263671875</v>
       </c>
       <c r="H4" t="n">
-        <v>1089.650268554688</v>
+        <v>1011.419738769531</v>
       </c>
       <c r="I4" t="n">
-        <v>1117.8818359375</v>
+        <v>1049.9541015625</v>
       </c>
       <c r="J4" t="n">
-        <v>1145.07861328125</v>
+        <v>1083.1201171875</v>
       </c>
       <c r="K4" t="n">
-        <v>1183.6416015625</v>
+        <v>1115.055541992188</v>
       </c>
       <c r="L4" t="n">
-        <v>1213.175537109375</v>
+        <v>1145.858764648438</v>
       </c>
       <c r="M4" t="n">
-        <v>1244.601440429688</v>
+        <v>1175.162353515625</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.817260742188</v>
+        <v>1206.841430664062</v>
       </c>
       <c r="O4" t="n">
-        <v>1309.19873046875</v>
+        <v>1230.533935546875</v>
       </c>
       <c r="P4" t="n">
-        <v>1335.474975585938</v>
+        <v>1259.718994140625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1360.213012695312</v>
+        <v>1284.033813476562</v>
       </c>
       <c r="R4" t="n">
-        <v>1149.711059570312</v>
+        <v>1303.879638671875</v>
       </c>
       <c r="S4" t="n">
-        <v>1181.212768554688</v>
+        <v>1333.175903320312</v>
       </c>
       <c r="T4" t="n">
-        <v>1222.954833984375</v>
+        <v>1359.25146484375</v>
       </c>
       <c r="U4" t="n">
-        <v>1269.5458984375</v>
+        <v>1387.609252929688</v>
       </c>
       <c r="V4" t="n">
-        <v>1307.116455078125</v>
+        <v>1417.31298828125</v>
       </c>
       <c r="W4" t="n">
-        <v>1343.708129882812</v>
+        <v>1442.372314453125</v>
       </c>
       <c r="X4" t="n">
-        <v>1387.657348632812</v>
+        <v>1468.878540039062</v>
       </c>
       <c r="Y4" t="n">
-        <v>1450.574340820312</v>
+        <v>1326.92431640625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1488.855590820312</v>
+        <v>1358.55126953125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1546.93896484375</v>
+        <v>1396.996215820312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1578.957763671875</v>
+        <v>1439.959594726562</v>
       </c>
       <c r="AC4" t="n">
-        <v>1608.107421875</v>
+        <v>1456.625366210938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1641.10107421875</v>
+        <v>1477.201782226562</v>
       </c>
       <c r="AE4" t="n">
-        <v>1658.073120117188</v>
+        <v>1503.436767578125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1677.33203125</v>
+        <v>1531.153686523438</v>
       </c>
       <c r="AG4" t="n">
-        <v>1696.621704101562</v>
+        <v>1556.246948242188</v>
       </c>
       <c r="AH4" t="n">
-        <v>1712.484985351562</v>
+        <v>1581.5888671875</v>
       </c>
       <c r="AI4" t="n">
-        <v>1744.76318359375</v>
+        <v>1621.820190429688</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1768.434814453125</v>
+        <v>1665.337890625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1787.146240234375</v>
+        <v>1714.438232421875</v>
       </c>
       <c r="AL4" t="n">
-        <v>1791.876586914062</v>
+        <v>1755.323852539062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1807.3125</v>
+        <v>1790.242553710938</v>
       </c>
       <c r="AN4" t="n">
-        <v>1821.50634765625</v>
+        <v>1838.354125976562</v>
       </c>
       <c r="AO4" t="n">
-        <v>1825.368408203125</v>
+        <v>1883.383056640625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1824.596801757812</v>
+        <v>1923.893310546875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1822.020874023438</v>
+        <v>1950.497192382812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1821.479614257812</v>
+        <v>1990.258911132812</v>
       </c>
       <c r="AS4" t="n">
-        <v>1822.855346679688</v>
+        <v>2019.50439453125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1822.813232421875</v>
+        <v>2111.08642578125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1822.458740234375</v>
+        <v>2167.683349609375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1822.176025390625</v>
+        <v>2175.8828125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1819.932006835938</v>
+        <v>2077.91357421875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1814.716674804688</v>
+        <v>1979.38916015625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1809.072265625</v>
+        <v>1904.33984375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1810.753784179688</v>
+        <v>2176.8056640625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1813.834716796875</v>
+        <v>2185.15673828125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1817.806274414062</v>
+        <v>2202.451416015625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1828.098999023438</v>
+        <v>2214.149658203125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1837.254272460938</v>
+        <v>2228.98046875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1844.6650390625</v>
+        <v>2238.3427734375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1844.785034179688</v>
+        <v>2239.623046875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1845.369750976562</v>
+        <v>2244.607666015625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1845.665649414062</v>
+        <v>2248.90576171875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1845.329223632812</v>
+        <v>2255.38134765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1845.260986328125</v>
+        <v>2224.05322265625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1845.61767578125</v>
+        <v>2222.224853515625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1843.1552734375</v>
+        <v>2221.08447265625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1841.557495117188</v>
+        <v>2214.7958984375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1840.447998046875</v>
+        <v>2207.561767578125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1839.478515625</v>
+        <v>2200.88818359375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1838.817993164062</v>
+        <v>2200.129150390625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1837.16943359375</v>
+        <v>2195.760986328125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1835.738403320312</v>
+        <v>2199.1513671875</v>
       </c>
       <c r="BS4" t="n">
-        <v>1835.084350585938</v>
+        <v>2196.315185546875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1834.659423828125</v>
+        <v>2199.876953125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1833.10791015625</v>
+        <v>2199.537841796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1830.60595703125</v>
+        <v>2219.4521484375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1826.455200195312</v>
+        <v>2239.30322265625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1822.891967773438</v>
+        <v>2246.00439453125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1816.961669921875</v>
+        <v>2263.000732421875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1814.651123046875</v>
+        <v>2265.48046875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1810.937622070312</v>
+        <v>2269.871337890625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1811.224609375</v>
+        <v>2266.763916015625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1811.07470703125</v>
+        <v>2266.724365234375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1810.6904296875</v>
+        <v>2266.09814453125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1809.908935546875</v>
+        <v>2264.697998046875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1809.998168945312</v>
+        <v>2263.28955078125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1809.95654296875</v>
+        <v>2261.35693359375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1809.760375976562</v>
+        <v>2263.1826171875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1809.305786132812</v>
+        <v>2263.142578125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1809.034057617188</v>
+        <v>2262.645751953125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1808.306274414062</v>
+        <v>2262.80224609375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1808.634765625</v>
+        <v>2263.04931640625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1809.744140625</v>
+        <v>2262.7490234375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1810.0419921875</v>
+        <v>2262.820068359375</v>
       </c>
       <c r="CO4" t="n">
-        <v>1810.724853515625</v>
+        <v>2262.0107421875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1810.198852539062</v>
+        <v>2261.009521484375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1810.2333984375</v>
+        <v>2259.87451171875</v>
       </c>
       <c r="CR4" t="n">
-        <v>1809.74951171875</v>
+        <v>2259.77880859375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1809.80224609375</v>
+        <v>2261.570068359375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1809.826782226562</v>
+        <v>2267.619873046875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1809.724731445312</v>
+        <v>2270.255859375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1809.328979492188</v>
+        <v>2270.3984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1809.892944335938</v>
+        <v>2270.05224609375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1810.480590820312</v>
+        <v>2271.503662109375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1810.60693359375</v>
+        <v>2269.866455078125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1810.685302734375</v>
+        <v>2269.268310546875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1811.28564453125</v>
+        <v>2269.143798828125</v>
       </c>
       <c r="DB4" t="n">
-        <v>1813.4208984375</v>
+        <v>2266.64453125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1814.723266601562</v>
+        <v>2265.031494140625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1816.133056640625</v>
+        <v>2260.75439453125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1818.378173828125</v>
+        <v>2260.93603515625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1820.71240234375</v>
+        <v>2261.313720703125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1823.548461914062</v>
+        <v>2261.113037109375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1822.866577148438</v>
+        <v>2261.642822265625</v>
       </c>
       <c r="DI4" t="n">
-        <v>1821.762084960938</v>
+        <v>2261.09228515625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1821.812744140625</v>
+        <v>2261.507568359375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1822.518920898438</v>
+        <v>2262.345703125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1821.273315429688</v>
+        <v>2262.389404296875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1820.624755859375</v>
+        <v>2264.0009765625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1820.470703125</v>
+        <v>2263.14208984375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1820.888671875</v>
+        <v>2263.33740234375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1820.705932617188</v>
+        <v>2263.4833984375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1820.681030273438</v>
+        <v>2261.33349609375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1820.605712890625</v>
+        <v>2263.32275390625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1820.473022460938</v>
+        <v>2263.935302734375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1819.418579101562</v>
+        <v>2264.711181640625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1819.18505859375</v>
+        <v>2265.89013671875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1819.61865234375</v>
+        <v>2270.83447265625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1819.631225585938</v>
+        <v>2272.10302734375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1820.615844726562</v>
+        <v>2272.407958984375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1820.429077148438</v>
+        <v>2272.258544921875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1820.398681640625</v>
+        <v>2271.440673828125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1820.699462890625</v>
+        <v>2269.9453125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1820.622680664062</v>
+        <v>2270.1337890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1820.51171875</v>
+        <v>2270.159912109375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1820.15576171875</v>
+        <v>2270.268310546875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1819.304077148438</v>
+        <v>2271.771484375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1819.261108398438</v>
+        <v>2270.271484375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1819.65380859375</v>
+        <v>2269.095458984375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1820.038452148438</v>
+        <v>2264.0537109375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1821.196899414062</v>
+        <v>2265.135498046875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1820.361450195312</v>
+        <v>2265.339599609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1821.212890625</v>
+        <v>2265.685791015625</v>
       </c>
       <c r="EL4" t="n">
-        <v>1820.839599609375</v>
+        <v>2265.0986328125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1821.197021484375</v>
+        <v>2264.221435546875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1821.142211914062</v>
+        <v>2264.250244140625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1821.095825195312</v>
+        <v>2263.111572265625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1820.969848632812</v>
+        <v>2264.888427734375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1819.595458984375</v>
+        <v>2264.97998046875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1819.30908203125</v>
+        <v>2264.914794921875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1819.317626953125</v>
+        <v>2264.44970703125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1820.306518554688</v>
+        <v>2264.323974609375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1820.029296875</v>
+        <v>2264.526123046875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1820.005981445312</v>
+        <v>2264.513671875</v>
       </c>
       <c r="EW4" t="n">
-        <v>1819.986694335938</v>
+        <v>2264.62255859375</v>
       </c>
       <c r="EX4" t="n">
-        <v>1819.925537109375</v>
+        <v>2264.89599609375</v>
       </c>
       <c r="EY4" t="n">
-        <v>1820.1015625</v>
+        <v>2264.455810546875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1820.336181640625</v>
+        <v>2264.511474609375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1820.378173828125</v>
+        <v>2264.356201171875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1820.4130859375</v>
+        <v>2264.498046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1820.222900390625</v>
+        <v>2264.62939453125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1819.906616210938</v>
+        <v>2262.9912109375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1819.862548828125</v>
+        <v>2266.034912109375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1819.046752929688</v>
+        <v>2263.795166015625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1817.73486328125</v>
+        <v>2264.177734375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1817.673828125</v>
+        <v>2263.766357421875</v>
       </c>
       <c r="FI4" t="n">
-        <v>1816.04443359375</v>
+        <v>2265.840576171875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1815.980834960938</v>
+        <v>2264.408935546875</v>
       </c>
       <c r="FK4" t="n">
-        <v>1816.0888671875</v>
+        <v>2265.9990234375</v>
       </c>
       <c r="FL4" t="n">
-        <v>1816.114379882812</v>
+        <v>2265.4970703125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1816.210083007812</v>
+        <v>2266.33544921875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1816.669555664062</v>
+        <v>2266.2021484375</v>
       </c>
       <c r="FO4" t="n">
-        <v>1816.834228515625</v>
+        <v>2273.437255859375</v>
       </c>
       <c r="FP4" t="n">
-        <v>1816.8759765625</v>
+        <v>2266.86962890625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1817.004516601562</v>
+        <v>2266.11083984375</v>
       </c>
       <c r="FR4" t="n">
-        <v>1816.935791015625</v>
+        <v>2268.427001953125</v>
       </c>
       <c r="FS4" t="n">
-        <v>1816.549194335938</v>
+        <v>2266.31689453125</v>
       </c>
       <c r="FT4" t="n">
-        <v>1815.947021484375</v>
+        <v>2265.76513671875</v>
       </c>
       <c r="FU4" t="n">
-        <v>1816.236572265625</v>
+        <v>2266.5439453125</v>
       </c>
       <c r="FV4" t="n">
-        <v>1816.25830078125</v>
+        <v>2267.22314453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>1815.809448242188</v>
+        <v>2267.556396484375</v>
       </c>
       <c r="FX4" t="n">
-        <v>1815.999755859375</v>
+        <v>2264.480224609375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1814.542846679688</v>
+        <v>2261.179931640625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1814.802734375</v>
+        <v>2258.127197265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>1815.029052734375</v>
+        <v>2258.739990234375</v>
       </c>
       <c r="GB4" t="n">
-        <v>1814.65771484375</v>
+        <v>2262.588623046875</v>
       </c>
       <c r="GC4" t="n">
-        <v>1816.287231445312</v>
+        <v>2264.701416015625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1817.146118164062</v>
+        <v>2264.657470703125</v>
       </c>
       <c r="GE4" t="n">
-        <v>1817.500610351562</v>
+        <v>2264.633056640625</v>
       </c>
       <c r="GF4" t="n">
-        <v>1817.447875976562</v>
+        <v>2266.0166015625</v>
       </c>
       <c r="GG4" t="n">
-        <v>1817.088500976562</v>
+        <v>2266.134033203125</v>
       </c>
       <c r="GH4" t="n">
-        <v>1816.324340820312</v>
+        <v>2272.02490234375</v>
       </c>
       <c r="GI4" t="n">
-        <v>1815.8173828125</v>
+        <v>2273.30419921875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1815.729614257812</v>
+        <v>2264.8876953125</v>
       </c>
       <c r="GK4" t="n">
-        <v>1815.418090820312</v>
+        <v>2264.0791015625</v>
       </c>
       <c r="GL4" t="n">
-        <v>1815.221435546875</v>
+        <v>2264.93994140625</v>
       </c>
       <c r="GM4" t="n">
-        <v>1815.276611328125</v>
+        <v>2265.25732421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>1815.674072265625</v>
+        <v>2266.136962890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>1816.340942382812</v>
+        <v>2265.452392578125</v>
       </c>
       <c r="GP4" t="n">
-        <v>1816.347045898438</v>
+        <v>2264.049560546875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1815.294799804688</v>
+        <v>2262.15478515625</v>
       </c>
       <c r="GR4" t="n">
-        <v>1814.695068359375</v>
+        <v>2261.365478515625</v>
       </c>
       <c r="GS4" t="n">
-        <v>1813.435180664062</v>
+        <v>2261.4482421875</v>
       </c>
       <c r="GT4" t="n">
-        <v>1814.653564453125</v>
+        <v>2264.527099609375</v>
       </c>
       <c r="GU4" t="n">
-        <v>1814.797485351562</v>
+        <v>2274.05615234375</v>
       </c>
       <c r="GV4" t="n">
-        <v>1815.0341796875</v>
+        <v>2269.8974609375</v>
       </c>
       <c r="GW4" t="n">
-        <v>1814.917236328125</v>
+        <v>2269.70458984375</v>
       </c>
       <c r="GX4" t="n">
-        <v>1814.800537109375</v>
+        <v>2272.546875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1814.314086914062</v>
+        <v>2271.846923828125</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1813.930786132812</v>
+        <v>2270.51806640625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1813.251586914062</v>
+        <v>2270.35205078125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1813.380737304688</v>
+        <v>2269.369384765625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1813.270263671875</v>
+        <v>2269.62158203125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1813.352294921875</v>
+        <v>2268.58740234375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1813.253295898438</v>
+        <v>2269.763427734375</v>
       </c>
       <c r="HF4" t="n">
-        <v>1812.828857421875</v>
+        <v>2269.44091796875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1812.647338867188</v>
+        <v>2271.203369140625</v>
       </c>
       <c r="HH4" t="n">
-        <v>1812.4150390625</v>
+        <v>2272.135986328125</v>
       </c>
       <c r="HI4" t="n">
-        <v>1812.514770507812</v>
+        <v>2270.68017578125</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1812.88525390625</v>
+        <v>2272.11328125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1812.92041015625</v>
+        <v>2285.130859375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1813.284790039062</v>
+        <v>2273.595703125</v>
       </c>
       <c r="HM4" t="n">
-        <v>1814.043212890625</v>
+        <v>2277.568603515625</v>
       </c>
       <c r="HN4" t="n">
-        <v>1815.64013671875</v>
+        <v>2283.240966796875</v>
       </c>
       <c r="HO4" t="n">
-        <v>1815.602905273438</v>
+        <v>2282.8125</v>
       </c>
       <c r="HP4" t="n">
-        <v>1815.162231445312</v>
+        <v>2285.4697265625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1814.67626953125</v>
+        <v>2284.062255859375</v>
       </c>
       <c r="HR4" t="n">
-        <v>1814.988037109375</v>
+        <v>2276.997314453125</v>
       </c>
       <c r="HS4" t="n">
-        <v>1813.420166015625</v>
+        <v>2277.251708984375</v>
       </c>
       <c r="HT4" t="n">
-        <v>1813.931884765625</v>
+        <v>2276.8955078125</v>
       </c>
       <c r="HU4" t="n">
-        <v>1814.393798828125</v>
+        <v>2276.10205078125</v>
       </c>
       <c r="HV4" t="n">
-        <v>1814.224853515625</v>
+        <v>2276.62451171875</v>
       </c>
       <c r="HW4" t="n">
-        <v>1815.332153320312</v>
+        <v>2277.40625</v>
       </c>
       <c r="HX4" t="n">
-        <v>1815.191162109375</v>
+        <v>2275.443115234375</v>
       </c>
       <c r="HY4" t="n">
-        <v>1815.166870117188</v>
+        <v>2279.470703125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1815.266845703125</v>
+        <v>2271.8623046875</v>
       </c>
       <c r="IA4" t="n">
-        <v>1815.37548828125</v>
+        <v>2274.197021484375</v>
       </c>
       <c r="IB4" t="n">
-        <v>1815.359130859375</v>
+        <v>2271.716552734375</v>
       </c>
       <c r="IC4" t="n">
-        <v>1814.8095703125</v>
+        <v>2276.012451171875</v>
       </c>
       <c r="ID4" t="n">
-        <v>1813.517456054688</v>
+        <v>2278.11328125</v>
       </c>
       <c r="IE4" t="n">
-        <v>1813.239501953125</v>
+        <v>2276.345458984375</v>
       </c>
       <c r="IF4" t="n">
-        <v>1812.859741210938</v>
+        <v>2275.446044921875</v>
       </c>
       <c r="IG4" t="n">
-        <v>1812.89501953125</v>
+        <v>2276.434326171875</v>
       </c>
       <c r="IH4" t="n">
-        <v>1813.318359375</v>
+        <v>2276.22021484375</v>
       </c>
       <c r="II4" t="n">
-        <v>1813.31103515625</v>
+        <v>2275.6259765625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1813.374267578125</v>
+        <v>2275.5126953125</v>
       </c>
       <c r="IK4" t="n">
-        <v>1813.243408203125</v>
+        <v>2276.387451171875</v>
       </c>
       <c r="IL4" t="n">
-        <v>1813.350952148438</v>
+        <v>2275.83837890625</v>
       </c>
       <c r="IM4" t="n">
-        <v>1812.275024414062</v>
+        <v>2274.6552734375</v>
       </c>
       <c r="IN4" t="n">
-        <v>1811.239868164062</v>
+        <v>2272.232177734375</v>
       </c>
       <c r="IO4" t="n">
-        <v>1811.09326171875</v>
+        <v>2273.131103515625</v>
       </c>
       <c r="IP4" t="n">
-        <v>1811.122802734375</v>
+        <v>2265.929443359375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1811.0029296875</v>
+        <v>2262.515625</v>
       </c>
       <c r="IR4" t="n">
-        <v>1811.728881835938</v>
+        <v>2269.385986328125</v>
       </c>
       <c r="IS4" t="n">
-        <v>1812.96044921875</v>
+        <v>2267.693359375</v>
       </c>
       <c r="IT4" t="n">
-        <v>1812.964477539062</v>
+        <v>2266.916259765625</v>
       </c>
       <c r="IU4" t="n">
-        <v>1812.987670898438</v>
+        <v>2264.851806640625</v>
       </c>
       <c r="IV4" t="n">
-        <v>1812.0888671875</v>
+        <v>2267.451171875</v>
       </c>
       <c r="IW4" t="n">
-        <v>1812.7802734375</v>
+        <v>2266.28857421875</v>
       </c>
       <c r="IX4" t="n">
-        <v>1814.1826171875</v>
+        <v>2267.54052734375</v>
       </c>
       <c r="IY4" t="n">
-        <v>1814.027465820312</v>
+        <v>2267.245849609375</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1813.905517578125</v>
+        <v>2268.0966796875</v>
       </c>
       <c r="JA4" t="n">
-        <v>1813.880493164062</v>
+        <v>2268.3173828125</v>
       </c>
       <c r="JB4" t="n">
-        <v>1812.814453125</v>
+        <v>2266.09375</v>
       </c>
       <c r="JC4" t="n">
-        <v>1812.142211914062</v>
+        <v>2268.864501953125</v>
       </c>
       <c r="JD4" t="n">
-        <v>1811.2783203125</v>
+        <v>2270.52685546875</v>
       </c>
       <c r="JE4" t="n">
-        <v>1808.92236328125</v>
+        <v>2271.0810546875</v>
       </c>
       <c r="JF4" t="n">
-        <v>1808.541381835938</v>
+        <v>2275.85693359375</v>
       </c>
       <c r="JG4" t="n">
-        <v>1808.23583984375</v>
+        <v>2273.066650390625</v>
       </c>
       <c r="JH4" t="n">
-        <v>1808.275390625</v>
+        <v>2271.65234375</v>
       </c>
       <c r="JI4" t="n">
-        <v>1808.309326171875</v>
+        <v>2257.412109375</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1808.13623046875</v>
+        <v>2261.164306640625</v>
       </c>
       <c r="JK4" t="n">
-        <v>1808.727905273438</v>
+        <v>2258.551513671875</v>
       </c>
       <c r="JL4" t="n">
-        <v>1811.283569335938</v>
+        <v>2259.19482421875</v>
       </c>
       <c r="JM4" t="n">
-        <v>1810.372436523438</v>
+        <v>2259.799560546875</v>
       </c>
       <c r="JN4" t="n">
-        <v>1810.103759765625</v>
+        <v>2260.255126953125</v>
       </c>
       <c r="JO4" t="n">
-        <v>1809.83203125</v>
+        <v>2260.804931640625</v>
       </c>
       <c r="JP4" t="n">
-        <v>1810.224731445312</v>
+        <v>2261.794677734375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1810.408447265625</v>
+        <v>2262.108642578125</v>
       </c>
       <c r="JR4" t="n">
-        <v>1809.560424804688</v>
+        <v>2261.98291015625</v>
       </c>
       <c r="JS4" t="n">
-        <v>1808.913940429688</v>
+        <v>2262.057861328125</v>
       </c>
       <c r="JT4" t="n">
-        <v>1809.2861328125</v>
+        <v>2262.364990234375</v>
       </c>
       <c r="JU4" t="n">
-        <v>1809.95751953125</v>
+        <v>2265.95849609375</v>
       </c>
       <c r="JV4" t="n">
-        <v>1809.851684570312</v>
+        <v>2266.34326171875</v>
       </c>
       <c r="JW4" t="n">
-        <v>1810.060302734375</v>
+        <v>2265.211181640625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1810.971557617188</v>
+        <v>2264.966552734375</v>
       </c>
       <c r="JY4" t="n">
-        <v>1810.687255859375</v>
+        <v>2266.446044921875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1810.962768554688</v>
+        <v>2266.125</v>
       </c>
       <c r="KA4" t="n">
-        <v>1809.33984375</v>
+        <v>2263.37451171875</v>
       </c>
       <c r="KB4" t="n">
-        <v>1807.473266601562</v>
+        <v>2261.849853515625</v>
       </c>
       <c r="KC4" t="n">
-        <v>1806.607788085938</v>
+        <v>2265.419189453125</v>
       </c>
       <c r="KD4" t="n">
-        <v>1813.82568359375</v>
+        <v>2272.465576171875</v>
       </c>
       <c r="KE4" t="n">
-        <v>1808.51025390625</v>
+        <v>2272.251953125</v>
       </c>
       <c r="KF4" t="n">
-        <v>1802.102783203125</v>
+        <v>2271.5048828125</v>
       </c>
       <c r="KG4" t="n">
-        <v>1784.123413085938</v>
+        <v>2272.05810546875</v>
       </c>
       <c r="KH4" t="n">
-        <v>1753.868530273438</v>
+        <v>2271.6025390625</v>
       </c>
       <c r="KI4" t="n">
-        <v>1736.639282226562</v>
+        <v>2270.7431640625</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1705.604736328125</v>
+        <v>2269.706787109375</v>
       </c>
       <c r="KK4" t="n">
-        <v>1676.15966796875</v>
+        <v>2269.148681640625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1630.91943359375</v>
+        <v>2268.7529296875</v>
       </c>
       <c r="KM4" t="n">
-        <v>1573.556762695312</v>
+        <v>2268.037353515625</v>
       </c>
       <c r="KN4" t="n">
-        <v>1501.730224609375</v>
+        <v>2268.12744140625</v>
       </c>
       <c r="KO4" t="n">
-        <v>1403.071655273438</v>
+        <v>2267.14990234375</v>
       </c>
       <c r="KP4" t="n">
-        <v>1324.661743164062</v>
+        <v>2233.035888671875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1259.216430664062</v>
+        <v>2175.220458984375</v>
       </c>
       <c r="KR4" t="n">
-        <v>1144.28564453125</v>
+        <v>2005.63623046875</v>
       </c>
       <c r="KS4" t="n">
-        <v>998.43359375</v>
+        <v>1928.102783203125</v>
       </c>
       <c r="KT4" t="n">
-        <v>955.9086303710938</v>
+        <v>1850.390380859375</v>
       </c>
       <c r="KU4" t="n">
-        <v>910.9492797851562</v>
+        <v>1779.154296875</v>
       </c>
       <c r="KV4" t="n">
-        <v>829.79833984375</v>
+        <v>1644.10205078125</v>
       </c>
       <c r="KW4" t="n">
-        <v>774.536376953125</v>
+        <v>1569.000610351562</v>
       </c>
       <c r="KX4" t="n">
-        <v>782.3912353515625</v>
+        <v>1473.313720703125</v>
       </c>
       <c r="KY4" t="n">
-        <v>1018.265563964844</v>
+        <v>1423.178466796875</v>
       </c>
       <c r="KZ4" t="n">
-        <v>997.4293823242188</v>
+        <v>1386.042846679688</v>
       </c>
       <c r="LA4" t="n">
-        <v>958.8837890625</v>
+        <v>1246.961669921875</v>
       </c>
       <c r="LB4" t="n">
-        <v>952.72509765625</v>
+        <v>1341.557739257812</v>
       </c>
       <c r="LC4" t="n">
-        <v>939.7288818359375</v>
+        <v>1204.363403320312</v>
       </c>
       <c r="LD4" t="n">
-        <v>933.9094848632812</v>
+        <v>1065.078369140625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>945.8081665039062</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>859.0719604492188</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>803.833740234375</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>687.3653564453125</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>623.5728149414062</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>547.7150268554688</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>544.7577514648438</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>495.3782348632812</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>436.3316345214844</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>473.7127685546875</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>441.9719848632812</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>427.8745727539062</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>402.0061340332031</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>396.004150390625</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>362.4971313476562</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>395.1162109375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>344.2810974121094</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>337.0745849609375</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>334.1162414550781</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>334.0834045410156</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>338.8637084960938</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>333.2217407226562</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>332.5824279785156</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>331.8407287597656</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>317.4123229980469</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>317.357666015625</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>325.6343688964844</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>318.0657348632812</v>
       </c>
     </row>
   </sheetData>
